--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1716200</v>
+        <v>1472000</v>
       </c>
       <c r="E8" s="3">
-        <v>2987700</v>
+        <v>3301800</v>
       </c>
       <c r="F8" s="3">
-        <v>1495500</v>
+        <v>1731200</v>
       </c>
       <c r="G8" s="3">
-        <v>3113900</v>
+        <v>3013800</v>
       </c>
       <c r="H8" s="3">
-        <v>1535000</v>
+        <v>1508600</v>
       </c>
       <c r="I8" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1548400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3078800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1539400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3213400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1584200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3229100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1934400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4039100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>360100</v>
+        <v>348900</v>
       </c>
       <c r="E9" s="3">
-        <v>670900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
+        <v>764200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>363300</v>
       </c>
       <c r="G9" s="3">
-        <v>732400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>362300</v>
+        <v>676700</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>757600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>365500</v>
+      </c>
+      <c r="K9" s="3">
         <v>711500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>766300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>765200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1247800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1356000</v>
+        <v>1123100</v>
       </c>
       <c r="E10" s="3">
-        <v>2316800</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
+        <v>2537500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1367900</v>
       </c>
       <c r="G10" s="3">
-        <v>2381600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1172700</v>
+        <v>2337000</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I10" s="3">
+        <v>2382400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1182900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2367300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2447100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2463900</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2791300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-208600</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>86700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>13300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-210400</v>
       </c>
       <c r="G14" s="3">
-        <v>2200</v>
+        <v>87500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>45000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>10100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37300</v>
+        <v>36600</v>
       </c>
       <c r="E15" s="3">
-        <v>826800</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+        <v>845100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>37700</v>
       </c>
       <c r="G15" s="3">
-        <v>771900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>40600</v>
+        <v>834000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
+        <v>840700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K15" s="3">
         <v>829000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>795500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>779800</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>883900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,43 +1134,49 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2537500</v>
+        <v>2602900</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>2706600</v>
+        <v>2559700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="3">
+        <v>2711400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>2603400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2787000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2808300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3407600</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>450200</v>
+        <v>698900</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>407400</v>
+        <v>454100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="3">
+        <v>428600</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>475400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>426400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>420700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>631500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-128500</v>
+        <v>-258100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-186700</v>
+        <v>-129600</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="3">
+        <v>-186100</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-114200</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-190700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-85300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-405000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,72 +1304,78 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>1158400</v>
+        <v>1299200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>919000</v>
+        <v>1168500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>1097600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1196800</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1032200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1125400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1110400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7700</v>
+        <v>6600</v>
       </c>
       <c r="E22" s="3">
-        <v>16500</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8800</v>
+        <v>14400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G22" s="3">
+        <v>16600</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K22" s="3">
         <v>18700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1319,43 +1404,49 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>305200</v>
+        <v>426400</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>220700</v>
+        <v>307900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I23" s="3">
+        <v>224800</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>342600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>235600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>335500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>226500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,43 +1454,49 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>67000</v>
+        <v>-13300</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>172400</v>
+        <v>67600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="3">
+        <v>172800</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>74700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>61700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>71800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>38700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>344800</v>
+        <v>132900</v>
       </c>
       <c r="E26" s="3">
-        <v>238300</v>
+        <v>439700</v>
       </c>
       <c r="F26" s="3">
-        <v>97700</v>
+        <v>347800</v>
       </c>
       <c r="G26" s="3">
-        <v>48300</v>
+        <v>240300</v>
       </c>
       <c r="H26" s="3">
-        <v>103200</v>
+        <v>98600</v>
       </c>
       <c r="I26" s="3">
+        <v>52100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K26" s="3">
         <v>267900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>107600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>173900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>111100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>263700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>108000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>187800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>344800</v>
+        <v>132900</v>
       </c>
       <c r="E27" s="3">
-        <v>238300</v>
+        <v>438600</v>
       </c>
       <c r="F27" s="3">
-        <v>97700</v>
+        <v>347800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2200</v>
+        <v>240300</v>
       </c>
       <c r="H27" s="3">
-        <v>103200</v>
+        <v>98600</v>
       </c>
       <c r="I27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K27" s="3">
         <v>267900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>107600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>116700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>111100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>263700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>108000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>127900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,43 +1704,49 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>14300</v>
+        <v>-1100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>7700</v>
+        <v>14400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-18700</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-5600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>5600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>79800</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>128500</v>
+        <v>258100</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>186700</v>
+        <v>129600</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="3">
+        <v>186100</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>114200</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>190700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>85300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>405000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>344800</v>
+        <v>132900</v>
       </c>
       <c r="E33" s="3">
-        <v>252500</v>
+        <v>437500</v>
       </c>
       <c r="F33" s="3">
-        <v>97700</v>
+        <v>347800</v>
       </c>
       <c r="G33" s="3">
-        <v>5500</v>
+        <v>254700</v>
       </c>
       <c r="H33" s="3">
-        <v>103200</v>
+        <v>98600</v>
       </c>
       <c r="I33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K33" s="3">
         <v>249200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>107600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>111100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>111100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>269300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>108000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>207800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>344800</v>
+        <v>132900</v>
       </c>
       <c r="E35" s="3">
-        <v>252500</v>
+        <v>437500</v>
       </c>
       <c r="F35" s="3">
-        <v>97700</v>
+        <v>347800</v>
       </c>
       <c r="G35" s="3">
-        <v>5500</v>
+        <v>254700</v>
       </c>
       <c r="H35" s="3">
-        <v>103200</v>
+        <v>98600</v>
       </c>
       <c r="I35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K35" s="3">
         <v>249200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>107600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>111100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>111100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>269300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>108000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>207800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,43 +2149,49 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>418300</v>
+        <v>848400</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G41" s="3">
-        <v>652200</v>
+        <v>422000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I41" s="3">
+        <v>657900</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>1127600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>960400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1027700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1383900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2020,43 +2199,49 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
+        <v>304600</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
         <v>2200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>547900</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I42" s="3">
+        <v>552700</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>1143000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>1570800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>268200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>164300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,43 +2249,49 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>931100</v>
+        <v>878300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G43" s="3">
-        <v>972800</v>
+        <v>939200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I43" s="3">
+        <v>981300</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>1022200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>1148900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>877400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>899100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,43 +2299,49 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
-        <v>68100</v>
+        <v>59800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G44" s="3">
+        <v>68700</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>64200</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>63700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>63700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>60600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>66200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>55200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,14 +2349,14 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2169,15 +2366,15 @@
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1200500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,43 +2399,49 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
-        <v>1420800</v>
+        <v>2114400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>2235500</v>
+        <v>1433200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="3">
+        <v>2255100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>3356600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>3739600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2239500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2502600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2240,43 +2449,49 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>281100</v>
+        <v>197200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G47" s="3">
-        <v>299800</v>
+        <v>283500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I47" s="3">
+        <v>302400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>243800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>262500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>1475400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2340600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,43 +2499,49 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
-        <v>6010500</v>
+        <v>6954600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G48" s="3">
-        <v>6143300</v>
+        <v>6063000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I48" s="3">
+        <v>7210500</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6250900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6519900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6592800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7006500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2328,43 +2549,49 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
-        <v>4210800</v>
+        <v>3317300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>4443600</v>
+        <v>4247600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I49" s="3">
+        <v>4360600</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3514700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3748600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3605000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3814900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2699,49 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>1193500</v>
+        <v>1044500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G52" s="3">
-        <v>1157300</v>
+        <v>1204000</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>1167400</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1330800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1208400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1337400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1632800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2548,43 +2799,49 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>13116700</v>
+        <v>13627900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G54" s="3">
-        <v>14279500</v>
+        <v>13231400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I54" s="3">
+        <v>14404300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>14696700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>15456500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>15250100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>17297300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,43 +2889,49 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>1292300</v>
+        <v>1391100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>1490000</v>
+        <v>1303600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>1503000</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1686500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1702100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1883800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2158600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,43 +2939,49 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>134000</v>
+        <v>1198400</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>800400</v>
+        <v>135100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I58" s="3">
+        <v>807400</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>643400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>20200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>19100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>862800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,43 +2989,49 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
-        <v>357900</v>
+        <v>327800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G59" s="3">
-        <v>382100</v>
+        <v>361100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I59" s="3">
+        <v>385400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>88900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>396100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>66200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>63400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,43 +3039,49 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
-        <v>1784300</v>
+        <v>2917400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G60" s="3">
-        <v>2672500</v>
+        <v>1799900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I60" s="3">
+        <v>2695900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2418900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2118300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1969100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>3084800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,43 +3089,49 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>8446900</v>
+        <v>7207200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8527100</v>
+        <v>8520800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>8601600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7731000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>8503600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8634800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9269600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +3139,49 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>1047500</v>
+        <v>726600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G62" s="3">
-        <v>1017800</v>
+        <v>1056700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="3">
+        <v>1026700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1021100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>926800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>700100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>716000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3024,43 +3339,49 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
-        <v>11279800</v>
+        <v>10852300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G66" s="3">
-        <v>12217400</v>
+        <v>11378400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I66" s="3">
+        <v>12324300</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>11171100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>11549800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>11304000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>13070400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3609,49 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
-        <v>-7621200</v>
+        <v>-7312400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G72" s="3">
-        <v>-7396100</v>
+        <v>-7687900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I72" s="3">
+        <v>-7460800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2021400</v>
+        <v>3012700</v>
       </c>
       <c r="E76" s="3">
-        <v>1837000</v>
+        <v>2775600</v>
       </c>
       <c r="F76" s="3">
-        <v>2122400</v>
+        <v>2039100</v>
       </c>
       <c r="G76" s="3">
-        <v>2062000</v>
+        <v>1853000</v>
       </c>
       <c r="H76" s="3">
-        <v>2222400</v>
+        <v>2141000</v>
       </c>
       <c r="I76" s="3">
+        <v>2080100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2241800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3525700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3799100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3906800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>3946000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>4226900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>344800</v>
+        <v>132900</v>
       </c>
       <c r="E81" s="3">
-        <v>252500</v>
+        <v>437500</v>
       </c>
       <c r="F81" s="3">
-        <v>97700</v>
+        <v>347800</v>
       </c>
       <c r="G81" s="3">
-        <v>5500</v>
+        <v>254700</v>
       </c>
       <c r="H81" s="3">
-        <v>103200</v>
+        <v>98600</v>
       </c>
       <c r="I81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K81" s="3">
         <v>249200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>107600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>111100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>111100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>269300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>108000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>207800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,43 +4034,49 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>836700</v>
+        <v>858400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G83" s="3">
-        <v>698300</v>
+        <v>844000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>855100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>835600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>801100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>796600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>883900</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,43 +4334,49 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>946500</v>
+        <v>1268200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G89" s="3">
-        <v>1098000</v>
+        <v>954800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>1262700</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1062900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1249900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>938000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1263000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-418300</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-452400</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+        <v>-495100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-422000</v>
       </c>
       <c r="G91" s="3">
-        <v>-477600</v>
+        <v>-456300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-481800</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-419400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-482500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-442100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>111500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4554,49 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-115300</v>
+        <v>-666800</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G94" s="3">
-        <v>-83400</v>
+        <v>-116300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-340400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-812300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>127900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-699600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-368900</v>
+        <v>-194900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-184500</v>
+        <v>-372200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-186100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-396400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-173900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-401700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-165500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,43 +4824,49 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>-1084800</v>
+        <v>-173900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G100" s="3">
-        <v>-1588800</v>
+        <v>-1094300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>-1602700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-411800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-507100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-363900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4397,23 +4894,29 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +4924,45 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>-253600</v>
+        <v>427500</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="3">
-        <v>-479800</v>
+        <v>-255900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>-484000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>216300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-69600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-296200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>261800</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1472000</v>
+        <v>3114600</v>
       </c>
       <c r="E8" s="3">
-        <v>3301800</v>
+        <v>1572100</v>
       </c>
       <c r="F8" s="3">
-        <v>1731200</v>
+        <v>3526200</v>
       </c>
       <c r="G8" s="3">
-        <v>3013800</v>
+        <v>1848900</v>
       </c>
       <c r="H8" s="3">
-        <v>1508600</v>
+        <v>3218700</v>
       </c>
       <c r="I8" s="3">
-        <v>3140000</v>
+        <v>1611100</v>
       </c>
       <c r="J8" s="3">
+        <v>3353500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1548400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3078800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1539400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3213400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1584200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3229100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1934400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4039100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>348900</v>
+        <v>723900</v>
       </c>
       <c r="E9" s="3">
-        <v>764200</v>
+        <v>372600</v>
       </c>
       <c r="F9" s="3">
-        <v>363300</v>
+        <v>816200</v>
       </c>
       <c r="G9" s="3">
-        <v>676700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>757600</v>
+        <v>388000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>722800</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J9" s="3">
+        <v>809100</v>
+      </c>
+      <c r="K9" s="3">
         <v>365500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>711500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>766300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>765200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>1247800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1123100</v>
+        <v>2390600</v>
       </c>
       <c r="E10" s="3">
-        <v>2537500</v>
+        <v>1199500</v>
       </c>
       <c r="F10" s="3">
-        <v>1367900</v>
+        <v>2710000</v>
       </c>
       <c r="G10" s="3">
-        <v>2337000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2382400</v>
+        <v>1460900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2495900</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J10" s="3">
+        <v>2544400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1182900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2367300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2447100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2463900</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2791300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>13300</v>
+      <c r="D14" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>-210400</v>
+        <v>20100</v>
       </c>
       <c r="G14" s="3">
-        <v>87500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+        <v>-224800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>93400</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>45000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>10100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36600</v>
+        <v>901400</v>
       </c>
       <c r="E15" s="3">
-        <v>845100</v>
+        <v>39000</v>
       </c>
       <c r="F15" s="3">
-        <v>37700</v>
+        <v>902600</v>
       </c>
       <c r="G15" s="3">
-        <v>834000</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+        <v>40200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>890700</v>
       </c>
       <c r="I15" s="3">
-        <v>840700</v>
+        <v>41400</v>
       </c>
       <c r="J15" s="3">
+        <v>897800</v>
+      </c>
+      <c r="K15" s="3">
         <v>41000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>829000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>795500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>779800</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>883900</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2602900</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2559700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2711400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>2583500</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2779800</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2733700</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2895700</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>2603400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2787000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2808300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>3407600</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>698900</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>454100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>428600</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>531100</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>746400</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>485000</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>457800</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>475400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>426400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>420700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>631500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,140 +1278,147 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-258100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-129600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-186100</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-275600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-198700</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-114200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-190700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-85300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-405000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1299200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1168500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1097600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>1317800</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1387500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1172300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1196800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1032200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1125400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1110400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6600</v>
+        <v>13000</v>
       </c>
       <c r="E22" s="3">
-        <v>14400</v>
+        <v>7100</v>
       </c>
       <c r="F22" s="3">
-        <v>7800</v>
+        <v>15400</v>
       </c>
       <c r="G22" s="3">
-        <v>16600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H22" s="3">
         <v>17700</v>
       </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="J22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K22" s="3">
         <v>8900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>426400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>307900</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>224800</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>379700</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>455400</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>328800</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>240100</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>342600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>235600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>335500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>226500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>67600</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>172800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>72200</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>74700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>61700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>71800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>38700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132900</v>
+        <v>301600</v>
       </c>
       <c r="E26" s="3">
-        <v>439700</v>
+        <v>141900</v>
       </c>
       <c r="F26" s="3">
-        <v>347800</v>
+        <v>469600</v>
       </c>
       <c r="G26" s="3">
-        <v>240300</v>
+        <v>371400</v>
       </c>
       <c r="H26" s="3">
-        <v>98600</v>
+        <v>256700</v>
       </c>
       <c r="I26" s="3">
-        <v>52100</v>
+        <v>105300</v>
       </c>
       <c r="J26" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K26" s="3">
         <v>104100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>267900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>173900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>111100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>263700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>108000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>187800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132900</v>
+        <v>301600</v>
       </c>
       <c r="E27" s="3">
-        <v>438600</v>
+        <v>141900</v>
       </c>
       <c r="F27" s="3">
-        <v>347800</v>
+        <v>468400</v>
       </c>
       <c r="G27" s="3">
-        <v>240300</v>
+        <v>371400</v>
       </c>
       <c r="H27" s="3">
-        <v>98600</v>
+        <v>256700</v>
       </c>
       <c r="I27" s="3">
-        <v>-11100</v>
+        <v>105300</v>
       </c>
       <c r="J27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K27" s="3">
         <v>104100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>267900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>263700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>108000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>127900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="D29" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-18700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-5600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>5600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>79800</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>258100</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>129600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>186100</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>275600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>138400</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>198700</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>114200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>190700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>85300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>405000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132900</v>
+        <v>302800</v>
       </c>
       <c r="E33" s="3">
-        <v>437500</v>
+        <v>141900</v>
       </c>
       <c r="F33" s="3">
-        <v>347800</v>
+        <v>467200</v>
       </c>
       <c r="G33" s="3">
-        <v>254700</v>
+        <v>371400</v>
       </c>
       <c r="H33" s="3">
-        <v>98600</v>
+        <v>272100</v>
       </c>
       <c r="I33" s="3">
-        <v>-3300</v>
+        <v>105300</v>
       </c>
       <c r="J33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K33" s="3">
         <v>104100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>249200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>111100</v>
       </c>
       <c r="N33" s="3">
         <v>111100</v>
       </c>
       <c r="O33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="P33" s="3">
         <v>269300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>108000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>207800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132900</v>
+        <v>302800</v>
       </c>
       <c r="E35" s="3">
-        <v>437500</v>
+        <v>141900</v>
       </c>
       <c r="F35" s="3">
-        <v>347800</v>
+        <v>467200</v>
       </c>
       <c r="G35" s="3">
-        <v>254700</v>
+        <v>371400</v>
       </c>
       <c r="H35" s="3">
-        <v>98600</v>
+        <v>272100</v>
       </c>
       <c r="I35" s="3">
-        <v>-3300</v>
+        <v>105300</v>
       </c>
       <c r="J35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K35" s="3">
         <v>104100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>249200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>111100</v>
       </c>
       <c r="N35" s="3">
         <v>111100</v>
       </c>
       <c r="O35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="P35" s="3">
         <v>269300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>108000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>207800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,225 +2226,238 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>848400</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>422000</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>657900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>1072900</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>906100</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>450700</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>702600</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>1127600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>960400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1027700</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1383900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>304600</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>552700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>325300</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>590300</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>1143000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>1570800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>268200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>164300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>878300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>939200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>981300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>952200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>938000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1003100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>1022200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1148900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>877400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>899100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>59800</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>68700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>64200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>63900</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>73300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>68600</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>63700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>60600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>66200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>55200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>23300</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
@@ -2372,226 +2471,241 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1200500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2114400</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1433200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2255100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>2087800</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2258200</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1530700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2408400</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>3356600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>3739600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2239500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2502600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>197200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>283500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>302400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>199900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>210600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>302800</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>322900</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>243800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>262500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>1475400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>2340600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6954600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6063000</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7210500</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>7447500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7427400</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6475200</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7700700</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6250900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>6519900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6592800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7006500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3317300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4247600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4360600</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>3445800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3542800</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4536400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4657100</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3514700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3748600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3605000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3814900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1044500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1204000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1167400</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>1064600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1115500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1285800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1246800</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1330800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1208400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1337400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1632800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>13627900</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13231400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>14404300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>14245700</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>14554400</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>14130900</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>15383600</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>14696700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>15456500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>15250100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>17297300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1391100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1303600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1503000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1350900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1485700</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1392300</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1605200</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1686500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1702100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1883800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>2158600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1198400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>135100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>807400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>1250300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1279900</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>144300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>862300</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>643400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>20200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>19100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>862800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>327800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>361100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>385400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>350100</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>385600</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>411600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>88900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>396100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>66200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>63400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2917400</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1799900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2695900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>2867300</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3115800</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2879200</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>2418900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2118300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1969100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>3084800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7622600</v>
       </c>
       <c r="E61" s="3">
-        <v>7207200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7697100</v>
       </c>
       <c r="G61" s="3">
-        <v>8520800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>9100000</v>
       </c>
       <c r="I61" s="3">
-        <v>8601600</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>9186400</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7731000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>8503600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>8634800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9269600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>726600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1056700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1026700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>822100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>776000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1128500</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1096500</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1021100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>926800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>700100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>716000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10852300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>11378400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>12324300</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>11313300</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11590100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>12151900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13162100</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>11171100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>11549800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>11304000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>13070400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7312400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7687900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-7460800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-7842600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-7809500</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-8210500</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-7968000</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3012700</v>
+        <v>2932400</v>
       </c>
       <c r="E76" s="3">
-        <v>2775600</v>
+        <v>3217500</v>
       </c>
       <c r="F76" s="3">
-        <v>2039100</v>
+        <v>2964300</v>
       </c>
       <c r="G76" s="3">
-        <v>1853000</v>
+        <v>2177700</v>
       </c>
       <c r="H76" s="3">
-        <v>2141000</v>
+        <v>1979000</v>
       </c>
       <c r="I76" s="3">
-        <v>2080100</v>
+        <v>2286500</v>
       </c>
       <c r="J76" s="3">
+        <v>2221500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2241800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3525700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3799100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3906800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>3946000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>4226900</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132900</v>
+        <v>302800</v>
       </c>
       <c r="E81" s="3">
-        <v>437500</v>
+        <v>141900</v>
       </c>
       <c r="F81" s="3">
-        <v>347800</v>
+        <v>467200</v>
       </c>
       <c r="G81" s="3">
-        <v>254700</v>
+        <v>371400</v>
       </c>
       <c r="H81" s="3">
-        <v>98600</v>
+        <v>272100</v>
       </c>
       <c r="I81" s="3">
-        <v>-3300</v>
+        <v>105300</v>
       </c>
       <c r="J81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K81" s="3">
         <v>104100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>249200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>111100</v>
       </c>
       <c r="N81" s="3">
         <v>111100</v>
       </c>
       <c r="O81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="P81" s="3">
         <v>269300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>108000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>207800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>858400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>844000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>855100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>925000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>916700</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>901400</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>913200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>835600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>801100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>796600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>883900</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1268200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>954800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1262700</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>1084700</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1354400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1019700</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1348500</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1062900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1249900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>938000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1263000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-495100</v>
+      <c r="D91" s="3">
+        <v>-539400</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-422000</v>
+        <v>-528800</v>
       </c>
       <c r="G91" s="3">
-        <v>-456300</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-481800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+        <v>-450700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-487400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-514600</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-419400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-482500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-442100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>111500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-666800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-116300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-362000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-712100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-89900</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-340400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-812300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>127900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-699600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-415200</v>
       </c>
       <c r="E96" s="3">
-        <v>-194900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-208200</v>
       </c>
       <c r="G96" s="3">
-        <v>-372200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-397500</v>
       </c>
       <c r="I96" s="3">
-        <v>-186100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-198700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-396400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-173900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-401700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-165500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-173900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1094300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1602700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-557100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-185700</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1168700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1711700</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-411800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-507100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-363900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4900,69 +5149,75 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>427500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-255900</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-484000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>456600</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-273200</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-516900</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>216300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-69600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-296200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>261800</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3114600</v>
+        <v>1553900</v>
       </c>
       <c r="E8" s="3">
-        <v>1572100</v>
+        <v>3149600</v>
       </c>
       <c r="F8" s="3">
-        <v>3526200</v>
+        <v>1589700</v>
       </c>
       <c r="G8" s="3">
-        <v>1848900</v>
+        <v>3565900</v>
       </c>
       <c r="H8" s="3">
-        <v>3218700</v>
+        <v>1869700</v>
       </c>
       <c r="I8" s="3">
-        <v>1611100</v>
+        <v>3254900</v>
       </c>
       <c r="J8" s="3">
+        <v>1629200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3353500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1548400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3078800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1539400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3213400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1584200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3229100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1934400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4039100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>723900</v>
+        <v>379200</v>
       </c>
       <c r="E9" s="3">
-        <v>372600</v>
+        <v>732100</v>
       </c>
       <c r="F9" s="3">
-        <v>816200</v>
+        <v>376800</v>
       </c>
       <c r="G9" s="3">
-        <v>388000</v>
+        <v>825400</v>
       </c>
       <c r="H9" s="3">
-        <v>722800</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
+        <v>392400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>730900</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>809100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>365500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>711500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>766300</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>765200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>1247800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2390600</v>
+        <v>1174700</v>
       </c>
       <c r="E10" s="3">
-        <v>1199500</v>
+        <v>2417500</v>
       </c>
       <c r="F10" s="3">
-        <v>2710000</v>
+        <v>1212900</v>
       </c>
       <c r="G10" s="3">
-        <v>1460900</v>
+        <v>2740500</v>
       </c>
       <c r="H10" s="3">
-        <v>2495900</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
+        <v>1477300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2524000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>2544400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1182900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2367300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2447100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2463900</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2791300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>101700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>20100</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>102900</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>-224800</v>
+        <v>20300</v>
       </c>
       <c r="H14" s="3">
-        <v>93400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+        <v>-227300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>94500</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>15400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>45000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>901400</v>
+        <v>38300</v>
       </c>
       <c r="E15" s="3">
-        <v>39000</v>
+        <v>911500</v>
       </c>
       <c r="F15" s="3">
-        <v>902600</v>
+        <v>39500</v>
       </c>
       <c r="G15" s="3">
-        <v>40200</v>
+        <v>912700</v>
       </c>
       <c r="H15" s="3">
-        <v>890700</v>
+        <v>40700</v>
       </c>
       <c r="I15" s="3">
-        <v>41400</v>
+        <v>900700</v>
       </c>
       <c r="J15" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K15" s="3">
         <v>897800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>829000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>795500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>779800</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>883900</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2583500</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2779800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2733700</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2612500</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2811100</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2764400</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>2895700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2603400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2787000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2808300</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>3407600</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>531100</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>746400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>485000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>537100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>754800</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>490400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>457800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>475400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>426400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>420700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>631500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,149 +1312,156 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-275600</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-278700</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-198700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-114200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-190700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-85300</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-405000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1317800</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1387500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1248000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1332600</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1403100</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1172300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1196800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1032200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1125400</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1110400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>13000</v>
+        <v>7200</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>13200</v>
       </c>
       <c r="F22" s="3">
-        <v>15400</v>
+        <v>7200</v>
       </c>
       <c r="G22" s="3">
-        <v>8300</v>
+        <v>15600</v>
       </c>
       <c r="H22" s="3">
-        <v>17700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>17900</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>18900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>379700</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>455400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>328800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>384000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>460500</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>332500</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>240100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>342600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>235600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>335500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>226500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>78100</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>72200</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>78900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>184500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>74700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>61700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>71800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>38700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>301600</v>
+        <v>157900</v>
       </c>
       <c r="E26" s="3">
-        <v>141900</v>
+        <v>305000</v>
       </c>
       <c r="F26" s="3">
-        <v>469600</v>
+        <v>143500</v>
       </c>
       <c r="G26" s="3">
-        <v>371400</v>
+        <v>474900</v>
       </c>
       <c r="H26" s="3">
-        <v>256700</v>
+        <v>375600</v>
       </c>
       <c r="I26" s="3">
-        <v>105300</v>
+        <v>259600</v>
       </c>
       <c r="J26" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K26" s="3">
         <v>55600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>267900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>173900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>111100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>263700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>108000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>187800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>301600</v>
+        <v>157900</v>
       </c>
       <c r="E27" s="3">
-        <v>141900</v>
+        <v>305000</v>
       </c>
       <c r="F27" s="3">
-        <v>468400</v>
+        <v>143500</v>
       </c>
       <c r="G27" s="3">
-        <v>371400</v>
+        <v>473700</v>
       </c>
       <c r="H27" s="3">
-        <v>256700</v>
+        <v>375600</v>
       </c>
       <c r="I27" s="3">
-        <v>105300</v>
+        <v>259600</v>
       </c>
       <c r="J27" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>267900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>263700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>108000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>127900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>1200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1200</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>8300</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-18700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>79800</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>138400</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
-        <v>275600</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>138400</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>278700</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>140000</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>198700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>114200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>190700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>85300</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>405000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>302800</v>
+        <v>157900</v>
       </c>
       <c r="E33" s="3">
-        <v>141900</v>
+        <v>306200</v>
       </c>
       <c r="F33" s="3">
-        <v>467200</v>
+        <v>143500</v>
       </c>
       <c r="G33" s="3">
-        <v>371400</v>
+        <v>472500</v>
       </c>
       <c r="H33" s="3">
-        <v>272100</v>
+        <v>375600</v>
       </c>
       <c r="I33" s="3">
-        <v>105300</v>
+        <v>275100</v>
       </c>
       <c r="J33" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>249200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>111100</v>
       </c>
       <c r="O33" s="3">
         <v>111100</v>
       </c>
       <c r="P33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>269300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>207800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>302800</v>
+        <v>157900</v>
       </c>
       <c r="E35" s="3">
-        <v>141900</v>
+        <v>306200</v>
       </c>
       <c r="F35" s="3">
-        <v>467200</v>
+        <v>143500</v>
       </c>
       <c r="G35" s="3">
-        <v>371400</v>
+        <v>472500</v>
       </c>
       <c r="H35" s="3">
-        <v>272100</v>
+        <v>375600</v>
       </c>
       <c r="I35" s="3">
-        <v>105300</v>
+        <v>275100</v>
       </c>
       <c r="J35" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>249200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>111100</v>
       </c>
       <c r="O35" s="3">
         <v>111100</v>
       </c>
       <c r="P35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>269300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>207800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,241 +2313,254 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>1072900</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>906100</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>450700</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>916300</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>455800</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>702600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>1127600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>960400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1027700</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1383900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>325300</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>329000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>2400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>590300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>1143000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>1570800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>268200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>164300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>952200</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>938000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1003100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>962900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>948600</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1014400</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>1048000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>1022200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1148900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>877400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>899100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>58000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>63900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>73300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>58600</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>64600</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>74200</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>68600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>63700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>60600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>66200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>55200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>24800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25100</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2474,238 +2573,253 @@
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1200500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>2087800</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2258200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1530700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2111300</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2283500</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1547900</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>2408400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>3356600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>3739600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2239500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2502600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>199900</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>210600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>302800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>202200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>212900</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>306200</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>322900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>243800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>262500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1475400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>2340600</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>7447500</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7427400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6475200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7531300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7510900</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6548000</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>7700700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6250900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6519900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6592800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7006500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3445800</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3542800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4536400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3484500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3582600</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4587400</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>4657100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3514700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3748600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3605000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3814900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1064600</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1115500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1285800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1076600</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1300300</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1246800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1330800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1208400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1337400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1632800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>14245700</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>14554400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>14130900</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14405800</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>14718000</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>14289800</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>15383600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>14696700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>15456500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>15250100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>17297300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1350900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1485700</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1392300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1366100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1502400</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1407900</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1605200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1686500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1702100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1883800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>2158600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1250300</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1279900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>144300</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1264400</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1294300</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>145900</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>862300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>643400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>20200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>19100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>862800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>266200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>350100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>385600</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>269100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>354100</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>390000</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>411600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>88900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>396100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>66200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>63400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>2867300</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3115800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1922200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2899600</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3150800</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1943800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2879200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2418900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2118300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1969100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>3084800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7622600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7708300</v>
       </c>
       <c r="F61" s="3">
-        <v>7697100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7783700</v>
       </c>
       <c r="H61" s="3">
-        <v>9100000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>9202400</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>9186400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7731000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8503600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8634800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9269600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>822100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>776000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1128500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>831400</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>784700</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1141200</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1096500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1021100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>926800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>700100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>716000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>11313300</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>11590100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>12151900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11440500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>11720400</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>12288600</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>13162100</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>11171100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>11549800</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>11304000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>13070400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-7842600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7809500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-8210500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7930800</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-7897300</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-8302800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2932400</v>
+        <v>2892400</v>
       </c>
       <c r="E76" s="3">
-        <v>3217500</v>
+        <v>2965400</v>
       </c>
       <c r="F76" s="3">
-        <v>2964300</v>
+        <v>3253700</v>
       </c>
       <c r="G76" s="3">
-        <v>2177700</v>
+        <v>2997700</v>
       </c>
       <c r="H76" s="3">
-        <v>1979000</v>
+        <v>2202200</v>
       </c>
       <c r="I76" s="3">
-        <v>2286500</v>
+        <v>2001200</v>
       </c>
       <c r="J76" s="3">
+        <v>2312300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2221500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2241800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3525700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3799100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3906800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3946000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>4226900</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>302800</v>
+        <v>157900</v>
       </c>
       <c r="E81" s="3">
-        <v>141900</v>
+        <v>306200</v>
       </c>
       <c r="F81" s="3">
-        <v>467200</v>
+        <v>143500</v>
       </c>
       <c r="G81" s="3">
-        <v>371400</v>
+        <v>472500</v>
       </c>
       <c r="H81" s="3">
-        <v>272100</v>
+        <v>375600</v>
       </c>
       <c r="I81" s="3">
-        <v>105300</v>
+        <v>275100</v>
       </c>
       <c r="J81" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>249200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>111100</v>
       </c>
       <c r="O81" s="3">
         <v>111100</v>
       </c>
       <c r="P81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>269300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>207800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>925000</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>916700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>901400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>935400</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>927100</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>911500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>913200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>835600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>801100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>796600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>883900</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1084700</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1354400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1019700</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1096900</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1369600</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1031100</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1348500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1062900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1249900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>938000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1263000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-539400</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-528800</v>
+        <v>-482100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-545500</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-450700</v>
+        <v>-534700</v>
       </c>
       <c r="H91" s="3">
-        <v>-487400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+        <v>-455800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-492800</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-514600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-419400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-482500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-442100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>111500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-362000</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-712100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-124200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-720100</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-125600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-89900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-340400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-812300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>127900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-699600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-415200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-419900</v>
       </c>
       <c r="F96" s="3">
-        <v>-208200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-210500</v>
       </c>
       <c r="H96" s="3">
-        <v>-397500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-401900</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-198700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-396400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-173900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-401700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-165500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-557100</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-185700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-1168700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-563400</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-187800</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1181800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-411800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-507100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-363900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5152,72 +5401,78 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>165600</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>456600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-273200</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>167500</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>461700</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-276300</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-516900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>216300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-69600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-296200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>261800</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1553900</v>
+        <v>3141000</v>
       </c>
       <c r="E8" s="3">
-        <v>3149600</v>
+        <v>1528100</v>
       </c>
       <c r="F8" s="3">
-        <v>1589700</v>
+        <v>3097500</v>
       </c>
       <c r="G8" s="3">
-        <v>3565900</v>
+        <v>1563400</v>
       </c>
       <c r="H8" s="3">
-        <v>1869700</v>
+        <v>3506800</v>
       </c>
       <c r="I8" s="3">
-        <v>3254900</v>
+        <v>1838700</v>
       </c>
       <c r="J8" s="3">
+        <v>3201000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1629200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3353500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1548400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3078800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1539400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3213400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1584200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3229100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1934400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4039100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>379200</v>
+        <v>790500</v>
       </c>
       <c r="E9" s="3">
-        <v>732100</v>
+        <v>372900</v>
       </c>
       <c r="F9" s="3">
-        <v>376800</v>
+        <v>720000</v>
       </c>
       <c r="G9" s="3">
-        <v>825400</v>
+        <v>370600</v>
       </c>
       <c r="H9" s="3">
-        <v>392400</v>
+        <v>811700</v>
       </c>
       <c r="I9" s="3">
-        <v>730900</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+        <v>385900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>718800</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>809100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>365500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>711500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>766300</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>765200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>1247800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1174700</v>
+        <v>2350400</v>
       </c>
       <c r="E10" s="3">
-        <v>2417500</v>
+        <v>1155200</v>
       </c>
       <c r="F10" s="3">
-        <v>1212900</v>
+        <v>2377500</v>
       </c>
       <c r="G10" s="3">
-        <v>2740500</v>
+        <v>1192900</v>
       </c>
       <c r="H10" s="3">
-        <v>1477300</v>
+        <v>2695100</v>
       </c>
       <c r="I10" s="3">
-        <v>2524000</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1452900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2482200</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>2544400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1182900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2367300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2447100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2463900</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2791300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>102900</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20300</v>
+      <c r="D14" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44700</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>-227300</v>
+        <v>20000</v>
       </c>
       <c r="I14" s="3">
-        <v>94500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+        <v>-223500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>15400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>45000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>10100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>38300</v>
+        <v>896400</v>
       </c>
       <c r="E15" s="3">
-        <v>911500</v>
+        <v>37600</v>
       </c>
       <c r="F15" s="3">
-        <v>39500</v>
+        <v>896400</v>
       </c>
       <c r="G15" s="3">
-        <v>912700</v>
+        <v>38800</v>
       </c>
       <c r="H15" s="3">
-        <v>40700</v>
+        <v>897600</v>
       </c>
       <c r="I15" s="3">
-        <v>900700</v>
+        <v>40000</v>
       </c>
       <c r="J15" s="3">
+        <v>885800</v>
+      </c>
+      <c r="K15" s="3">
         <v>41900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>897800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>829000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>795500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>779800</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>883900</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2612500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2811100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2764400</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="D17" s="3">
+        <v>2596300</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2569300</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2764500</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2718700</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>2895700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2603400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2787000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2808300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>3407600</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>537100</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>754800</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>490400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="D18" s="3">
+        <v>544700</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>528200</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>742300</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>482300</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>457800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>475400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>426400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>420700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>631500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,158 +1345,165 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-278700</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-140000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="D20" s="3">
+        <v>-145900</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-274100</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-137600</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-198700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-114200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-190700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-85300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-405000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1332600</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1403100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1262000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="D21" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1310500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1379900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1241100</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1172300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1196800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1032200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1125400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1110400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7200</v>
+        <v>12900</v>
       </c>
       <c r="E22" s="3">
-        <v>13200</v>
+        <v>7100</v>
       </c>
       <c r="F22" s="3">
-        <v>7200</v>
+        <v>12900</v>
       </c>
       <c r="G22" s="3">
-        <v>15600</v>
+        <v>7100</v>
       </c>
       <c r="H22" s="3">
-        <v>8400</v>
+        <v>15300</v>
       </c>
       <c r="I22" s="3">
-        <v>17900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>18900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>18700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>384000</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
-        <v>460500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>332500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="D23" s="3">
+        <v>385900</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>377600</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>452900</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>327000</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>240100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>342600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>235600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>335500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>226500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>78900</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-14400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>73000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="D24" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>77600</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>184500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>74700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>61700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>71800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>38700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>157900</v>
+        <v>360000</v>
       </c>
       <c r="E26" s="3">
-        <v>305000</v>
+        <v>155300</v>
       </c>
       <c r="F26" s="3">
-        <v>143500</v>
+        <v>300000</v>
       </c>
       <c r="G26" s="3">
-        <v>474900</v>
+        <v>141200</v>
       </c>
       <c r="H26" s="3">
-        <v>375600</v>
+        <v>467000</v>
       </c>
       <c r="I26" s="3">
-        <v>259600</v>
+        <v>369400</v>
       </c>
       <c r="J26" s="3">
+        <v>255300</v>
+      </c>
+      <c r="K26" s="3">
         <v>106500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>55600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>267900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>173900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>111100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>263700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>108000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>187800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>157900</v>
+        <v>348200</v>
       </c>
       <c r="E27" s="3">
-        <v>305000</v>
+        <v>155300</v>
       </c>
       <c r="F27" s="3">
-        <v>143500</v>
+        <v>300000</v>
       </c>
       <c r="G27" s="3">
-        <v>473700</v>
+        <v>141200</v>
       </c>
       <c r="H27" s="3">
-        <v>375600</v>
+        <v>465900</v>
       </c>
       <c r="I27" s="3">
-        <v>259600</v>
+        <v>369400</v>
       </c>
       <c r="J27" s="3">
+        <v>255300</v>
+      </c>
+      <c r="K27" s="3">
         <v>106500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>267900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>263700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>108000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>127900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1874,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>1200</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>15600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>8300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-18700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-5600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>5600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>79800</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>140000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>278700</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
-        <v>140000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="D32" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>137600</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>274100</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>137600</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>198700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>114200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>190700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>85300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>405000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>157900</v>
+        <v>347000</v>
       </c>
       <c r="E33" s="3">
-        <v>306200</v>
+        <v>155300</v>
       </c>
       <c r="F33" s="3">
-        <v>143500</v>
+        <v>301200</v>
       </c>
       <c r="G33" s="3">
-        <v>472500</v>
+        <v>141200</v>
       </c>
       <c r="H33" s="3">
-        <v>375600</v>
+        <v>464700</v>
       </c>
       <c r="I33" s="3">
-        <v>275100</v>
+        <v>369400</v>
       </c>
       <c r="J33" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K33" s="3">
         <v>106500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>249200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>111100</v>
       </c>
       <c r="P33" s="3">
         <v>111100</v>
       </c>
       <c r="Q33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="R33" s="3">
         <v>269300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>207800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>157900</v>
+        <v>347000</v>
       </c>
       <c r="E35" s="3">
-        <v>306200</v>
+        <v>155300</v>
       </c>
       <c r="F35" s="3">
-        <v>143500</v>
+        <v>301200</v>
       </c>
       <c r="G35" s="3">
-        <v>472500</v>
+        <v>141200</v>
       </c>
       <c r="H35" s="3">
-        <v>375600</v>
+        <v>464700</v>
       </c>
       <c r="I35" s="3">
-        <v>275100</v>
+        <v>369400</v>
       </c>
       <c r="J35" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K35" s="3">
         <v>106500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>249200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>111100</v>
       </c>
       <c r="P35" s="3">
         <v>111100</v>
       </c>
       <c r="Q35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="R35" s="3">
         <v>269300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>207800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,256 +2399,269 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1085000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>916300</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>455800</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>702300</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>901100</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>448200</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>702600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>1127600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>960400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1027700</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1383900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>329000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="D42" s="3">
+        <v>317600</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>323500</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>2400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>590300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>1143000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>1570800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>268200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>164300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>962900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>948600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1014400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>807000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>947000</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>932900</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>997600</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>1048000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1022200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1148900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>877400</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>899100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>58600</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>64600</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>74200</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>57600</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>63500</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>72900</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>68600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>63700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>60600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>66200</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>55200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>25100</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="D45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2576,250 +2674,265 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1200500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2111300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2283500</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1547900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>1895200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2076300</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2245700</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1522300</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>2408400</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>3356600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>3739600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2239500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2502600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>202200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>212900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>306200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>229400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>198800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>209400</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>301200</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>322900</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>243800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>262500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>1475400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>2340600</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7531300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7510900</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6548000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>7386600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7406600</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7386600</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6439600</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>7700700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>6250900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6519900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>6592800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>7006500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3484500</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3582600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4587400</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>3809200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3426900</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3523300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4511500</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>4657100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3514700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3748600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3605000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3814900</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1076600</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1128000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1300300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>890500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1058800</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1109300</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1278700</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1246800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1330800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1208400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1337400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1632800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>14405800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>14718000</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>14289800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>14210900</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>14167400</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>14474400</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14053300</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>15383600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>14696700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>15456500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>15250100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>17297300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1366100</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1502400</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1407900</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1343400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1477600</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1384600</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1605200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1686500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1702100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>1883800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>2158600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1264400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1294300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>145900</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>975200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1243500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1272900</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>862300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>643400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>20200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>19100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>862800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>269100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>354100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>390000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>296500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>264700</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>348200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>411600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>88900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>396100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>66200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>63400</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2899600</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3150800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1943800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>2598700</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2851600</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3098600</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1911700</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>2879200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2418900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>2118300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1969100</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>3084800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7773700</v>
       </c>
       <c r="E61" s="3">
-        <v>7708300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7580700</v>
       </c>
       <c r="G61" s="3">
-        <v>7783700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7654800</v>
       </c>
       <c r="I61" s="3">
-        <v>9202400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>9050000</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>9186400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7731000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>8503600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8634800</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9269600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>831400</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>784700</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1141200</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>754100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>817600</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>771700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1122300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1096500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1021100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>926800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>700100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>716000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>11440500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>11720400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>12288600</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>11127600</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11251100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11526400</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12085200</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>13162100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>11171100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>11549800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>11304000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>13070400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7930800</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7897300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-8302800</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-7632500</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-7799500</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7766600</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-8165400</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2892400</v>
+        <v>3083300</v>
       </c>
       <c r="E76" s="3">
-        <v>2965400</v>
+        <v>2844500</v>
       </c>
       <c r="F76" s="3">
-        <v>3253700</v>
+        <v>2916300</v>
       </c>
       <c r="G76" s="3">
-        <v>2997700</v>
+        <v>3199800</v>
       </c>
       <c r="H76" s="3">
-        <v>2202200</v>
+        <v>2948100</v>
       </c>
       <c r="I76" s="3">
-        <v>2001200</v>
+        <v>2165800</v>
       </c>
       <c r="J76" s="3">
+        <v>1968100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2312300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2221500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2241800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3525700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3799100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3906800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>3946000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>4226900</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>157900</v>
+        <v>347000</v>
       </c>
       <c r="E81" s="3">
-        <v>306200</v>
+        <v>155300</v>
       </c>
       <c r="F81" s="3">
-        <v>143500</v>
+        <v>301200</v>
       </c>
       <c r="G81" s="3">
-        <v>472500</v>
+        <v>141200</v>
       </c>
       <c r="H81" s="3">
-        <v>375600</v>
+        <v>464700</v>
       </c>
       <c r="I81" s="3">
-        <v>275100</v>
+        <v>369400</v>
       </c>
       <c r="J81" s="3">
+        <v>270600</v>
+      </c>
+      <c r="K81" s="3">
         <v>106500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>249200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>111100</v>
       </c>
       <c r="P81" s="3">
         <v>111100</v>
       </c>
       <c r="Q81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="R81" s="3">
         <v>269300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>207800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
-        <v>935400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>927100</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>911500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>905800</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
+        <v>919900</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>911700</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
+        <v>896400</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>913200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>835600</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>801100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>796600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>883900</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
-        <v>1096900</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
-        <v>1369600</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1031100</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>1323500</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1078800</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1347000</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1014100</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1348500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1062900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1249900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>938000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1263000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-482100</v>
+        <v>-548200</v>
       </c>
       <c r="E91" s="3">
-        <v>-545500</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-534700</v>
+        <v>-474100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-536400</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H91" s="3">
-        <v>-455800</v>
+        <v>-525900</v>
       </c>
       <c r="I91" s="3">
-        <v>-492800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+        <v>-448200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-484700</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-514600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-419400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-482500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-442100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>111500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-366000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-720100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-125600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>-1457600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-360000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-708200</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-89900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-340400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-812300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>127900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-699600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-209400</v>
       </c>
       <c r="E96" s="3">
-        <v>-419900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-412900</v>
       </c>
       <c r="G96" s="3">
-        <v>-210500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-207000</v>
       </c>
       <c r="I96" s="3">
-        <v>-401900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-395300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-198700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-396400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-173900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-401700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-165500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-563400</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-187800</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1181800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>-234100</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-554100</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-184700</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1162300</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-411800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-507100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-363900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5404,75 +5652,81 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
-        <v>167500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
-        <v>461700</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-276300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>-368200</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
+        <v>164700</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>454100</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-271700</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-516900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>216300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-69600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-296200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>261800</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3141000</v>
+        <v>1580200</v>
       </c>
       <c r="E8" s="3">
-        <v>1528100</v>
+        <v>3270700</v>
       </c>
       <c r="F8" s="3">
-        <v>3097500</v>
+        <v>1591300</v>
       </c>
       <c r="G8" s="3">
-        <v>1563400</v>
+        <v>3225400</v>
       </c>
       <c r="H8" s="3">
-        <v>3506800</v>
+        <v>1628000</v>
       </c>
       <c r="I8" s="3">
-        <v>1838700</v>
+        <v>3651700</v>
       </c>
       <c r="J8" s="3">
+        <v>1914700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3201000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1629200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3353500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1548400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3078800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1539400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3213400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1584200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3229100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1934400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4039100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>790500</v>
+        <v>384600</v>
       </c>
       <c r="E9" s="3">
-        <v>372900</v>
+        <v>823200</v>
       </c>
       <c r="F9" s="3">
-        <v>720000</v>
+        <v>388300</v>
       </c>
       <c r="G9" s="3">
-        <v>370600</v>
+        <v>749700</v>
       </c>
       <c r="H9" s="3">
-        <v>811700</v>
+        <v>385900</v>
       </c>
       <c r="I9" s="3">
-        <v>385900</v>
+        <v>845200</v>
       </c>
       <c r="J9" s="3">
+        <v>401800</v>
+      </c>
+      <c r="K9" s="3">
         <v>718800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>809100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>365500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>711500</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>766300</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>765200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>1247800</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2350400</v>
+        <v>1195600</v>
       </c>
       <c r="E10" s="3">
-        <v>1155200</v>
+        <v>2447500</v>
       </c>
       <c r="F10" s="3">
-        <v>2377500</v>
+        <v>1202900</v>
       </c>
       <c r="G10" s="3">
-        <v>1192900</v>
+        <v>2475700</v>
       </c>
       <c r="H10" s="3">
-        <v>2695100</v>
+        <v>1242100</v>
       </c>
       <c r="I10" s="3">
-        <v>1452900</v>
+        <v>2806500</v>
       </c>
       <c r="J10" s="3">
+        <v>1512900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2482200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2544400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1182900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2367300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2447100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2463900</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2791300</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>30600</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>44700</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>20000</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46500</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>-223500</v>
+        <v>20800</v>
       </c>
       <c r="J14" s="3">
+        <v>-232700</v>
+      </c>
+      <c r="K14" s="3">
         <v>92900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>15400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>45000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>10100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>896400</v>
+        <v>40400</v>
       </c>
       <c r="E15" s="3">
-        <v>37600</v>
+        <v>933400</v>
       </c>
       <c r="F15" s="3">
-        <v>896400</v>
+        <v>39200</v>
       </c>
       <c r="G15" s="3">
-        <v>38800</v>
+        <v>933400</v>
       </c>
       <c r="H15" s="3">
-        <v>897600</v>
+        <v>40400</v>
       </c>
       <c r="I15" s="3">
-        <v>40000</v>
+        <v>934700</v>
       </c>
       <c r="J15" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K15" s="3">
         <v>885800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>897800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>829000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>795500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>779800</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>883900</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>2596300</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2569300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2764500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2703600</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2675400</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2878700</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>2718700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2895700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2603400</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2787000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2808300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>3407600</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>544700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>528200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>742300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>567200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>550000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>773000</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>482300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>457800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>475400</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>426400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>420700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>631500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,167 +1379,174 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-145900</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-143300</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-285400</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-137600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-274100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-137600</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-198700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-114200</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-190700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-85300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-405000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1304600</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1310500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1379900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1358500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1364600</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1436900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1241100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1172300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1196800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1032200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1125400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1110400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12900</v>
+        <v>6100</v>
       </c>
       <c r="E22" s="3">
-        <v>7100</v>
+        <v>13500</v>
       </c>
       <c r="F22" s="3">
-        <v>12900</v>
+        <v>7300</v>
       </c>
       <c r="G22" s="3">
-        <v>7100</v>
+        <v>13500</v>
       </c>
       <c r="H22" s="3">
-        <v>15300</v>
+        <v>7300</v>
       </c>
       <c r="I22" s="3">
-        <v>8200</v>
+        <v>15900</v>
       </c>
       <c r="J22" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K22" s="3">
         <v>17600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>18900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>18700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>385900</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3">
-        <v>377600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="3">
-        <v>452900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>401800</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>393200</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>471600</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>327000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>240100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>342600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>235600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>335500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>226500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>25900</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>77600</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>80800</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>71800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>184500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>74700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>61700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>71800</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>38700</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>360000</v>
+        <v>172700</v>
       </c>
       <c r="E26" s="3">
-        <v>155300</v>
+        <v>374800</v>
       </c>
       <c r="F26" s="3">
-        <v>300000</v>
+        <v>161700</v>
       </c>
       <c r="G26" s="3">
-        <v>141200</v>
+        <v>312400</v>
       </c>
       <c r="H26" s="3">
-        <v>467000</v>
+        <v>147000</v>
       </c>
       <c r="I26" s="3">
-        <v>369400</v>
+        <v>486300</v>
       </c>
       <c r="J26" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K26" s="3">
         <v>255300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>106500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>55600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>267900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>173900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>111100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>263700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>108000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>187800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>348200</v>
+        <v>172700</v>
       </c>
       <c r="E27" s="3">
-        <v>155300</v>
+        <v>362600</v>
       </c>
       <c r="F27" s="3">
-        <v>300000</v>
+        <v>161700</v>
       </c>
       <c r="G27" s="3">
-        <v>141200</v>
+        <v>312400</v>
       </c>
       <c r="H27" s="3">
-        <v>465900</v>
+        <v>147000</v>
       </c>
       <c r="I27" s="3">
-        <v>369400</v>
+        <v>485100</v>
       </c>
       <c r="J27" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K27" s="3">
         <v>255300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>106500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>104100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>267900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>107600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>116700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>263700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>108000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>127900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,67 +1935,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>1200</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1200</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>15300</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>8300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-18700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>5600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>79800</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>145900</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>151900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>143300</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>285400</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>137600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="3">
-        <v>274100</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3">
-        <v>137600</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>198700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>114200</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>190700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>85300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>405000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>347000</v>
+        <v>172700</v>
       </c>
       <c r="E33" s="3">
-        <v>155300</v>
+        <v>361400</v>
       </c>
       <c r="F33" s="3">
-        <v>301200</v>
+        <v>161700</v>
       </c>
       <c r="G33" s="3">
-        <v>141200</v>
+        <v>313600</v>
       </c>
       <c r="H33" s="3">
-        <v>464700</v>
+        <v>147000</v>
       </c>
       <c r="I33" s="3">
-        <v>369400</v>
+        <v>483900</v>
       </c>
       <c r="J33" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K33" s="3">
         <v>270600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>106500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>104100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>249200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>111100</v>
       </c>
       <c r="Q33" s="3">
         <v>111100</v>
       </c>
       <c r="R33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="S33" s="3">
         <v>269300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>108000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>207800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>347000</v>
+        <v>172700</v>
       </c>
       <c r="E35" s="3">
-        <v>155300</v>
+        <v>361400</v>
       </c>
       <c r="F35" s="3">
-        <v>301200</v>
+        <v>161700</v>
       </c>
       <c r="G35" s="3">
-        <v>141200</v>
+        <v>313600</v>
       </c>
       <c r="H35" s="3">
-        <v>464700</v>
+        <v>147000</v>
       </c>
       <c r="I35" s="3">
-        <v>369400</v>
+        <v>483900</v>
       </c>
       <c r="J35" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K35" s="3">
         <v>270600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>106500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>104100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>249200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>111100</v>
       </c>
       <c r="Q35" s="3">
         <v>111100</v>
       </c>
       <c r="R35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="S35" s="3">
         <v>269300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>108000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>207800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,271 +2486,284 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>702300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1067000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>901100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>731300</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1111100</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>938300</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>448200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>702600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>1127600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>960400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1027700</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1383900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>317600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>323500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>330700</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>336900</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>2400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>590300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>1143000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1570800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>268200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>164300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>807000</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>947000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>932900</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>840300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>986100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>971400</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>997600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>1048000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1022200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1148900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>877400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>899100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>55300</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>57600</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>63500</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>66100</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>72900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>68600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>63700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>60600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>66200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>55200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>12900</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>24700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2677,262 +2776,277 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1200500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1895200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2076300</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2245700</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1973500</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2162100</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2338500</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1522300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>2408400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>3356600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3739600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2239500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2502600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>229400</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>198800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>209400</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>238900</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>207000</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>218000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>301200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>322900</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>243800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>262500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>1475400</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>2340600</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>7386600</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7406600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7386600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7691700</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7712500</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7691700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6439600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>7700700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6250900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6519900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6592800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>7006500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3809200</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3426900</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3523300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3966500</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3568400</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3668800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>4511500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>4657100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3514700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3748600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3605000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3814900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>890500</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1058800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1109300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>927300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1155200</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1278700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1246800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1330800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1208400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1337400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1632800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>14210900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>14167400</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>14474400</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14797900</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>14752600</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>15072300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>14053300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>15383600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>14696700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>15456500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>15250100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>17297300</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1327000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1343400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1477600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1381800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1398900</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1538600</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1384600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1605200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1686500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1702100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>1883800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>2158600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>975200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1243500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1272900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1294800</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1325400</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>143500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>862300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>643400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>20200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>19100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>862800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>296500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>264700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>348200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>308700</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>275600</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>362600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>383500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>411600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>88900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>396100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>66200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>63400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>2598700</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2851600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3098600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2706000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2969400</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3226600</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>1911700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2879200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2418900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2118300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>1969100</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>3084800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7773700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>8094700</v>
       </c>
       <c r="F61" s="3">
-        <v>7580700</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7893800</v>
       </c>
       <c r="H61" s="3">
-        <v>7654800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>7971000</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>9050000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>9186400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7731000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8503600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>8634800</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9269600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>754100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>817600</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>771700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>785200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>851400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>803600</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>1122300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1096500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1021100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>926800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>700100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>716000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>11127600</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>11251100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11526400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11587200</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>11715800</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>12002500</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>12085200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>13162100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>11171100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>11549800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>11304000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>13070400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-7632500</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7799500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-7766600</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7947700</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-8121700</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-8087400</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3083300</v>
+        <v>3345400</v>
       </c>
       <c r="E76" s="3">
-        <v>2844500</v>
+        <v>3210700</v>
       </c>
       <c r="F76" s="3">
-        <v>2916300</v>
+        <v>2962000</v>
       </c>
       <c r="G76" s="3">
-        <v>3199800</v>
+        <v>3036800</v>
       </c>
       <c r="H76" s="3">
-        <v>2948100</v>
+        <v>3332000</v>
       </c>
       <c r="I76" s="3">
-        <v>2165800</v>
+        <v>3069800</v>
       </c>
       <c r="J76" s="3">
+        <v>2255200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1968100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2312300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2221500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2241800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3525700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3799100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3906800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>3946000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>4226900</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>347000</v>
+        <v>172700</v>
       </c>
       <c r="E81" s="3">
-        <v>155300</v>
+        <v>361400</v>
       </c>
       <c r="F81" s="3">
-        <v>301200</v>
+        <v>161700</v>
       </c>
       <c r="G81" s="3">
-        <v>141200</v>
+        <v>313600</v>
       </c>
       <c r="H81" s="3">
-        <v>464700</v>
+        <v>147000</v>
       </c>
       <c r="I81" s="3">
-        <v>369400</v>
+        <v>483900</v>
       </c>
       <c r="J81" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K81" s="3">
         <v>270600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>106500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>104100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>249200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>111100</v>
       </c>
       <c r="Q81" s="3">
         <v>111100</v>
       </c>
       <c r="R81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="S81" s="3">
         <v>269300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>108000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>207800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>905800</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>919900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3">
-        <v>911700</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>943200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
+        <v>957900</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
+        <v>949400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>896400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>913200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>835600</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>801100</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>796600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>883900</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1323500</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1078800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1347000</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1378100</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1123300</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1402600</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>1014100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1348500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1062900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1249900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>938000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1263000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-548200</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-474100</v>
+        <v>-570800</v>
       </c>
       <c r="F91" s="3">
-        <v>-536400</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-525900</v>
+        <v>-493700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-558600</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
-        <v>-448200</v>
+        <v>-547600</v>
       </c>
       <c r="J91" s="3">
+        <v>-466700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-484700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-514600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-419400</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-482500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-442100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>111500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1457600</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-360000</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-708200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1517800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-374800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-737400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-123500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-89900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-340400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-812300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>127900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-699600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-209400</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-218000</v>
       </c>
       <c r="F96" s="3">
-        <v>-412900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-430000</v>
       </c>
       <c r="H96" s="3">
-        <v>-207000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-215600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-395300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-198700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-396400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-173900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-401700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-165500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-234100</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-554100</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-184700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-192300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-411800</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-507100</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-363900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5655,78 +5904,84 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-368200</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3">
-        <v>164700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3">
-        <v>454100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-383400</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
+        <v>171500</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
+        <v>472800</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-271700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-516900</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>216300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-69600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-296200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>261800</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1580200</v>
+        <v>1504800</v>
       </c>
       <c r="E8" s="3">
-        <v>3270700</v>
+        <v>1515300</v>
       </c>
       <c r="F8" s="3">
-        <v>1591300</v>
+        <v>1600500</v>
       </c>
       <c r="G8" s="3">
-        <v>3225400</v>
+        <v>1516500</v>
       </c>
       <c r="H8" s="3">
-        <v>1628000</v>
+        <v>1509500</v>
       </c>
       <c r="I8" s="3">
-        <v>3651700</v>
+        <v>1551500</v>
       </c>
       <c r="J8" s="3">
+        <v>1656600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1914700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3201000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1629200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3353500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1548400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3078800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1539400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3213400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1584200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3229100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1934400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4039100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>384600</v>
+        <v>357200</v>
       </c>
       <c r="E9" s="3">
-        <v>823200</v>
+        <v>366600</v>
       </c>
       <c r="F9" s="3">
-        <v>388300</v>
+        <v>414400</v>
       </c>
       <c r="G9" s="3">
-        <v>749700</v>
+        <v>370100</v>
       </c>
       <c r="H9" s="3">
-        <v>385900</v>
+        <v>346700</v>
       </c>
       <c r="I9" s="3">
-        <v>845200</v>
+        <v>367700</v>
       </c>
       <c r="J9" s="3">
+        <v>422600</v>
+      </c>
+      <c r="K9" s="3">
         <v>401800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>718800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>809100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>365500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>711500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>766300</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>765200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>1247800</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1195600</v>
+        <v>1147600</v>
       </c>
       <c r="E10" s="3">
-        <v>2447500</v>
+        <v>1148700</v>
       </c>
       <c r="F10" s="3">
-        <v>1202900</v>
+        <v>1186100</v>
       </c>
       <c r="G10" s="3">
-        <v>2475700</v>
+        <v>1146400</v>
       </c>
       <c r="H10" s="3">
-        <v>1242100</v>
+        <v>1162700</v>
       </c>
       <c r="I10" s="3">
-        <v>2806500</v>
+        <v>1183800</v>
       </c>
       <c r="J10" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1512900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2482200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2544400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1182900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2367300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2447100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2463900</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2791300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>-988800</v>
       </c>
       <c r="E14" s="3">
-        <v>31800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>9300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-9300</v>
       </c>
       <c r="G14" s="3">
-        <v>46500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>11700</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-3500</v>
       </c>
       <c r="I14" s="3">
-        <v>20800</v>
-      </c>
-      <c r="J14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>-232700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>92900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>15400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>45000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>10100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>40400</v>
+        <v>426100</v>
       </c>
       <c r="E15" s="3">
-        <v>933400</v>
+        <v>424900</v>
       </c>
       <c r="F15" s="3">
-        <v>39200</v>
+        <v>36200</v>
       </c>
       <c r="G15" s="3">
-        <v>933400</v>
+        <v>37400</v>
       </c>
       <c r="H15" s="3">
-        <v>40400</v>
+        <v>460000</v>
       </c>
       <c r="I15" s="3">
-        <v>934700</v>
+        <v>453000</v>
       </c>
       <c r="J15" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K15" s="3">
         <v>41600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>885800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>897800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>829000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>795500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>779800</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>883900</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>228800</v>
       </c>
       <c r="E17" s="3">
-        <v>2703600</v>
+        <v>1241000</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="3">
-        <v>2675400</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1237500</v>
       </c>
       <c r="I17" s="3">
-        <v>2878700</v>
+        <v>1299300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>2718700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2895700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2603400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2787000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>2808300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>3407600</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>1276000</v>
       </c>
       <c r="E18" s="3">
-        <v>567200</v>
+        <v>274300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>550000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>272000</v>
       </c>
       <c r="I18" s="3">
-        <v>773000</v>
+        <v>252200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>482300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>457800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>475400</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>426400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>420700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>631500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,176 +1413,183 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-60700</v>
       </c>
       <c r="E20" s="3">
-        <v>-151900</v>
+        <v>-57200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
-        <v>-143300</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-66500</v>
       </c>
       <c r="I20" s="3">
-        <v>-285400</v>
+        <v>-70000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-137600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-198700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-114200</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-190700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-85300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-405000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>1641400</v>
       </c>
       <c r="E21" s="3">
-        <v>1358500</v>
+        <v>642100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>1364600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>665400</v>
       </c>
       <c r="I21" s="3">
-        <v>1436900</v>
+        <v>635100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1241100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1172300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1196800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1032200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1125400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1110400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6100</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>5800</v>
       </c>
       <c r="F22" s="3">
-        <v>7300</v>
+        <v>5800</v>
       </c>
       <c r="G22" s="3">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="H22" s="3">
-        <v>7300</v>
+        <v>5800</v>
       </c>
       <c r="I22" s="3">
-        <v>15900</v>
-      </c>
-      <c r="J22" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>8600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>18900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>18700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>1208300</v>
       </c>
       <c r="E23" s="3">
-        <v>401800</v>
+        <v>211300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3">
-        <v>393200</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>199600</v>
       </c>
       <c r="I23" s="3">
-        <v>471600</v>
+        <v>175100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>327000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>240100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>342600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>235600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>335500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>226500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>274300</v>
       </c>
       <c r="E24" s="3">
-        <v>26900</v>
+        <v>46700</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
-        <v>80800</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42000</v>
       </c>
       <c r="I24" s="3">
-        <v>-14700</v>
+        <v>35000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>71800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>184500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>74700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>61700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>71800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>38700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>172700</v>
+        <v>933900</v>
       </c>
       <c r="E26" s="3">
-        <v>374800</v>
+        <v>164600</v>
       </c>
       <c r="F26" s="3">
-        <v>161700</v>
+        <v>204300</v>
       </c>
       <c r="G26" s="3">
-        <v>312400</v>
+        <v>154100</v>
       </c>
       <c r="H26" s="3">
-        <v>147000</v>
+        <v>157600</v>
       </c>
       <c r="I26" s="3">
-        <v>486300</v>
+        <v>140100</v>
       </c>
       <c r="J26" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K26" s="3">
         <v>384600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>255300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>106500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>55600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>104100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>267900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>173900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>111100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>263700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>108000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>187800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>172700</v>
+        <v>933900</v>
       </c>
       <c r="E27" s="3">
-        <v>362600</v>
+        <v>164600</v>
       </c>
       <c r="F27" s="3">
-        <v>161700</v>
+        <v>204300</v>
       </c>
       <c r="G27" s="3">
-        <v>312400</v>
+        <v>154100</v>
       </c>
       <c r="H27" s="3">
-        <v>147000</v>
+        <v>157600</v>
       </c>
       <c r="I27" s="3">
-        <v>485100</v>
+        <v>140100</v>
       </c>
       <c r="J27" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K27" s="3">
         <v>384600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>255300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>106500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>267900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>107600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>116700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>263700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>108000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>127900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,70 +1996,76 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-1200</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>1200</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>15300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>8300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-18700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-5600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>5600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>79800</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>60700</v>
       </c>
       <c r="E32" s="3">
-        <v>151900</v>
+        <v>57200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3">
-        <v>143300</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
+        <v>66500</v>
       </c>
       <c r="I32" s="3">
-        <v>285400</v>
+        <v>70000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>137600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>198700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>114200</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>190700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>85300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>405000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>172700</v>
+        <v>933900</v>
       </c>
       <c r="E33" s="3">
-        <v>361400</v>
+        <v>164600</v>
       </c>
       <c r="F33" s="3">
-        <v>161700</v>
+        <v>204300</v>
       </c>
       <c r="G33" s="3">
-        <v>313600</v>
+        <v>154100</v>
       </c>
       <c r="H33" s="3">
-        <v>147000</v>
+        <v>158800</v>
       </c>
       <c r="I33" s="3">
-        <v>483900</v>
+        <v>140100</v>
       </c>
       <c r="J33" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K33" s="3">
         <v>384600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>270600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>106500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>249200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>107600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>111100</v>
       </c>
       <c r="R33" s="3">
         <v>111100</v>
       </c>
       <c r="S33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="T33" s="3">
         <v>269300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>108000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>207800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>172700</v>
+        <v>933900</v>
       </c>
       <c r="E35" s="3">
-        <v>361400</v>
+        <v>164600</v>
       </c>
       <c r="F35" s="3">
-        <v>161700</v>
+        <v>204300</v>
       </c>
       <c r="G35" s="3">
-        <v>313600</v>
+        <v>154100</v>
       </c>
       <c r="H35" s="3">
-        <v>147000</v>
+        <v>158800</v>
       </c>
       <c r="I35" s="3">
-        <v>483900</v>
+        <v>140100</v>
       </c>
       <c r="J35" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K35" s="3">
         <v>384600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>270600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>106500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>249200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>107600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>111100</v>
       </c>
       <c r="R35" s="3">
         <v>111100</v>
       </c>
       <c r="S35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="T35" s="3">
         <v>269300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>108000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>207800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,286 +2573,299 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>731300</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1111100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>938300</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>637400</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>696900</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1058800</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>894200</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>448200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>702600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>1127600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>960400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1027700</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1383900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>330700</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>336900</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>315200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>321000</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>2400</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>590300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>1143000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>1570800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>268200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>164300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>840300</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>986100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>971400</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>867400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>800800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>939800</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>925800</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>997600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>1048000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1022200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1148900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>877400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>899100</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>57600</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>66100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>54900</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>57200</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>72900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>68600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>63700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>60600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>66200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>55200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25700</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2779,274 +2878,289 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1200500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1973500</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2162100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2338500</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>1873700</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1880700</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>2060500</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2228600</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>1522300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>2408400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>3356600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>3739600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2239500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>2502600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>238900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>207000</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>218000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>227600</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>197300</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>301200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>322900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>243800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>262500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>1475400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>2340600</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7691700</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7712500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7691700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>7310300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7330200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>7350000</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7330200</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6439600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>7700700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6250900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>6519900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>6592800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>7006500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3966500</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3568400</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3668800</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>3602600</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3780100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3400700</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3496400</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>4511500</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>4657100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3514700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3748600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3605000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>3814900</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>927300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1102500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1155200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>860400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>883700</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1050700</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1100900</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1278700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1246800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1330800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1208400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1337400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1632800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>14797900</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>14752600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>15072300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>14442000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>14102300</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>14059100</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14363800</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>14053300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>15383600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>14696700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>15456500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>15250100</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>17297300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1381800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1398900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1538600</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1351900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1316800</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1333200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1466300</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1384600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1605200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1686500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>1702100</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>1883800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>2158600</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1015500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1294800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1325400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>1412600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>967800</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1263100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>143500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>862300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>643400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>20200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>19100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>862800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>308700</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>275600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>362600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>302400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>294200</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>262700</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>345600</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>383500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>411600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>88900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>396100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>66200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>63400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2706000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2969400</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3226600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>3066800</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2578800</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2829800</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3075000</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>1911700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2879200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>2418900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>2118300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>1969100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>3084800</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7012600</v>
       </c>
       <c r="E61" s="3">
-        <v>8094700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>7714200</v>
       </c>
       <c r="G61" s="3">
-        <v>7893800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7522800</v>
       </c>
       <c r="I61" s="3">
-        <v>7971000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>7596300</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>9050000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>9186400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7731000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8503600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>8634800</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>9269600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>785200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>851400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>803600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>594200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>748300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>811300</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>765800</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>1122300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1096500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1021100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>926800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>700100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>716000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>11587200</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>11715800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>12002500</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>10674800</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11042500</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11165100</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>11438300</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>12085200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>13162100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>11171100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>11549800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>11304000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>13070400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7947700</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-8121700</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-8087400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-6866700</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-7574200</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7739900</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-7707200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3345400</v>
+        <v>3767200</v>
       </c>
       <c r="E76" s="3">
-        <v>3210700</v>
+        <v>3188200</v>
       </c>
       <c r="F76" s="3">
-        <v>2962000</v>
+        <v>3059800</v>
       </c>
       <c r="G76" s="3">
-        <v>3036800</v>
+        <v>2822800</v>
       </c>
       <c r="H76" s="3">
-        <v>3332000</v>
+        <v>2894000</v>
       </c>
       <c r="I76" s="3">
-        <v>3069800</v>
+        <v>3175400</v>
       </c>
       <c r="J76" s="3">
+        <v>2925500</v>
+      </c>
+      <c r="K76" s="3">
         <v>2255200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1968100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2312300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2221500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2241800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3525700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3799100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3906800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>3946000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>4226900</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>172700</v>
+        <v>933900</v>
       </c>
       <c r="E81" s="3">
-        <v>361400</v>
+        <v>164600</v>
       </c>
       <c r="F81" s="3">
-        <v>161700</v>
+        <v>204300</v>
       </c>
       <c r="G81" s="3">
-        <v>313600</v>
+        <v>154100</v>
       </c>
       <c r="H81" s="3">
-        <v>147000</v>
+        <v>158800</v>
       </c>
       <c r="I81" s="3">
-        <v>483900</v>
+        <v>140100</v>
       </c>
       <c r="J81" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K81" s="3">
         <v>384600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>270600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>106500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>249200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>107600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>111100</v>
       </c>
       <c r="R81" s="3">
         <v>111100</v>
       </c>
       <c r="S81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="T81" s="3">
         <v>269300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>108000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>207800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>943200</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>957900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>949400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>896400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>913200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>835600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>801100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>796600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>883900</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>1378100</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>1123300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>1402600</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>1014100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1348500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1062900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1249900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>938000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1263000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-228800</v>
       </c>
       <c r="E91" s="3">
-        <v>-570800</v>
+        <v>-374700</v>
       </c>
       <c r="F91" s="3">
-        <v>-493700</v>
+        <v>-73500</v>
       </c>
       <c r="G91" s="3">
-        <v>-558600</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+        <v>-470500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-207800</v>
       </c>
       <c r="I91" s="3">
-        <v>-547600</v>
+        <v>-324500</v>
       </c>
       <c r="J91" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-466700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-484700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-514600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-419400</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-482500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-442100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>111500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-1517800</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-374800</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-737400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-123500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-89900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-340400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-812300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>127900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-699600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,61 +5793,64 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-218000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-430000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-215600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-395300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-198700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-396400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-173900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-401700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-165500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-243800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-577000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-192300</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-411800</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-507100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-363900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5907,81 +6156,87 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-383400</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>171500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>472800</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-271700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-516900</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>216300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-69600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-296200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>261800</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1504800</v>
+        <v>1496100</v>
       </c>
       <c r="E8" s="3">
-        <v>1515300</v>
+        <v>1455400</v>
       </c>
       <c r="F8" s="3">
-        <v>1600500</v>
+        <v>1465600</v>
       </c>
       <c r="G8" s="3">
-        <v>1516500</v>
+        <v>1548000</v>
       </c>
       <c r="H8" s="3">
-        <v>1509500</v>
+        <v>1466700</v>
       </c>
       <c r="I8" s="3">
-        <v>1551500</v>
+        <v>1459900</v>
       </c>
       <c r="J8" s="3">
+        <v>1500600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1656600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1914700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3201000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1629200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3353500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1548400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3078800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1539400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3213400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1584200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3229100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1934400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4039100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>357200</v>
+        <v>361300</v>
       </c>
       <c r="E9" s="3">
-        <v>366600</v>
+        <v>345500</v>
       </c>
       <c r="F9" s="3">
-        <v>414400</v>
+        <v>354500</v>
       </c>
       <c r="G9" s="3">
-        <v>370100</v>
+        <v>400800</v>
       </c>
       <c r="H9" s="3">
-        <v>346700</v>
+        <v>357900</v>
       </c>
       <c r="I9" s="3">
-        <v>367700</v>
+        <v>335300</v>
       </c>
       <c r="J9" s="3">
+        <v>355700</v>
+      </c>
+      <c r="K9" s="3">
         <v>422600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>401800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>718800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>809100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>365500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>711500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>766300</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>765200</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>1247800</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1147600</v>
+        <v>1134700</v>
       </c>
       <c r="E10" s="3">
-        <v>1148700</v>
+        <v>1109900</v>
       </c>
       <c r="F10" s="3">
-        <v>1186100</v>
+        <v>1111000</v>
       </c>
       <c r="G10" s="3">
-        <v>1146400</v>
+        <v>1147200</v>
       </c>
       <c r="H10" s="3">
-        <v>1162700</v>
+        <v>1108800</v>
       </c>
       <c r="I10" s="3">
-        <v>1183800</v>
+        <v>1124600</v>
       </c>
       <c r="J10" s="3">
+        <v>1144900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1234000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1512900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2482200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2544400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1182900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2367300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2447100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2463900</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2791300</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-988800</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>-956300</v>
       </c>
       <c r="F14" s="3">
-        <v>-9300</v>
+        <v>9000</v>
       </c>
       <c r="G14" s="3">
-        <v>11700</v>
+        <v>-9000</v>
       </c>
       <c r="H14" s="3">
-        <v>-3500</v>
+        <v>11300</v>
       </c>
       <c r="I14" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>-232700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>92900</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>15400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>45000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>10100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>426100</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>424900</v>
+        <v>412100</v>
       </c>
       <c r="F15" s="3">
-        <v>36200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>37400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>460000</v>
+        <v>411000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>453000</v>
+        <v>444900</v>
       </c>
       <c r="J15" s="3">
+        <v>438100</v>
+      </c>
+      <c r="K15" s="3">
         <v>39700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>41600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>885800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>897800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>829000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>795500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>779800</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>883900</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>228800</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1241000</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
+        <v>221300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1200200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
-        <v>1237500</v>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1299300</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
+        <v>1196800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1256700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>2718700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2895700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2603400</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2787000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2808300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>3407600</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1276000</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>274300</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
+        <v>1234100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>265300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>272000</v>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>252200</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
+        <v>263100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>243900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>482300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>457800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>475400</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>426400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>420700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>631500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,185 +1447,192 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-60700</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-57200</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
+        <v>-58700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-55300</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3">
-        <v>-66500</v>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-70000</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
+        <v>-64400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-67700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-137600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-198700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-114200</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-190700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-85300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-405000</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>1641400</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>642100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+        <v>1587500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>621000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>665400</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>635100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>643600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>614200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1241100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1172300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1196800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1032200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1125400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1110400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="E22" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="F22" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G22" s="3">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="H22" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="I22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>18900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>18700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>1208300</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>211300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
+        <v>1168600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>204400</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="3">
-        <v>199600</v>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>175100</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
+        <v>193100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>169400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>327000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>240100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>342600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>235600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>335500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>226500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>274300</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>46700</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+        <v>265300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45200</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
-        <v>42000</v>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>35000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+        <v>40600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>33900</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>71800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>184500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>74700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>61700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>71800</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>38700</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>933900</v>
+        <v>208900</v>
       </c>
       <c r="E26" s="3">
-        <v>164600</v>
+        <v>903300</v>
       </c>
       <c r="F26" s="3">
-        <v>204300</v>
+        <v>159200</v>
       </c>
       <c r="G26" s="3">
-        <v>154100</v>
+        <v>197600</v>
       </c>
       <c r="H26" s="3">
-        <v>157600</v>
+        <v>149000</v>
       </c>
       <c r="I26" s="3">
-        <v>140100</v>
+        <v>152400</v>
       </c>
       <c r="J26" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K26" s="3">
         <v>98100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>384600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>255300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>106500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>55600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>104100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>267900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>173900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>111100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>263700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>108000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>187800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>933900</v>
+        <v>208900</v>
       </c>
       <c r="E27" s="3">
-        <v>164600</v>
+        <v>903300</v>
       </c>
       <c r="F27" s="3">
-        <v>204300</v>
+        <v>159200</v>
       </c>
       <c r="G27" s="3">
-        <v>154100</v>
+        <v>197600</v>
       </c>
       <c r="H27" s="3">
-        <v>157600</v>
+        <v>149000</v>
       </c>
       <c r="I27" s="3">
-        <v>140100</v>
+        <v>152400</v>
       </c>
       <c r="J27" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K27" s="3">
         <v>98100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>384600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>255300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>106500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>104100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>267900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>111100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>263700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>108000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>127900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,16 +2057,19 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -2016,56 +2077,59 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>1200</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+        <v>1100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>15300</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>8300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-5600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>5600</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>79800</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>60700</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>57200</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
+        <v>58700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>55300</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3">
-        <v>66500</v>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>70000</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
+        <v>64400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>67700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>137600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>198700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>114200</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>190700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>85300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>405000</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>933900</v>
+        <v>208900</v>
       </c>
       <c r="E33" s="3">
-        <v>164600</v>
+        <v>903300</v>
       </c>
       <c r="F33" s="3">
-        <v>204300</v>
+        <v>159200</v>
       </c>
       <c r="G33" s="3">
-        <v>154100</v>
+        <v>197600</v>
       </c>
       <c r="H33" s="3">
-        <v>158800</v>
+        <v>149000</v>
       </c>
       <c r="I33" s="3">
-        <v>140100</v>
+        <v>153600</v>
       </c>
       <c r="J33" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K33" s="3">
         <v>98100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>384600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>270600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>106500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>104100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>249200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>111100</v>
       </c>
       <c r="S33" s="3">
         <v>111100</v>
       </c>
       <c r="T33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="U33" s="3">
         <v>269300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>108000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>207800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>933900</v>
+        <v>208900</v>
       </c>
       <c r="E35" s="3">
-        <v>164600</v>
+        <v>903300</v>
       </c>
       <c r="F35" s="3">
-        <v>204300</v>
+        <v>159200</v>
       </c>
       <c r="G35" s="3">
-        <v>154100</v>
+        <v>197600</v>
       </c>
       <c r="H35" s="3">
-        <v>158800</v>
+        <v>149000</v>
       </c>
       <c r="I35" s="3">
-        <v>140100</v>
+        <v>153600</v>
       </c>
       <c r="J35" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K35" s="3">
         <v>98100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>384600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>270600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>106500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>104100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>249200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>111100</v>
       </c>
       <c r="S35" s="3">
         <v>111100</v>
       </c>
       <c r="T35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="U35" s="3">
         <v>269300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>108000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>207800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,301 +2660,314 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>637400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>696900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1058800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>616500</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>674100</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1024100</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>894200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>448200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>702600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1127600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>960400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1027700</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1383900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>297700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>315200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>287900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>304900</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>321000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>2400</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>590300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1143000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>1570800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>268200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>164300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>867400</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800800</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>939800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>838900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>774600</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>908900</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>925800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>997600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>1048000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1022200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>1148900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>877400</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>899100</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>47900</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>54900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>57200</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>53100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>63000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>72900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>68600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>63700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>60600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>66200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>55200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>23300</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
+        <v>1100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4500</v>
       </c>
       <c r="J45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K45" s="3">
         <v>24500</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2881,286 +2980,301 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1200500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1873700</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1880700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2060500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1812200</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1819000</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1992900</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>2228600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1522300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2408400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3356600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>3739600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2239500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>2502600</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>795000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>227600</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>197300</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>768900</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>220200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>190800</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>207800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>301200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>322900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>243800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>262500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>1475400</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>2340600</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>7310300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7070400</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>7089600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>7108800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>7330200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7350000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
-        <v>7330200</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6439600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>7700700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6250900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6519900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>6592800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>7006500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3602600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3780100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3400700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3484400</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3656000</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3289100</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3496400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>4511500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>4657100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3514700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3748600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3605000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>3814900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>860400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>883700</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1050700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>832100</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>854700</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1016200</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1278700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1246800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1330800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1208400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1337400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1632800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>14442000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>14102300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>14059100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13968100</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>13639500</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>13597800</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>14363800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>14053300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>15383600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>14696700</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>15456500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>15250100</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>17297300</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1351900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1316800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1333200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1307500</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1273600</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1289400</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1466300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1384600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1605200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1686500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>1702100</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>1883800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>2158600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>1412600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>967800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1234000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1366200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>936000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1193500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1263100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>143500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>862300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>643400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>20200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>19100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>862800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>302400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>294200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>262700</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>292400</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>284500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>254000</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>345600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>383500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>411600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>88900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>396100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>66200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>63400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>3066800</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2578800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2829800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2966100</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2494200</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2736900</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>3075000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>1911700</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2879200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2418900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>2118300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>1969100</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>3084800</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7012600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>6782500</v>
       </c>
       <c r="F61" s="3">
-        <v>7714200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7461100</v>
       </c>
       <c r="H61" s="3">
-        <v>7522800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>7275900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7596300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>9050000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>9186400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7731000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>8503600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>8634800</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>9269600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>594200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>748300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>811300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>574700</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>723800</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>784700</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>765800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1122300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1096500</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1021100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>926800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>700100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>716000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>10674800</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>11042500</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>11165100</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10324500</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10680200</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>10798700</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>11438300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>12085200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>13162100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>11171100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>11549800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>11304000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>13070400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-6866700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7574200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-7739900</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6641400</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-7325600</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-7485900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3767200</v>
+        <v>3534100</v>
       </c>
       <c r="E76" s="3">
-        <v>3188200</v>
+        <v>3643600</v>
       </c>
       <c r="F76" s="3">
-        <v>3059800</v>
+        <v>3083600</v>
       </c>
       <c r="G76" s="3">
-        <v>2822800</v>
+        <v>2959400</v>
       </c>
       <c r="H76" s="3">
-        <v>2894000</v>
+        <v>2730200</v>
       </c>
       <c r="I76" s="3">
-        <v>3175400</v>
+        <v>2799000</v>
       </c>
       <c r="J76" s="3">
+        <v>3071200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2925500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2255200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1968100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2312300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2221500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2241800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3525700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3799100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3906800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>3946000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>4226900</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>933900</v>
+        <v>208900</v>
       </c>
       <c r="E81" s="3">
-        <v>164600</v>
+        <v>903300</v>
       </c>
       <c r="F81" s="3">
-        <v>204300</v>
+        <v>159200</v>
       </c>
       <c r="G81" s="3">
-        <v>154100</v>
+        <v>197600</v>
       </c>
       <c r="H81" s="3">
-        <v>158800</v>
+        <v>149000</v>
       </c>
       <c r="I81" s="3">
-        <v>140100</v>
+        <v>153600</v>
       </c>
       <c r="J81" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K81" s="3">
         <v>98100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>384600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>270600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>106500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>104100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>249200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>111100</v>
       </c>
       <c r="S81" s="3">
         <v>111100</v>
       </c>
       <c r="T81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="U81" s="3">
         <v>269300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>108000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>207800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5045,47 +5244,50 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>896400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>913200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>835600</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>801100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>796600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>883900</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5435,47 +5652,50 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>1014100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1348500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1062900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1249900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>938000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1263000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-228800</v>
+        <v>-414400</v>
       </c>
       <c r="E91" s="3">
-        <v>-374700</v>
+        <v>-221300</v>
       </c>
       <c r="F91" s="3">
-        <v>-73500</v>
+        <v>-362400</v>
       </c>
       <c r="G91" s="3">
-        <v>-470500</v>
+        <v>-71100</v>
       </c>
       <c r="H91" s="3">
-        <v>-207800</v>
+        <v>-455000</v>
       </c>
       <c r="I91" s="3">
-        <v>-324500</v>
+        <v>-201000</v>
       </c>
       <c r="J91" s="3">
+        <v>-313900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-77000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-466700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-484700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-514600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-419400</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-482500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-442100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>111500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5720,47 +5950,50 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-123500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-89900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-340400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-812300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>127900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-699600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5814,43 +6048,46 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-395300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-198700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-396400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-173900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-401700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-165500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6070,47 +6316,50 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-411800</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-507100</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-363900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6159,23 +6408,26 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6200,43 +6452,46 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-271700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-516900</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>216300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-69600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-296200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>261800</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1496100</v>
+        <v>1495600</v>
       </c>
       <c r="E8" s="3">
-        <v>1455400</v>
+        <v>1445500</v>
       </c>
       <c r="F8" s="3">
-        <v>1465600</v>
+        <v>1406200</v>
       </c>
       <c r="G8" s="3">
-        <v>1548000</v>
+        <v>1416000</v>
       </c>
       <c r="H8" s="3">
-        <v>1466700</v>
+        <v>1495600</v>
       </c>
       <c r="I8" s="3">
-        <v>1459900</v>
+        <v>1417100</v>
       </c>
       <c r="J8" s="3">
+        <v>1410500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1500600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1656600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1914700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3201000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1629200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3353500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1548400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3078800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1539400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3213400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1584200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3229100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1934400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4039100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>361300</v>
+        <v>390500</v>
       </c>
       <c r="E9" s="3">
-        <v>345500</v>
+        <v>349100</v>
       </c>
       <c r="F9" s="3">
-        <v>354500</v>
+        <v>333800</v>
       </c>
       <c r="G9" s="3">
-        <v>400800</v>
+        <v>342500</v>
       </c>
       <c r="H9" s="3">
-        <v>357900</v>
+        <v>387300</v>
       </c>
       <c r="I9" s="3">
-        <v>335300</v>
+        <v>345800</v>
       </c>
       <c r="J9" s="3">
+        <v>324000</v>
+      </c>
+      <c r="K9" s="3">
         <v>355700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>422600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>401800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>718800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>809100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>365500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>711500</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>766300</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>765200</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>1247800</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1134700</v>
+        <v>1105100</v>
       </c>
       <c r="E10" s="3">
-        <v>1109900</v>
+        <v>1096400</v>
       </c>
       <c r="F10" s="3">
-        <v>1111000</v>
+        <v>1072400</v>
       </c>
       <c r="G10" s="3">
-        <v>1147200</v>
+        <v>1073500</v>
       </c>
       <c r="H10" s="3">
-        <v>1108800</v>
+        <v>1108400</v>
       </c>
       <c r="I10" s="3">
-        <v>1124600</v>
+        <v>1071300</v>
       </c>
       <c r="J10" s="3">
+        <v>1086500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1144900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1234000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1512900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2482200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2544400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1182900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2367300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2447100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2463900</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>2791300</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>-6500</v>
       </c>
       <c r="E14" s="3">
-        <v>-956300</v>
+        <v>2200</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>-924000</v>
       </c>
       <c r="G14" s="3">
-        <v>-9000</v>
+        <v>8700</v>
       </c>
       <c r="H14" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K14" s="3">
         <v>11300</v>
       </c>
-      <c r="I14" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>11300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>-232700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>92900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>15400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>45000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>10100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>412100</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>411000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+        <v>398200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>397100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>444900</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>429800</v>
+      </c>
+      <c r="K15" s="3">
         <v>438100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>885800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>897800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>829000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>795500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>779800</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>883900</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>221300</v>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>1200200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
+        <v>213800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1159600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>1196800</v>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>1156400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1256700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>2718700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2895700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2603400</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>2787000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>2808300</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>3407600</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
-        <v>1234100</v>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>265300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
+        <v>1192400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>256400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3">
-        <v>263100</v>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>254200</v>
+      </c>
+      <c r="K18" s="3">
         <v>243900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>482300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>457800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>475400</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>426400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>420700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>631500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,194 +1480,201 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>-58700</v>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-55300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
+        <v>-56700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-53500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
-        <v>-64400</v>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J20" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-67700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-137600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-198700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-114200</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-190700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-85300</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-405000</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>1587500</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>621000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+        <v>1533800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>600000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>643600</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>621800</v>
+      </c>
+      <c r="K21" s="3">
         <v>614200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1241100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1172300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1196800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1032200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1125400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1110400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="F22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17600</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>18900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>18700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
-        <v>1168600</v>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>204400</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
+        <v>1129100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>197500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="3">
-        <v>193100</v>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J23" s="3">
+        <v>186500</v>
+      </c>
+      <c r="K23" s="3">
         <v>169400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>327000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>240100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>342600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>235600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>335500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>226500</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
-        <v>265300</v>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
+        <v>256400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
-        <v>40600</v>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K24" s="3">
         <v>33900</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>71800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>184500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>74700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>61700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>71800</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>38700</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>208900</v>
+        <v>171300</v>
       </c>
       <c r="E26" s="3">
-        <v>903300</v>
+        <v>201800</v>
       </c>
       <c r="F26" s="3">
-        <v>159200</v>
+        <v>872700</v>
       </c>
       <c r="G26" s="3">
-        <v>197600</v>
+        <v>153800</v>
       </c>
       <c r="H26" s="3">
-        <v>149000</v>
+        <v>190900</v>
       </c>
       <c r="I26" s="3">
-        <v>152400</v>
+        <v>144000</v>
       </c>
       <c r="J26" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K26" s="3">
         <v>135500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>384600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>255300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>55600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>104100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>267900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>173900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>111100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>263700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>108000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>187800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>208900</v>
+        <v>171300</v>
       </c>
       <c r="E27" s="3">
-        <v>903300</v>
+        <v>201800</v>
       </c>
       <c r="F27" s="3">
-        <v>159200</v>
+        <v>872700</v>
       </c>
       <c r="G27" s="3">
-        <v>197600</v>
+        <v>153800</v>
       </c>
       <c r="H27" s="3">
-        <v>149000</v>
+        <v>190900</v>
       </c>
       <c r="I27" s="3">
-        <v>152400</v>
+        <v>144000</v>
       </c>
       <c r="J27" s="3">
+        <v>147300</v>
+      </c>
+      <c r="K27" s="3">
         <v>135500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>98100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>384600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>255300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>106500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>104100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>267900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>116700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>111100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>263700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>108000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>127900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,19 +2117,22 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -2080,56 +2140,59 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>1100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>15300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>8300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-18700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-5600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>5600</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>79800</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
-        <v>58700</v>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>55300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
+        <v>56700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>53500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="3">
-        <v>64400</v>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J32" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K32" s="3">
         <v>67700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>137600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>198700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>114200</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>190700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>85300</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>405000</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>208900</v>
+        <v>171300</v>
       </c>
       <c r="E33" s="3">
-        <v>903300</v>
+        <v>201800</v>
       </c>
       <c r="F33" s="3">
-        <v>159200</v>
+        <v>872700</v>
       </c>
       <c r="G33" s="3">
-        <v>197600</v>
+        <v>153800</v>
       </c>
       <c r="H33" s="3">
-        <v>149000</v>
+        <v>190900</v>
       </c>
       <c r="I33" s="3">
-        <v>153600</v>
+        <v>144000</v>
       </c>
       <c r="J33" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K33" s="3">
         <v>135500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>98100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>384600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>270600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>106500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>104100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>249200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107600</v>
-      </c>
-      <c r="S33" s="3">
-        <v>111100</v>
       </c>
       <c r="T33" s="3">
         <v>111100</v>
       </c>
       <c r="U33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="V33" s="3">
         <v>269300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>108000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>207800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>208900</v>
+        <v>171300</v>
       </c>
       <c r="E35" s="3">
-        <v>903300</v>
+        <v>201800</v>
       </c>
       <c r="F35" s="3">
-        <v>159200</v>
+        <v>872700</v>
       </c>
       <c r="G35" s="3">
-        <v>197600</v>
+        <v>153800</v>
       </c>
       <c r="H35" s="3">
-        <v>149000</v>
+        <v>190900</v>
       </c>
       <c r="I35" s="3">
-        <v>153600</v>
+        <v>144000</v>
       </c>
       <c r="J35" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K35" s="3">
         <v>135500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>98100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>384600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>270600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>106500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>104100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>249200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107600</v>
-      </c>
-      <c r="S35" s="3">
-        <v>111100</v>
       </c>
       <c r="T35" s="3">
         <v>111100</v>
       </c>
       <c r="U35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="V35" s="3">
         <v>269300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>108000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>207800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,316 +2746,329 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
-        <v>616500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>674100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1024100</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="D41" s="3">
+        <v>865100</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>595600</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>651300</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>989500</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>894200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>448200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>702600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1127600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>960400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1027700</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1383900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>287900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>304900</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>342500</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>278200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>294500</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>321000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>2400</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>590300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>1143000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>1570800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>268200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>164300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>838900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>774600</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>908900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>789800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>810500</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>748400</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>878200</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>925800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>997600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>1048000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1022200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>1148900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>877400</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>899100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>46300</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>53100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>55300</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>44700</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>51300</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>63000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>72900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>68600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>63700</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>60600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>66200</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>55200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>22600</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>12400</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
-        <v>4500</v>
-      </c>
       <c r="J45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24500</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2983,298 +3081,313 @@
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1200500</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1812200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1819000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1992900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>2037800</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1750900</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1757500</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1925500</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>2228600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>1522300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2408400</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>3356600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>3739600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>2239500</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>2502600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>768900</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>220200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>190800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>956700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>742900</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>212700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>184400</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>207800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>301200</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>322900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>243800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>262500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>1475400</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>2340600</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7070400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7089600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>7108800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>6836700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6831300</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6849800</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6868400</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>7330200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>6439600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7700700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>6250900</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>6519900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>6592800</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>7006500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3484400</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3656000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3289100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>3279300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3366500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3532400</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3177800</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3496400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>4511500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>4657100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3514700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3748600</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>3605000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>3814900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>832100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>854700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1016200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>784400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>804000</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>825800</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>981800</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1278700</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1246800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1330800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1208400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1337400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1632800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>13968100</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13639500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>13597800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>13894900</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>13495600</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>13178200</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13137800</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>14363800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>14053300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>15383600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>14696700</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>15456500</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>15250100</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>17297300</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1307500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1273600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1289400</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1282900</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1263300</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1230500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1245800</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1466300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1384600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1605200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>1686500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>1702100</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>1883800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>2158600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1366200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>936000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1193500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>888000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>904400</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1153100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1263100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>143500</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>862300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>643400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>20200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>19100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>862800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>292400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>284500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>254000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>282500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>274900</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>245500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>345600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>383500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>411600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>88900</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>396100</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>66200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>63400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2966100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2494200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2736900</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>2422900</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2865800</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2409800</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2644400</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>3075000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>1911700</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>2879200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>2418900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>2118300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>1969100</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>3084800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>7421500</v>
       </c>
       <c r="E61" s="3">
-        <v>6782500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>6553100</v>
       </c>
       <c r="G61" s="3">
-        <v>7461100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7208700</v>
       </c>
       <c r="I61" s="3">
-        <v>7275900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>7029800</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7596300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>9050000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>9186400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7731000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>8503600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>8634800</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>9269600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>574700</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>723800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>784700</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>526900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>555300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>699300</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>758200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>765800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1122300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1096500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1021100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>926800</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>700100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>716000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10324500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>10680200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>10798700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>10373500</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9975300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>10318900</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10433500</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>11438300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>12085200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>13162100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>11171100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>11549800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>11304000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>13070400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-6641400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-7325600</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-7485900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-6415600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-6416700</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7077800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-7232700</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3534100</v>
+        <v>3521500</v>
       </c>
       <c r="E76" s="3">
-        <v>3643600</v>
+        <v>3414500</v>
       </c>
       <c r="F76" s="3">
-        <v>3083600</v>
+        <v>3520400</v>
       </c>
       <c r="G76" s="3">
-        <v>2959400</v>
+        <v>2979300</v>
       </c>
       <c r="H76" s="3">
-        <v>2730200</v>
+        <v>2859300</v>
       </c>
       <c r="I76" s="3">
-        <v>2799000</v>
+        <v>2637800</v>
       </c>
       <c r="J76" s="3">
+        <v>2704400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3071200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2925500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2255200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1968100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2312300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2221500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2241800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3525700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3799100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3906800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>3946000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>4226900</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>208900</v>
+        <v>171300</v>
       </c>
       <c r="E81" s="3">
-        <v>903300</v>
+        <v>201800</v>
       </c>
       <c r="F81" s="3">
-        <v>159200</v>
+        <v>872700</v>
       </c>
       <c r="G81" s="3">
-        <v>197600</v>
+        <v>153800</v>
       </c>
       <c r="H81" s="3">
-        <v>149000</v>
+        <v>190900</v>
       </c>
       <c r="I81" s="3">
-        <v>153600</v>
+        <v>144000</v>
       </c>
       <c r="J81" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K81" s="3">
         <v>135500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>98100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>384600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>270600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>106500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>104100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>249200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107600</v>
-      </c>
-      <c r="S81" s="3">
-        <v>111100</v>
       </c>
       <c r="T81" s="3">
         <v>111100</v>
       </c>
       <c r="U81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="V81" s="3">
         <v>269300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>108000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>207800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5247,47 +5445,50 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>896400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>913200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>835600</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>801100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>796600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>883900</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5655,47 +5871,50 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>1014100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1348500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1062900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1249900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>938000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1263000</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-414400</v>
+        <v>-114500</v>
       </c>
       <c r="E91" s="3">
-        <v>-221300</v>
+        <v>-400400</v>
       </c>
       <c r="F91" s="3">
-        <v>-362400</v>
+        <v>-213800</v>
       </c>
       <c r="G91" s="3">
-        <v>-71100</v>
+        <v>-350200</v>
       </c>
       <c r="H91" s="3">
-        <v>-455000</v>
+        <v>-68700</v>
       </c>
       <c r="I91" s="3">
-        <v>-201000</v>
+        <v>-439600</v>
       </c>
       <c r="J91" s="3">
+        <v>-194200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-313900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-466700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-484700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-514600</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-419400</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-482500</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-442100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>111500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5953,47 +6182,50 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-123500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-89900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-340400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-812300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>127900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-699600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6051,43 +6284,46 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-395300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-198700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-396400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-173900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-401700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-165500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6319,47 +6564,50 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-411800</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-507100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-363900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,23 +6659,26 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>-1100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6455,43 +6706,46 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-271700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-516900</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>216300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-69600</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-296200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>261800</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1495600</v>
+        <v>1360700</v>
       </c>
       <c r="E8" s="3">
-        <v>1445500</v>
+        <v>1423000</v>
       </c>
       <c r="F8" s="3">
-        <v>1406200</v>
+        <v>1375200</v>
       </c>
       <c r="G8" s="3">
-        <v>1416000</v>
+        <v>1337900</v>
       </c>
       <c r="H8" s="3">
-        <v>1495600</v>
+        <v>1347200</v>
       </c>
       <c r="I8" s="3">
-        <v>1417100</v>
+        <v>1423000</v>
       </c>
       <c r="J8" s="3">
+        <v>1348200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1410500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1500600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1656600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1914700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3201000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1629200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3353500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1548400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3078800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1539400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3213400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1584200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3229100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1934400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4039100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>390500</v>
+        <v>337300</v>
       </c>
       <c r="E9" s="3">
-        <v>349100</v>
+        <v>371600</v>
       </c>
       <c r="F9" s="3">
-        <v>333800</v>
+        <v>332100</v>
       </c>
       <c r="G9" s="3">
-        <v>342500</v>
+        <v>317600</v>
       </c>
       <c r="H9" s="3">
-        <v>387300</v>
+        <v>325900</v>
       </c>
       <c r="I9" s="3">
-        <v>345800</v>
+        <v>368500</v>
       </c>
       <c r="J9" s="3">
+        <v>329000</v>
+      </c>
+      <c r="K9" s="3">
         <v>324000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>355700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>422600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>401800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>718800</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>809100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>365500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>711500</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>766300</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>765200</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1247800</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1105100</v>
+        <v>1023400</v>
       </c>
       <c r="E10" s="3">
-        <v>1096400</v>
+        <v>1051400</v>
       </c>
       <c r="F10" s="3">
-        <v>1072400</v>
+        <v>1043100</v>
       </c>
       <c r="G10" s="3">
-        <v>1073500</v>
+        <v>1020300</v>
       </c>
       <c r="H10" s="3">
-        <v>1108400</v>
+        <v>1021300</v>
       </c>
       <c r="I10" s="3">
-        <v>1071300</v>
+        <v>1054500</v>
       </c>
       <c r="J10" s="3">
+        <v>1019200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1086500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1144900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1234000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1512900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2482200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2544400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1182900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2367300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2447100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2463900</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2791300</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6500</v>
+        <v>-4200</v>
       </c>
       <c r="E14" s="3">
-        <v>2200</v>
+        <v>-6200</v>
       </c>
       <c r="F14" s="3">
-        <v>-924000</v>
+        <v>2100</v>
       </c>
       <c r="G14" s="3">
-        <v>8700</v>
+        <v>-879100</v>
       </c>
       <c r="H14" s="3">
-        <v>-8700</v>
+        <v>8300</v>
       </c>
       <c r="I14" s="3">
-        <v>10900</v>
+        <v>-8300</v>
       </c>
       <c r="J14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>-232700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>92900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>15400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>45000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>10100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>31100</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>398200</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>397100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+        <v>378800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>377800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>429800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>438100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>885800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>897800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>829000</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
         <v>795500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>779800</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>883900</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1323,68 +1350,71 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
-        <v>213800</v>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1159600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
+        <v>203400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1103300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>1156400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1256700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>2718700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2895700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2603400</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2787000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>2808300</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3407600</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1394,68 +1424,71 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
-        <v>1192400</v>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>256400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
+        <v>1134400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>243900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>254200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>482300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>457800</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>475400</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>426400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>420700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>631500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1492,68 +1526,71 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3">
-        <v>-56700</v>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-53500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
+        <v>-54000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-50900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-62200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-137600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-198700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-114200</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-190700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-85300</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-405000</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,121 +1600,124 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>1533800</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>600000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+        <v>1459300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>570800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>621800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>614200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1241100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1172300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1196800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1032200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1125400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1110400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K22" s="3">
         <v>5500</v>
       </c>
-      <c r="E22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>18900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>18700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1705,68 +1748,71 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="3">
-        <v>1129100</v>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>197500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
+        <v>1074200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>187900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>186500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>169400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>327000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>240100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>342600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>235600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>335500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>226500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1776,68 +1822,71 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
-        <v>256400</v>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>43600</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+        <v>243900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>41500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>39300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33900</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>71800</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>184500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>74700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>61700</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>71800</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>38700</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>171300</v>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>201800</v>
+        <v>163000</v>
       </c>
       <c r="F26" s="3">
-        <v>872700</v>
+        <v>192000</v>
       </c>
       <c r="G26" s="3">
-        <v>153800</v>
+        <v>830300</v>
       </c>
       <c r="H26" s="3">
-        <v>190900</v>
+        <v>146300</v>
       </c>
       <c r="I26" s="3">
-        <v>144000</v>
+        <v>181600</v>
       </c>
       <c r="J26" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K26" s="3">
         <v>147300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>384600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>255300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>106500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>55600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>267900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>173900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>111100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>263700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>108000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>187800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>171300</v>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>201800</v>
+        <v>163000</v>
       </c>
       <c r="F27" s="3">
-        <v>872700</v>
+        <v>192000</v>
       </c>
       <c r="G27" s="3">
-        <v>153800</v>
+        <v>830300</v>
       </c>
       <c r="H27" s="3">
-        <v>190900</v>
+        <v>146300</v>
       </c>
       <c r="I27" s="3">
-        <v>144000</v>
+        <v>181600</v>
       </c>
       <c r="J27" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K27" s="3">
         <v>147300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>135500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>384600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>255300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>106500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>104100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>267900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>116700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>111100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>263700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>108000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>127900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2131,11 +2192,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -2143,56 +2204,59 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>1100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>15300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>8300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-18700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-5600</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>5600</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>79800</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2344,139 +2414,145 @@
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="3">
-        <v>56700</v>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>53500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
+        <v>54000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>62200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>137600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>198700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>114200</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>190700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>85300</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>405000</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>171300</v>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>201800</v>
+        <v>163000</v>
       </c>
       <c r="F33" s="3">
-        <v>872700</v>
+        <v>192000</v>
       </c>
       <c r="G33" s="3">
-        <v>153800</v>
+        <v>830300</v>
       </c>
       <c r="H33" s="3">
-        <v>190900</v>
+        <v>146300</v>
       </c>
       <c r="I33" s="3">
-        <v>144000</v>
+        <v>181600</v>
       </c>
       <c r="J33" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K33" s="3">
         <v>148400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>384600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>270600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>106500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>104100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>249200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>111100</v>
       </c>
       <c r="U33" s="3">
         <v>111100</v>
       </c>
       <c r="V33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="W33" s="3">
         <v>269300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>108000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>207800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>171300</v>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>201800</v>
+        <v>163000</v>
       </c>
       <c r="F35" s="3">
-        <v>872700</v>
+        <v>192000</v>
       </c>
       <c r="G35" s="3">
-        <v>153800</v>
+        <v>830300</v>
       </c>
       <c r="H35" s="3">
-        <v>190900</v>
+        <v>146300</v>
       </c>
       <c r="I35" s="3">
-        <v>144000</v>
+        <v>181600</v>
       </c>
       <c r="J35" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K35" s="3">
         <v>148400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>384600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>270600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>106500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>104100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>249200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>111100</v>
       </c>
       <c r="U35" s="3">
         <v>111100</v>
       </c>
       <c r="V35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="W35" s="3">
         <v>269300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>108000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>207800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,331 +2833,344 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>865100</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>595600</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>651300</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+        <v>699500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>823100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>566700</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>619600</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>989500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>894200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>448200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>702600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>1127600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>960400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1027700</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1383900</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>342500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>278200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>294500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>325900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>264700</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>280200</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>321000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>2400</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>590300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>1143000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>1570800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>268200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>164300</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>789800</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>810500</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>748400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>751400</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>771200</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>712000</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>878200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>925800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>997600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1048000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>1022200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>1148900</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>877400</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>899100</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>40400</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>44700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>51300</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>42600</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>48800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>53500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>63000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>72900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>68600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>63700</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>60600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>66200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>55200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>12000</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24500</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3084,310 +3183,325 @@
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1200500</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>2037800</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1750900</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1757500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1938800</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1665800</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1672100</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1925500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>2228600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>1522300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2408400</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>3356600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>3739600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>2239500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>2502600</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>956700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>742900</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>212700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>910200</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>706800</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>202400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>184400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>207800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>301200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>322900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>243800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>262500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>1475400</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>2340600</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>6836700</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6831300</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6849800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6504500</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6499300</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6517000</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6868400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>7330200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6439600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7700700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6250900</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>6519900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>6592800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>7006500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3279300</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3366500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3532400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3119900</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3203000</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3360700</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3177800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3496400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>4511500</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4657100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3514700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3748600</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>3605000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3814900</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>784400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>804000</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>825800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>746300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>764900</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>785700</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>981800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1278700</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1246800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1330800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1208400</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1337400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1632800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>13894900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>13495600</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>13178200</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13219700</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12839900</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12537800</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>13137800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>14363800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>14053300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>15383600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>14696700</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>15456500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>15250100</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>17297300</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1282900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1263300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1230500</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1220600</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1201900</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1170800</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1245800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1466300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1384600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1605200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>1686500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>1702100</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>1883800</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2158600</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>888000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1320000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>904400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>844900</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1255900</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>860400</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1153100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1263100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>143500</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>862300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>643400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>20200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>19100</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>862800</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>252000</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>282500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>274900</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>239800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>268800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>261600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>245500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>345600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>383500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>411600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>88900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>396100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>66200</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>63400</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>2422900</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2865800</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2409800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2305200</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2726600</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2292700</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2644400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>3075000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>1911700</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2879200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>2418900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>2118300</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>1969100</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>3084800</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7421500</v>
+        <v>6038500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>7060800</v>
       </c>
       <c r="F61" s="3">
-        <v>6553100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>6234700</v>
       </c>
       <c r="H61" s="3">
-        <v>7208700</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>6858400</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>7029800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7596300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>9050000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9186400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7731000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>8503600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>8634800</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>9269600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>526900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>555300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>699300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>501300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>528300</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>665300</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>758200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>765800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1122300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1096500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1021100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>926800</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>700100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>716000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>10373500</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9975300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>10318900</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9869400</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9490600</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9817500</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>10433500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>11438300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>12085200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>13162100</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>11171100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>11549800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>11304000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>13070400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-6415600</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6416700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-7077800</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6103900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6104900</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6733900</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3521500</v>
+        <v>3506000</v>
       </c>
       <c r="E76" s="3">
-        <v>3414500</v>
+        <v>3350300</v>
       </c>
       <c r="F76" s="3">
-        <v>3520400</v>
+        <v>3248600</v>
       </c>
       <c r="G76" s="3">
-        <v>2979300</v>
+        <v>3349300</v>
       </c>
       <c r="H76" s="3">
-        <v>2859300</v>
+        <v>2834500</v>
       </c>
       <c r="I76" s="3">
-        <v>2637800</v>
+        <v>2720300</v>
       </c>
       <c r="J76" s="3">
+        <v>2509600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2704400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3071200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2925500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2255200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1968100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2312300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2221500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2241800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3525700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3799100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3906800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3">
         <v>3946000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>4226900</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>171300</v>
+      <c r="D81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E81" s="3">
-        <v>201800</v>
+        <v>163000</v>
       </c>
       <c r="F81" s="3">
-        <v>872700</v>
+        <v>192000</v>
       </c>
       <c r="G81" s="3">
-        <v>153800</v>
+        <v>830300</v>
       </c>
       <c r="H81" s="3">
-        <v>190900</v>
+        <v>146300</v>
       </c>
       <c r="I81" s="3">
-        <v>144000</v>
+        <v>181600</v>
       </c>
       <c r="J81" s="3">
+        <v>137000</v>
+      </c>
+      <c r="K81" s="3">
         <v>148400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>384600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>270600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>106500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>104100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>249200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>111100</v>
       </c>
       <c r="U81" s="3">
         <v>111100</v>
       </c>
       <c r="V81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="W81" s="3">
         <v>269300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>108000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>207800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5448,47 +5647,50 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>896400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>913200</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>835600</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>801100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>796600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>883900</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5874,47 +6091,50 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>1014100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1348500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1062900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1249900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>938000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1263000</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-114500</v>
+        <v>-266700</v>
       </c>
       <c r="E91" s="3">
-        <v>-400400</v>
+        <v>-109000</v>
       </c>
       <c r="F91" s="3">
-        <v>-213800</v>
+        <v>-380900</v>
       </c>
       <c r="G91" s="3">
-        <v>-350200</v>
+        <v>-203400</v>
       </c>
       <c r="H91" s="3">
-        <v>-68700</v>
+        <v>-333200</v>
       </c>
       <c r="I91" s="3">
-        <v>-439600</v>
+        <v>-65400</v>
       </c>
       <c r="J91" s="3">
+        <v>-418300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-194200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-313900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-466700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-484700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-514600</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-419400</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-482500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-442100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>111500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6185,47 +6415,50 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-123500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-89900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-340400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-812300</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>127900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-699600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6287,43 +6521,46 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-395300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-198700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-396400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-173900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-401700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-165500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6567,47 +6813,50 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-411800</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-507100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-363900</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,23 +6911,26 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>-1100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6709,43 +6961,46 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-271700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-516900</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>216300</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-69600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-296200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>261800</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="Z102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1360700</v>
+        <v>1309600</v>
       </c>
       <c r="E8" s="3">
-        <v>1423000</v>
+        <v>1307600</v>
       </c>
       <c r="F8" s="3">
-        <v>1375200</v>
+        <v>1367400</v>
       </c>
       <c r="G8" s="3">
-        <v>1337900</v>
+        <v>1321600</v>
       </c>
       <c r="H8" s="3">
-        <v>1347200</v>
+        <v>1285600</v>
       </c>
       <c r="I8" s="3">
-        <v>1423000</v>
+        <v>1294600</v>
       </c>
       <c r="J8" s="3">
+        <v>1367400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1348200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1410500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1656600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1914700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3201000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1629200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3353500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1548400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3078800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1539400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3213400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1584200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3229100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1934400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4039100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>337300</v>
+        <v>336100</v>
       </c>
       <c r="E9" s="3">
-        <v>371600</v>
+        <v>324200</v>
       </c>
       <c r="F9" s="3">
-        <v>332100</v>
+        <v>357100</v>
       </c>
       <c r="G9" s="3">
-        <v>317600</v>
+        <v>319200</v>
       </c>
       <c r="H9" s="3">
-        <v>325900</v>
+        <v>305200</v>
       </c>
       <c r="I9" s="3">
-        <v>368500</v>
+        <v>313200</v>
       </c>
       <c r="J9" s="3">
+        <v>354100</v>
+      </c>
+      <c r="K9" s="3">
         <v>329000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>324000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>355700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>422600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>401800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>718800</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>809100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>365500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>711500</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>766300</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>765200</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1247800</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1023400</v>
+        <v>973500</v>
       </c>
       <c r="E10" s="3">
-        <v>1051400</v>
+        <v>983400</v>
       </c>
       <c r="F10" s="3">
-        <v>1043100</v>
+        <v>1010400</v>
       </c>
       <c r="G10" s="3">
-        <v>1020300</v>
+        <v>1002400</v>
       </c>
       <c r="H10" s="3">
-        <v>1021300</v>
+        <v>980400</v>
       </c>
       <c r="I10" s="3">
-        <v>1054500</v>
+        <v>981400</v>
       </c>
       <c r="J10" s="3">
+        <v>1013400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1019200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1086500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1144900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1234000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1512900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2482200</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2544400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1182900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2367300</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2447100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>2463900</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2791300</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-4200</v>
+        <v>-3000</v>
       </c>
       <c r="E14" s="3">
-        <v>-6200</v>
+        <v>-4000</v>
       </c>
       <c r="F14" s="3">
-        <v>2100</v>
+        <v>-6000</v>
       </c>
       <c r="G14" s="3">
-        <v>-879100</v>
+        <v>2000</v>
       </c>
       <c r="H14" s="3">
-        <v>8300</v>
+        <v>-844800</v>
       </c>
       <c r="I14" s="3">
-        <v>-8300</v>
+        <v>8000</v>
       </c>
       <c r="J14" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K14" s="3">
         <v>10400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-232700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>92900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>15400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>45000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>10100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>31100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
+        <v>322200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>341100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>378800</v>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>377800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+        <v>364100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>363100</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>429800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>438100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>39700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>885800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>897800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>829000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
         <v>795500</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>779800</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>883900</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1003400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1017300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="3">
-        <v>203400</v>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>1103300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
+        <v>195500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1060200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>1156400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1256700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>2718700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2895700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>2603400</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>2787000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>2808300</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>3407600</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>306200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>290200</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>1134400</v>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="3">
+        <v>1090200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>234400</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>254200</v>
+      </c>
+      <c r="M18" s="3">
         <v>243900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
-        <v>254200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>243900</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>482300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>457800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>475400</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>426400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>420700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>631500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,212 +1548,219 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-54900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
-        <v>-54000</v>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>-50900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
+        <v>-51900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-48900</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-62200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-137600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-198700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-114200</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-190700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-85300</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-405000</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>579500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>576500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>1459300</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>570800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+        <v>1402300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>548600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>621800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>614200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1241100</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1172300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1196800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1032200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1125400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1110400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4200</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="3">
-        <v>5200</v>
+        <v>4000</v>
       </c>
       <c r="F22" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>18900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>18700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>231400</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3">
-        <v>1074200</v>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>187900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
+        <v>1032300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>180500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>186500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>169400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>327000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>240100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>342600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>235600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>335500</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>226500</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>52900</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
-        <v>243900</v>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>41500</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
+        <v>234400</v>
+      </c>
+      <c r="I24" s="3">
+        <v>39900</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>39300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33900</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>71800</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>184500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>74700</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>61700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>71800</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>38700</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>185500</v>
       </c>
       <c r="E26" s="3">
-        <v>163000</v>
+        <v>178500</v>
       </c>
       <c r="F26" s="3">
-        <v>192000</v>
+        <v>156600</v>
       </c>
       <c r="G26" s="3">
-        <v>830300</v>
+        <v>184500</v>
       </c>
       <c r="H26" s="3">
-        <v>146300</v>
+        <v>797900</v>
       </c>
       <c r="I26" s="3">
-        <v>181600</v>
+        <v>140600</v>
       </c>
       <c r="J26" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K26" s="3">
         <v>137000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>135500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>384600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>255300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>106500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>55600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>104100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>267900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>107600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>173900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>111100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>263700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>108000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>187800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>185500</v>
       </c>
       <c r="E27" s="3">
-        <v>163000</v>
+        <v>178500</v>
       </c>
       <c r="F27" s="3">
-        <v>192000</v>
+        <v>156600</v>
       </c>
       <c r="G27" s="3">
-        <v>830300</v>
+        <v>184500</v>
       </c>
       <c r="H27" s="3">
-        <v>146300</v>
+        <v>797900</v>
       </c>
       <c r="I27" s="3">
-        <v>181600</v>
+        <v>140600</v>
       </c>
       <c r="J27" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K27" s="3">
         <v>137000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>135500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>98100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>384600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>255300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>106500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>104100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>267900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>107600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>116700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>111100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>263700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>108000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>127900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,25 +2239,28 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -2207,56 +2268,59 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>1100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>15300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>8300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-18700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-5600</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>5600</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>79800</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>54900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3">
-        <v>54000</v>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>50900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
+        <v>51900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>48900</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>62200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>137600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>198700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>114200</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>190700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>85300</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>405000</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>185500</v>
       </c>
       <c r="E33" s="3">
-        <v>163000</v>
+        <v>177500</v>
       </c>
       <c r="F33" s="3">
-        <v>192000</v>
+        <v>156600</v>
       </c>
       <c r="G33" s="3">
-        <v>830300</v>
+        <v>184500</v>
       </c>
       <c r="H33" s="3">
-        <v>146300</v>
+        <v>797900</v>
       </c>
       <c r="I33" s="3">
-        <v>181600</v>
+        <v>140600</v>
       </c>
       <c r="J33" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K33" s="3">
         <v>137000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>148400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>135500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>384600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>270600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>106500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>104100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>249200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>107600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>111100</v>
       </c>
       <c r="V33" s="3">
         <v>111100</v>
       </c>
       <c r="W33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="X33" s="3">
         <v>269300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>108000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>207800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>185500</v>
       </c>
       <c r="E35" s="3">
-        <v>163000</v>
+        <v>177500</v>
       </c>
       <c r="F35" s="3">
-        <v>192000</v>
+        <v>156600</v>
       </c>
       <c r="G35" s="3">
-        <v>830300</v>
+        <v>184500</v>
       </c>
       <c r="H35" s="3">
-        <v>146300</v>
+        <v>797900</v>
       </c>
       <c r="I35" s="3">
-        <v>181600</v>
+        <v>140600</v>
       </c>
       <c r="J35" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K35" s="3">
         <v>137000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>148400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>135500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>384600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>270600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>106500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>104100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>249200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>107600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>111100</v>
       </c>
       <c r="V35" s="3">
         <v>111100</v>
       </c>
       <c r="W35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="X35" s="3">
         <v>269300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>108000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>207800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,346 +2920,359 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>699500</v>
+        <v>436900</v>
       </c>
       <c r="E41" s="3">
-        <v>823100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
-        <v>566700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>619600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+        <v>672200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>790900</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>544600</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>595400</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>989500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>894200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>448200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>702600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>1127600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>960400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1027700</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1383900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>325900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>264700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>280200</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="D42" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>313200</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>254300</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>269300</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>321000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>2400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>590300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>1143000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>1570800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>268200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>164300</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>751400</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>771200</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>712000</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>791900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>722100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>741100</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>684200</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>878200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>925800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>997600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>1048000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>1022200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>1148900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>877400</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>899100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>38400</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>42600</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>48800</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>36900</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>53500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>63000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>72900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>68600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>63700</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>60600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>66200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>55200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>11400</v>
+      <c r="D45" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>24500</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3186,322 +3285,337 @@
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V45" s="3">
         <v>1200500</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1938800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1665800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1672100</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>1619800</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1863100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1600800</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1606800</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>1925500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>2228600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>1522300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2408400</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>3356600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>3739600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>2239500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>2502600</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>910200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>706800</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>202400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>861800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>874700</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>679200</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>194500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>184400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>207800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>301200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>322900</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>243800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>262500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>1475400</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>2340600</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6504500</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6499300</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6517000</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>6246700</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6250700</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6245700</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6262700</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6868400</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>7330200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6439600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7700700</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>6250900</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>6519900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>6592800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>7006500</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3119900</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3203000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3360700</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>2907400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2998200</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3078000</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3229600</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3177800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3496400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>4511500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>4657100</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>3514700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>3748600</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>3605000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>3814900</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>746300</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>764900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>785700</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>468800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>717100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>735100</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>755000</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>981800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1278700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1246800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1330800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1208400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1337400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1632800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>13219700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>12839900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>12537800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>12104400</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12703900</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>12338800</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12048600</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>13137800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>14363800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>14053300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>15383600</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>14696700</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>15456500</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>15250100</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>17297300</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1220600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1201900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1170800</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1142000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1172900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1125100</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1245800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1466300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1384600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>1605200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>1686500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>1702100</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>1883800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>2158600</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>844900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1255900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>860400</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>932600</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>811900</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1206900</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>826800</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1153100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1263100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>143500</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>862300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>643400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>20200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>19100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>862800</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>239800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>268800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>261600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>194500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>230400</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>258300</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>245500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>345600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>383500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>411600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>88900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>396100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>66200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>63400</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2305200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2726600</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2292700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>2269100</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2215200</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2620200</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2203300</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>2644400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>3075000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>1911700</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>2879200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>2418900</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>2118300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>1969100</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>3084800</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6038500</v>
+        <v>6074200</v>
       </c>
       <c r="E61" s="3">
-        <v>7060800</v>
+        <v>5802900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>6785300</v>
       </c>
       <c r="G61" s="3">
-        <v>6234700</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>5991400</v>
       </c>
       <c r="I61" s="3">
-        <v>6858400</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>6590800</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>7029800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7596300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>9050000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9186400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>7731000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>8503600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>8634800</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>9269600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>501300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>528300</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>665300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>589500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>481700</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>507700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>639300</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>758200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>765800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1122300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1096500</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1021100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>926800</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>700100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>716000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>9869400</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9490600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>9817500</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>8934700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9484300</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9120200</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9434400</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>10433500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>11438300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>12085200</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>13162100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>11171100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>11549800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>11304000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>13070400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-6103900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6104900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6733900</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-5717100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-5865700</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-5866700</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6471100</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3506000</v>
+        <v>3169700</v>
       </c>
       <c r="E76" s="3">
-        <v>3350300</v>
+        <v>3369200</v>
       </c>
       <c r="F76" s="3">
-        <v>3248600</v>
+        <v>3219600</v>
       </c>
       <c r="G76" s="3">
-        <v>3349300</v>
+        <v>3121900</v>
       </c>
       <c r="H76" s="3">
-        <v>2834500</v>
+        <v>3218600</v>
       </c>
       <c r="I76" s="3">
-        <v>2720300</v>
+        <v>2723900</v>
       </c>
       <c r="J76" s="3">
+        <v>2614200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2509600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2704400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3071200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2925500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2255200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1968100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2312300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2221500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2241800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3525700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3799100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3906800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>3946000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>4226900</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>185500</v>
       </c>
       <c r="E81" s="3">
-        <v>163000</v>
+        <v>177500</v>
       </c>
       <c r="F81" s="3">
-        <v>192000</v>
+        <v>156600</v>
       </c>
       <c r="G81" s="3">
-        <v>830300</v>
+        <v>184500</v>
       </c>
       <c r="H81" s="3">
-        <v>146300</v>
+        <v>797900</v>
       </c>
       <c r="I81" s="3">
-        <v>181600</v>
+        <v>140600</v>
       </c>
       <c r="J81" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K81" s="3">
         <v>137000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>148400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>135500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>384600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>270600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>106500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>104100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>249200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>107600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>111100</v>
       </c>
       <c r="V81" s="3">
         <v>111100</v>
       </c>
       <c r="W81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="X81" s="3">
         <v>269300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>108000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>207800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5650,47 +5849,50 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>896400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>913200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>835600</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>801100</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>796600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>883900</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6094,47 +6311,50 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>1014100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1348500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1062900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1249900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>938000</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1263000</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-266700</v>
+        <v>251300</v>
       </c>
       <c r="E91" s="3">
-        <v>-109000</v>
+        <v>-256300</v>
       </c>
       <c r="F91" s="3">
-        <v>-380900</v>
+        <v>-104700</v>
       </c>
       <c r="G91" s="3">
-        <v>-203400</v>
+        <v>-366000</v>
       </c>
       <c r="H91" s="3">
-        <v>-333200</v>
+        <v>-195500</v>
       </c>
       <c r="I91" s="3">
-        <v>-65400</v>
+        <v>-320200</v>
       </c>
       <c r="J91" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-418300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-194200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-313900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-77000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-466700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-484700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-514600</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-419400</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-482500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-442100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>111500</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6418,47 +6648,50 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-123500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-89900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-340400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-812300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>127900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-699600</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6524,43 +6758,46 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-395300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-198700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-396400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-173900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-401700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-165500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6816,47 +7062,50 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-411800</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-507100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-363900</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6914,23 +7163,26 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X101" s="3">
         <v>-1100</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6964,43 +7216,46 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-271700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-516900</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>216300</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-69600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-296200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>261800</v>
       </c>
-      <c r="Z102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1309600</v>
+        <v>1372000</v>
       </c>
       <c r="E8" s="3">
-        <v>1307600</v>
+        <v>1340300</v>
       </c>
       <c r="F8" s="3">
+        <v>1338300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1399500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1352600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1315800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1367400</v>
       </c>
-      <c r="G8" s="3">
-        <v>1321600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1285600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1294600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1367400</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1348200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1410500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1656600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1914700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3201000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1629200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3353500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1548400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3078800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1539400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3213400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1584200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3229100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1934400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4039100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>336100</v>
+        <v>361400</v>
       </c>
       <c r="E9" s="3">
-        <v>324200</v>
+        <v>344000</v>
       </c>
       <c r="F9" s="3">
-        <v>357100</v>
+        <v>331800</v>
       </c>
       <c r="G9" s="3">
-        <v>319200</v>
+        <v>365400</v>
       </c>
       <c r="H9" s="3">
-        <v>305200</v>
+        <v>326700</v>
       </c>
       <c r="I9" s="3">
-        <v>313200</v>
+        <v>312400</v>
       </c>
       <c r="J9" s="3">
+        <v>320500</v>
+      </c>
+      <c r="K9" s="3">
         <v>354100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>329000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>324000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>355700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>422600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>401800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>718800</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>809100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>365500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>711500</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>766300</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>765200</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1247800</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>973500</v>
+        <v>1010600</v>
       </c>
       <c r="E10" s="3">
-        <v>983400</v>
+        <v>996300</v>
       </c>
       <c r="F10" s="3">
-        <v>1010400</v>
+        <v>1006500</v>
       </c>
       <c r="G10" s="3">
-        <v>1002400</v>
+        <v>1034100</v>
       </c>
       <c r="H10" s="3">
-        <v>980400</v>
+        <v>1025900</v>
       </c>
       <c r="I10" s="3">
-        <v>981400</v>
+        <v>1003400</v>
       </c>
       <c r="J10" s="3">
+        <v>1004500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1013400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1019200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1086500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1144900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1234000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1512900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2482200</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>2544400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1182900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2367300</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2447100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2463900</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2791300</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-3000</v>
+        <v>8200</v>
       </c>
       <c r="E14" s="3">
-        <v>-4000</v>
+        <v>13300</v>
       </c>
       <c r="F14" s="3">
-        <v>-6000</v>
+        <v>7100</v>
       </c>
       <c r="G14" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>-844800</v>
-      </c>
       <c r="I14" s="3">
-        <v>8000</v>
+        <v>-864600</v>
       </c>
       <c r="J14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-8000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-3300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-232700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>92900</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>15400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>45000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>10100</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>322200</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>341100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+        <v>329700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>349100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>364100</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>363100</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+        <v>372600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>371600</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>429800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>438100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>39700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>885800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>897800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>829000</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="3">
         <v>795500</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>779800</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
         <v>883900</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1003400</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1017300</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
+        <v>1026900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1041200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
-        <v>195500</v>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1060200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
+        <v>200100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1085100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>1156400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1256700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2718700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2895700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2603400</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>2787000</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2808300</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>3407600</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>306200</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>290200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
+        <v>313400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>297100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>1090200</v>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>234400</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
+        <v>1115700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>239900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>254200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>243900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>482300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>457800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>475400</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>426400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>420700</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>631500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,221 +1582,228 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-58800</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
+        <v>-60200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-56100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3">
-        <v>-51900</v>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I20" s="3">
-        <v>-48900</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
+        <v>-53100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-50000</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-62200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-137600</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-198700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-114200</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-190700</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-85300</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-405000</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>579500</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>576500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+        <v>593100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>590000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>1402300</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>548600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>1435200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>561400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>621800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>614200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>1241100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1172300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1196800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1032200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1125400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1110400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>18900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>18700</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>242400</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>231400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
+        <v>248100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>236800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="3">
-        <v>1032300</v>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>180500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
+        <v>1056500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>184800</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>186500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>169400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>327000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>240100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>342600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>235600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>335500</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>226500</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>56900</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
-        <v>52900</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
+        <v>58200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>54100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
-        <v>234400</v>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
-        <v>39900</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
+        <v>239900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>40800</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>39300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33900</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>71800</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>184500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>74700</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>61700</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>71800</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>38700</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>185500</v>
+        <v>215400</v>
       </c>
       <c r="E26" s="3">
-        <v>178500</v>
+        <v>189900</v>
       </c>
       <c r="F26" s="3">
-        <v>156600</v>
+        <v>182700</v>
       </c>
       <c r="G26" s="3">
-        <v>184500</v>
+        <v>160300</v>
       </c>
       <c r="H26" s="3">
-        <v>797900</v>
+        <v>188800</v>
       </c>
       <c r="I26" s="3">
-        <v>140600</v>
+        <v>816600</v>
       </c>
       <c r="J26" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K26" s="3">
         <v>174500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>137000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>135500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>98100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>384600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>255300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>106500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>55600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>104100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>267900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>107600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>173900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>111100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>263700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>108000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>187800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>185500</v>
+        <v>215400</v>
       </c>
       <c r="E27" s="3">
-        <v>178500</v>
+        <v>189900</v>
       </c>
       <c r="F27" s="3">
-        <v>156600</v>
+        <v>182700</v>
       </c>
       <c r="G27" s="3">
-        <v>184500</v>
+        <v>160300</v>
       </c>
       <c r="H27" s="3">
-        <v>797900</v>
+        <v>188800</v>
       </c>
       <c r="I27" s="3">
-        <v>140600</v>
+        <v>816600</v>
       </c>
       <c r="J27" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K27" s="3">
         <v>174500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>137000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>135500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>98100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>384600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>255300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>106500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>104100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>267900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>107600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>116700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>111100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>263700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>108000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>127900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,28 +2300,31 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -2271,56 +2332,59 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>1100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>15300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>8300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-18700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-5600</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>5600</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>79800</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>58800</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>54900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
+        <v>60200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>56100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3">
-        <v>51900</v>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I32" s="3">
-        <v>48900</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
+        <v>53100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>50000</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>62200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>137600</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>198700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>114200</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>190700</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>85300</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>405000</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>185500</v>
+        <v>215400</v>
       </c>
       <c r="E33" s="3">
-        <v>177500</v>
+        <v>189900</v>
       </c>
       <c r="F33" s="3">
-        <v>156600</v>
+        <v>181700</v>
       </c>
       <c r="G33" s="3">
-        <v>184500</v>
+        <v>160300</v>
       </c>
       <c r="H33" s="3">
-        <v>797900</v>
+        <v>188800</v>
       </c>
       <c r="I33" s="3">
-        <v>140600</v>
+        <v>816600</v>
       </c>
       <c r="J33" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K33" s="3">
         <v>174500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>137000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>148400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>135500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>98100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>384600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>270600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>106500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>104100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>249200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>107600</v>
-      </c>
-      <c r="V33" s="3">
-        <v>111100</v>
       </c>
       <c r="W33" s="3">
         <v>111100</v>
       </c>
       <c r="X33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>269300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>108000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>207800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>185500</v>
+        <v>215400</v>
       </c>
       <c r="E35" s="3">
-        <v>177500</v>
+        <v>189900</v>
       </c>
       <c r="F35" s="3">
-        <v>156600</v>
+        <v>181700</v>
       </c>
       <c r="G35" s="3">
-        <v>184500</v>
+        <v>160300</v>
       </c>
       <c r="H35" s="3">
-        <v>797900</v>
+        <v>188800</v>
       </c>
       <c r="I35" s="3">
-        <v>140600</v>
+        <v>816600</v>
       </c>
       <c r="J35" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K35" s="3">
         <v>174500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>137000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>148400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>135500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>98100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>384600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>270600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>106500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>104100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>249200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>107600</v>
-      </c>
-      <c r="V35" s="3">
-        <v>111100</v>
       </c>
       <c r="W35" s="3">
         <v>111100</v>
       </c>
       <c r="X35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>269300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>108000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>207800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,361 +3007,374 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>436900</v>
+        <v>435900</v>
       </c>
       <c r="E41" s="3">
-        <v>672200</v>
+        <v>447100</v>
       </c>
       <c r="F41" s="3">
-        <v>790900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="3">
-        <v>544600</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+        <v>688000</v>
+      </c>
+      <c r="G41" s="3">
+        <v>809500</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>557400</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>595400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>989500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>894200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>448200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>702600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>1127600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>960400</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1027700</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1383900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>230400</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>313200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>254300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>235800</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>320500</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>260300</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>269300</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>321000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>2400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>590300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>1143000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>1570800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>268200</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>164300</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>791900</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>722100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>741100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>810500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>739100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>758500</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>684200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>878200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>925800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>997600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>1048000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>1022200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>1148900</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>877400</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>899100</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>52900</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>36900</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>40900</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>54100</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>37800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>41900</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>46900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>53500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>63000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>72900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>68600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>63700</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>60600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>66200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>55200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>107700</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>110200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>11000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>24500</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3288,334 +3387,349 @@
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W45" s="3">
         <v>1200500</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1619800</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1863100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1600800</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1657800</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1906900</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1638400</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1606800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1925500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>2228600</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1522300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2408400</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>3356600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>3739600</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>2239500</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>2502600</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>861800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>874700</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>679200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>882000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>895200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>695200</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>194500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>184400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>207800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>301200</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>322900</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>243800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>262500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>1475400</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>2340600</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>6246700</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6250700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6245700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6393300</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6397400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6392200</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6262700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6868400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>7330200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6439600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7700700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>6250900</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>6519900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>6592800</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>7006500</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>2907400</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>2998200</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3078000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2975600</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3068500</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3150200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3229600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3177800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3496400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4511500</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>4657100</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>3514700</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>3748600</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3605000</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>3814900</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>468800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>717100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>735100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>479800</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>734000</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>752300</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>755000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>981800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1100900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1278700</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1246800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1330800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1208400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1337400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1632800</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>12104400</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>12703900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>12338800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12388400</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>13001900</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>12628300</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>12048600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>13137800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>14363800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>14053300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>15383600</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>14696700</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>15456500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>15250100</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>17297300</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1142000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1172900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1155000</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1168800</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1200500</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1182100</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1125100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1245800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1466300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1384600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>1605200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>1686500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>1702100</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1883800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>2158600</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>932600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>811900</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1206900</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>954400</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>830900</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1235200</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>826800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1153100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1263100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>143500</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>862300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>643400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>20200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>19100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>862800</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>194500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>230400</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>258300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>199100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>235800</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>264400</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>251300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>245500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>345600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>383500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>411600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>88900</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>396100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>66200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>63400</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>2269100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2215200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2620200</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2322300</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2267200</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2681600</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2203300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2644400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>3075000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1911700</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>2879200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>2418900</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>2118300</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1969100</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>3084800</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6074200</v>
+        <v>6117700</v>
       </c>
       <c r="E61" s="3">
-        <v>5802900</v>
+        <v>6216700</v>
       </c>
       <c r="F61" s="3">
-        <v>6785300</v>
+        <v>5939000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>6944500</v>
       </c>
       <c r="H61" s="3">
-        <v>5991400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>6131900</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>6590800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>7029800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7596300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>9050000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9186400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>7731000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>8503600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>8634800</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>9269600</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>589500</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>481700</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>507700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>603300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>493000</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>519600</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>639300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>758200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>765800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1122300</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1096500</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1021100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>926800</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>700100</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>716000</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>8934700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9484300</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9120200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9144300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9706800</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9334200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>9434400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>10433500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>11438300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>12085200</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>13162100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>11171100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>11549800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>11304000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>13070400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-5717100</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-5865700</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-5866700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5851200</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6003300</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6004300</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6471100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3169700</v>
+        <v>3479900</v>
       </c>
       <c r="E76" s="3">
-        <v>3369200</v>
+        <v>3244100</v>
       </c>
       <c r="F76" s="3">
-        <v>3219600</v>
+        <v>3448300</v>
       </c>
       <c r="G76" s="3">
-        <v>3121900</v>
+        <v>3295100</v>
       </c>
       <c r="H76" s="3">
-        <v>3218600</v>
+        <v>3195100</v>
       </c>
       <c r="I76" s="3">
-        <v>2723900</v>
+        <v>3294100</v>
       </c>
       <c r="J76" s="3">
+        <v>2787800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2614200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2509600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2704400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3071200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2925500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2255200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1968100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2312300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2221500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2241800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3525700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3799100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3906800</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>3946000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>4226900</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>185500</v>
+        <v>215400</v>
       </c>
       <c r="E81" s="3">
-        <v>177500</v>
+        <v>189900</v>
       </c>
       <c r="F81" s="3">
-        <v>156600</v>
+        <v>181700</v>
       </c>
       <c r="G81" s="3">
-        <v>184500</v>
+        <v>160300</v>
       </c>
       <c r="H81" s="3">
-        <v>797900</v>
+        <v>188800</v>
       </c>
       <c r="I81" s="3">
-        <v>140600</v>
+        <v>816600</v>
       </c>
       <c r="J81" s="3">
+        <v>143900</v>
+      </c>
+      <c r="K81" s="3">
         <v>174500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>137000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>148400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>135500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>98100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>384600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>270600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>106500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>104100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>249200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>107600</v>
-      </c>
-      <c r="V81" s="3">
-        <v>111100</v>
       </c>
       <c r="W81" s="3">
         <v>111100</v>
       </c>
       <c r="X81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>269300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>108000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>207800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5852,47 +6051,50 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>896400</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>913200</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>835600</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>801100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>796600</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>883900</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6314,47 +6531,50 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1014100</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1348500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1062900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1249900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>938000</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>1263000</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>251300</v>
+        <v>-826800</v>
       </c>
       <c r="E91" s="3">
-        <v>-256300</v>
+        <v>257200</v>
       </c>
       <c r="F91" s="3">
-        <v>-104700</v>
+        <v>-262300</v>
       </c>
       <c r="G91" s="3">
-        <v>-366000</v>
+        <v>-107200</v>
       </c>
       <c r="H91" s="3">
-        <v>-195500</v>
+        <v>-374600</v>
       </c>
       <c r="I91" s="3">
-        <v>-320200</v>
+        <v>-200100</v>
       </c>
       <c r="J91" s="3">
+        <v>-327700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-62800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-418300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-194200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-313900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-466700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-484700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-514600</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-419400</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-482500</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-442100</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>111500</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6651,47 +6881,50 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-123500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-89900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-340400</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-812300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>127900</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-699600</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6761,43 +6995,46 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-395300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-198700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-396400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-173900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-401700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-165500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7065,47 +7311,50 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-411800</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-507100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-363900</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7166,23 +7415,26 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7219,43 +7471,46 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-271700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-516900</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>216300</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-69600</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-296200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>261800</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1372000</v>
+        <v>1457900</v>
       </c>
       <c r="E8" s="3">
-        <v>1340300</v>
+        <v>1422000</v>
       </c>
       <c r="F8" s="3">
-        <v>1338300</v>
+        <v>1389200</v>
       </c>
       <c r="G8" s="3">
-        <v>1399500</v>
+        <v>1387000</v>
       </c>
       <c r="H8" s="3">
-        <v>1352600</v>
+        <v>1450500</v>
       </c>
       <c r="I8" s="3">
-        <v>1315800</v>
+        <v>1401900</v>
       </c>
       <c r="J8" s="3">
+        <v>1363800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1325000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1367400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1348200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1410500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1656600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1914700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3201000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1629200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3353500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1548400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3078800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1539400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3213400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1584200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3229100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1934400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4039100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>361400</v>
+        <v>384100</v>
       </c>
       <c r="E9" s="3">
-        <v>344000</v>
+        <v>374500</v>
       </c>
       <c r="F9" s="3">
-        <v>331800</v>
+        <v>356500</v>
       </c>
       <c r="G9" s="3">
-        <v>365400</v>
+        <v>343900</v>
       </c>
       <c r="H9" s="3">
-        <v>326700</v>
+        <v>378800</v>
       </c>
       <c r="I9" s="3">
-        <v>312400</v>
+        <v>338600</v>
       </c>
       <c r="J9" s="3">
+        <v>323700</v>
+      </c>
+      <c r="K9" s="3">
         <v>320500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>354100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>329000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>324000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>355700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>422600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>401800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>718800</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>809100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>365500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>711500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3">
         <v>766300</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>765200</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>1247800</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1010600</v>
+        <v>1073900</v>
       </c>
       <c r="E10" s="3">
-        <v>996300</v>
+        <v>1047400</v>
       </c>
       <c r="F10" s="3">
-        <v>1006500</v>
+        <v>1032600</v>
       </c>
       <c r="G10" s="3">
-        <v>1034100</v>
+        <v>1043200</v>
       </c>
       <c r="H10" s="3">
-        <v>1025900</v>
+        <v>1071800</v>
       </c>
       <c r="I10" s="3">
-        <v>1003400</v>
+        <v>1063300</v>
       </c>
       <c r="J10" s="3">
+        <v>1040000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1004500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1013400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1019200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1086500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1144900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1234000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1512900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2482200</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>2544400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1182900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2367300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3">
         <v>2447100</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2463900</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2791300</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1222,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-896100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8200</v>
       </c>
-      <c r="E14" s="3">
-        <v>13300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-864600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-232700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>92900</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>15400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>45000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>10100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>329700</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>349100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+        <v>341700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>361800</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>372600</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K15" s="3">
         <v>371600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>429800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>438100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>39700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>885800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>897800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>829000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
         <v>795500</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>779800</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>883900</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>1026900</v>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>1041200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
+        <v>1064300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1079200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="3">
-        <v>200100</v>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J17" s="3">
+        <v>207400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1085100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>1156400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1256700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>2718700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>2895700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>2603400</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>2787000</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>2808300</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>3407600</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
-        <v>313400</v>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>297100</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
+        <v>324800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>307900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="3">
-        <v>1115700</v>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J18" s="3">
+        <v>1156400</v>
+      </c>
+      <c r="K18" s="3">
         <v>239900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>254200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>243900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>482300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>457800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>475400</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>426400</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>420700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>631500</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,230 +1615,237 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3">
-        <v>-60200</v>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
+        <v>-62400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-58200</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
-        <v>-53100</v>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J20" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-50000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-62200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-137600</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-198700</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-114200</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-190700</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-85300</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-405000</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
-        <v>593100</v>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>590000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
+        <v>614700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>611500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>1435200</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>1487500</v>
+      </c>
+      <c r="K21" s="3">
         <v>561400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>621800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>614200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>1241100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1172300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1196800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1032200</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1125400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1110400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17600</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>18900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>18700</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="3">
-        <v>248100</v>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>236800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
+        <v>257100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>245500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="3">
-        <v>1056500</v>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J23" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="K23" s="3">
         <v>184800</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>186500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>169400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>327000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>240100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>342600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>235600</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>335500</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>226500</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="3">
-        <v>58200</v>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>54100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
+        <v>60300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>56100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="3">
-        <v>239900</v>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J24" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K24" s="3">
         <v>40800</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>39300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33900</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>71800</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>184500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>74700</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>61700</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>71800</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>38700</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215400</v>
+        <v>202100</v>
       </c>
       <c r="E26" s="3">
-        <v>189900</v>
+        <v>223200</v>
       </c>
       <c r="F26" s="3">
-        <v>182700</v>
+        <v>196800</v>
       </c>
       <c r="G26" s="3">
-        <v>160300</v>
+        <v>189400</v>
       </c>
       <c r="H26" s="3">
-        <v>188800</v>
+        <v>166100</v>
       </c>
       <c r="I26" s="3">
-        <v>816600</v>
+        <v>195700</v>
       </c>
       <c r="J26" s="3">
+        <v>846400</v>
+      </c>
+      <c r="K26" s="3">
         <v>143900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>174500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>137000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>135500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>98100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>384600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>255300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>106500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>55600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>104100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>267900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>107600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>173900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>111100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>263700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>108000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>187800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>215400</v>
+        <v>202100</v>
       </c>
       <c r="E27" s="3">
-        <v>189900</v>
+        <v>223200</v>
       </c>
       <c r="F27" s="3">
-        <v>182700</v>
+        <v>196800</v>
       </c>
       <c r="G27" s="3">
-        <v>160300</v>
+        <v>189400</v>
       </c>
       <c r="H27" s="3">
-        <v>188800</v>
+        <v>166100</v>
       </c>
       <c r="I27" s="3">
-        <v>816600</v>
+        <v>195700</v>
       </c>
       <c r="J27" s="3">
+        <v>846400</v>
+      </c>
+      <c r="K27" s="3">
         <v>143900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>174500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>137000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>98100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>384600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>255300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>106500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>104100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>267900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>107600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>116700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>111100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>263700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>108000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>127900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,31 +2360,34 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2335,56 +2395,59 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>15300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>8300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-18700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-5600</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>5600</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
         <v>79800</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="3">
-        <v>60200</v>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F32" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
+        <v>62400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>58200</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="3">
-        <v>53100</v>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J32" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K32" s="3">
         <v>50000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>62200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>137600</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>198700</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>114200</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>190700</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>85300</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>405000</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>215400</v>
+        <v>202100</v>
       </c>
       <c r="E33" s="3">
-        <v>189900</v>
+        <v>223200</v>
       </c>
       <c r="F33" s="3">
-        <v>181700</v>
+        <v>196800</v>
       </c>
       <c r="G33" s="3">
-        <v>160300</v>
+        <v>188300</v>
       </c>
       <c r="H33" s="3">
-        <v>188800</v>
+        <v>166100</v>
       </c>
       <c r="I33" s="3">
-        <v>816600</v>
+        <v>195700</v>
       </c>
       <c r="J33" s="3">
+        <v>846400</v>
+      </c>
+      <c r="K33" s="3">
         <v>143900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>174500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>137000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>148400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>98100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>384600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>270600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>106500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>104100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>249200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>107600</v>
-      </c>
-      <c r="W33" s="3">
-        <v>111100</v>
       </c>
       <c r="X33" s="3">
         <v>111100</v>
       </c>
       <c r="Y33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>269300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>108000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>207800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>215400</v>
+        <v>202100</v>
       </c>
       <c r="E35" s="3">
-        <v>189900</v>
+        <v>223200</v>
       </c>
       <c r="F35" s="3">
-        <v>181700</v>
+        <v>196800</v>
       </c>
       <c r="G35" s="3">
-        <v>160300</v>
+        <v>188300</v>
       </c>
       <c r="H35" s="3">
-        <v>188800</v>
+        <v>166100</v>
       </c>
       <c r="I35" s="3">
-        <v>816600</v>
+        <v>195700</v>
       </c>
       <c r="J35" s="3">
+        <v>846400</v>
+      </c>
+      <c r="K35" s="3">
         <v>143900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>174500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>137000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>148400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>98100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>384600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>270600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>106500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>104100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>249200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>107600</v>
-      </c>
-      <c r="W35" s="3">
-        <v>111100</v>
       </c>
       <c r="X35" s="3">
         <v>111100</v>
       </c>
       <c r="Y35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>269300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>108000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>207800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,376 +3093,389 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>435900</v>
+        <v>422100</v>
       </c>
       <c r="E41" s="3">
-        <v>447100</v>
+        <v>451800</v>
       </c>
       <c r="F41" s="3">
-        <v>688000</v>
+        <v>463400</v>
       </c>
       <c r="G41" s="3">
-        <v>809500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>557400</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+        <v>713100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>839000</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
+        <v>577700</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>595400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>989500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>894200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>448200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>702600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>1127600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>960400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1027700</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1383900</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>235800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>320500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>260300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>244400</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>332200</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>269300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>321000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>2400</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>590300</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>1143000</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>1570800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>268200</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>164300</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>810500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>739100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>758500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>837900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>840100</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>766000</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>786100</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>684200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>878200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>925800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>997600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>1048000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>1022200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>1148900</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>877400</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>899100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>54100</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>37800</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>41900</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>56100</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>39100</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>46900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>53500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>63000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>72900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>68600</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>63700</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>60600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>66200</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>55200</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>110200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>20400</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>114300</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24500</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3390,346 +3488,361 @@
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X45" s="3">
         <v>1200500</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1657800</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1906900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1638400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>1472700</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1718200</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1976300</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1698100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>1606800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>1925500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>2228600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>1522300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>2408400</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>3356600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>3739600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>2239500</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>2502600</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>882000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>895200</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>695200</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>936300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>914100</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>927900</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>720500</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>194500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>184400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>207800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>301200</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>322900</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>243800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>262500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1475400</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>2340600</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6393300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6397400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6392200</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>6788100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6626300</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6630500</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6625200</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6262700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>6868400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>7330200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>6439600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>7700700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>6250900</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>6519900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>6592800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>7006500</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2975600</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3068500</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3150200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>3051300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3084100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3180300</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3265000</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3229600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3177800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3496400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>4511500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>4657100</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>3514700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>3748600</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>3605000</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>3814900</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>479800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>734000</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>752300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>408400</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>497300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>760700</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>779700</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>755000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>981800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1100900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1278700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1246800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1330800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1208400</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1337400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1632800</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>12388400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13001900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>12628300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>12656900</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12839900</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>13475700</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13088500</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>12048600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>13137800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>14363800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>14053300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>15383600</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>14696700</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>15456500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>15250100</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>17297300</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1168800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200500</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1182100</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1206100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1211400</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1244200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1225200</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1125100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1245800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1466300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>1384600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>1605200</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>1686500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>1702100</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1883800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2158600</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>954400</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>830900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1235200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>369200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>989200</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>861200</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1280200</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>826800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>1153100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>1263100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>143500</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>862300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>643400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>20200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>19100</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>862800</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>199100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>235800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>264400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>204200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>206300</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>244400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>274000</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>251300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>245500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>345600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>383500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>411600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>88900</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>396100</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>66200</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>63400</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2322300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2267200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2681600</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>1779600</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2407000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2349800</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2779400</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>2203300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2644400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>3075000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>1911700</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>2879200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>2418900</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>2118300</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1969100</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>3084800</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6117700</v>
+        <v>6285600</v>
       </c>
       <c r="E61" s="3">
-        <v>6216700</v>
+        <v>6340600</v>
       </c>
       <c r="F61" s="3">
-        <v>5939000</v>
+        <v>6443200</v>
       </c>
       <c r="G61" s="3">
-        <v>6944500</v>
+        <v>6155400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>7197600</v>
       </c>
       <c r="I61" s="3">
-        <v>6131900</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>6355400</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>6590800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>7029800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7596300</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>9050000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9186400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>7731000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>8503600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>8634800</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>9269600</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>603300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>493000</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>519600</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>727900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>625300</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>511000</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>538500</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>639300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>758200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>765800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>1122300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1096500</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>1021100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>926800</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>700100</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>716000</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>9144300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9706800</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>9334200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>8795200</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9477600</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>10060500</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9674400</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>9434400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>10433500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>11438300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>12085200</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>13162100</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>11171100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>11549800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>11304000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>13070400</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-5851200</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6003300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6004300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-5778800</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-6064500</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-6222100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6223200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6471100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3479900</v>
+        <v>3861700</v>
       </c>
       <c r="E76" s="3">
-        <v>3244100</v>
+        <v>3606700</v>
       </c>
       <c r="F76" s="3">
-        <v>3448300</v>
+        <v>3362300</v>
       </c>
       <c r="G76" s="3">
-        <v>3295100</v>
+        <v>3573900</v>
       </c>
       <c r="H76" s="3">
-        <v>3195100</v>
+        <v>3415200</v>
       </c>
       <c r="I76" s="3">
-        <v>3294100</v>
+        <v>3311500</v>
       </c>
       <c r="J76" s="3">
+        <v>3414200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2787800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2614200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2509600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2704400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3071200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2925500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2255200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1968100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2312300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2221500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2241800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3525700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3799100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3906800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>3946000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>4226900</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>215400</v>
+        <v>202100</v>
       </c>
       <c r="E81" s="3">
-        <v>189900</v>
+        <v>223200</v>
       </c>
       <c r="F81" s="3">
-        <v>181700</v>
+        <v>196800</v>
       </c>
       <c r="G81" s="3">
-        <v>160300</v>
+        <v>188300</v>
       </c>
       <c r="H81" s="3">
-        <v>188800</v>
+        <v>166100</v>
       </c>
       <c r="I81" s="3">
-        <v>816600</v>
+        <v>195700</v>
       </c>
       <c r="J81" s="3">
+        <v>846400</v>
+      </c>
+      <c r="K81" s="3">
         <v>143900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>174500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>137000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>148400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>98100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>384600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>270600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>106500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>104100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>249200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>107600</v>
-      </c>
-      <c r="W81" s="3">
-        <v>111100</v>
       </c>
       <c r="X81" s="3">
         <v>111100</v>
       </c>
       <c r="Y81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>269300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>108000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>207800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6054,47 +6252,50 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>896400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>913200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>835600</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>801100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>796600</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>883900</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6534,47 +6750,50 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>1014100</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1348500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1062900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1249900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>938000</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>1263000</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-826800</v>
+        <v>-154500</v>
       </c>
       <c r="E91" s="3">
-        <v>257200</v>
+        <v>-857000</v>
       </c>
       <c r="F91" s="3">
-        <v>-262300</v>
+        <v>266600</v>
       </c>
       <c r="G91" s="3">
-        <v>-107200</v>
+        <v>-271900</v>
       </c>
       <c r="H91" s="3">
-        <v>-374600</v>
+        <v>-111100</v>
       </c>
       <c r="I91" s="3">
-        <v>-200100</v>
+        <v>-388300</v>
       </c>
       <c r="J91" s="3">
+        <v>-207400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-327700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-418300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-194200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-313900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-466700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-484700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-514600</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-419400</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-482500</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-442100</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>111500</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6884,47 +7113,50 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-123500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-89900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-340400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-812300</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>127900</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-699600</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6998,43 +7231,46 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-395300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-198700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-396400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-173900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-401700</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-165500</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7314,47 +7559,50 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-411800</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-507100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-363900</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7418,23 +7666,26 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7474,43 +7725,46 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-271700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-516900</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>216300</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-69600</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-296200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>261800</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1457900</v>
+        <v>1446300</v>
       </c>
       <c r="E8" s="3">
-        <v>1422000</v>
+        <v>1484000</v>
       </c>
       <c r="F8" s="3">
-        <v>1389200</v>
+        <v>1447400</v>
       </c>
       <c r="G8" s="3">
-        <v>1387000</v>
+        <v>1414000</v>
       </c>
       <c r="H8" s="3">
-        <v>1450500</v>
+        <v>1411800</v>
       </c>
       <c r="I8" s="3">
-        <v>1401900</v>
+        <v>1476400</v>
       </c>
       <c r="J8" s="3">
+        <v>1426900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1363800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1325000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1367400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1348200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1410500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1656600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1914700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3201000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1629200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3353500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1548400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3078800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1539400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3213400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1584200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3229100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1934400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4039100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>384100</v>
+        <v>370500</v>
       </c>
       <c r="E9" s="3">
-        <v>374500</v>
+        <v>390900</v>
       </c>
       <c r="F9" s="3">
-        <v>356500</v>
+        <v>381200</v>
       </c>
       <c r="G9" s="3">
-        <v>343900</v>
+        <v>362900</v>
       </c>
       <c r="H9" s="3">
-        <v>378800</v>
+        <v>350000</v>
       </c>
       <c r="I9" s="3">
-        <v>338600</v>
+        <v>385500</v>
       </c>
       <c r="J9" s="3">
+        <v>344600</v>
+      </c>
+      <c r="K9" s="3">
         <v>323700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>320500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>354100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>329000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>324000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>355700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>422600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>401800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>718800</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3">
         <v>809100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>365500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>711500</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3">
         <v>766300</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>765200</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>1247800</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1073900</v>
+        <v>1075800</v>
       </c>
       <c r="E10" s="3">
-        <v>1047400</v>
+        <v>1093100</v>
       </c>
       <c r="F10" s="3">
-        <v>1032600</v>
+        <v>1066100</v>
       </c>
       <c r="G10" s="3">
-        <v>1043200</v>
+        <v>1051100</v>
       </c>
       <c r="H10" s="3">
-        <v>1071800</v>
+        <v>1061800</v>
       </c>
       <c r="I10" s="3">
-        <v>1063300</v>
+        <v>1090900</v>
       </c>
       <c r="J10" s="3">
+        <v>1082300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1040000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1004500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1013400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1019200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1086500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1144900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1512900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2482200</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3">
         <v>2544400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1182900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2367300</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2447100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2463900</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2791300</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,174 +1242,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-44400</v>
+        <v>5400</v>
       </c>
       <c r="E14" s="3">
-        <v>8500</v>
+        <v>-8600</v>
       </c>
       <c r="F14" s="3">
-        <v>13800</v>
+        <v>1100</v>
       </c>
       <c r="G14" s="3">
-        <v>7400</v>
+        <v>-3200</v>
       </c>
       <c r="H14" s="3">
-        <v>-6300</v>
+        <v>-4300</v>
       </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>-6500</v>
       </c>
       <c r="J14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-896100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>-232700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>92900</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3">
         <v>15400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>45000</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>10100</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>35500</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>341700</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>361800</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+        <v>347800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>368300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>386200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>371600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>429800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>438100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>39700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>885800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>897800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>829000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
         <v>795500</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
         <v>779800</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3">
         <v>883900</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1445,9 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1430,80 +1457,83 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3">
-        <v>1064300</v>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G17" s="3">
-        <v>1079200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
+        <v>1083400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1098400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>207400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1085100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>1156400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1256700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>2718700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2895700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>2603400</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2787000</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>2808300</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>3407600</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,80 +1543,83 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
-        <v>324800</v>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G18" s="3">
-        <v>307900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
+        <v>330600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>313400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>1156400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>239900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>254200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>243900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>482300</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>457800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>475400</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>426400</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>420700</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>631500</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,80 +1661,83 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3">
-        <v>-62400</v>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G20" s="3">
-        <v>-58200</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
+        <v>-63500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-59200</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-50000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-62200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67700</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-137600</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-198700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-114200</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-190700</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-85300</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-405000</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1710,145 +1747,148 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>614700</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3">
-        <v>611500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+        <v>625700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>622400</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>1487500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>561400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>621800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>614200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>1241100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1172300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1196800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1032200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1125400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>1110400</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G22" s="3">
-        <v>4200</v>
+        <v>5400</v>
       </c>
       <c r="H22" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="I22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K22" s="3">
         <v>6300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>8600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
         <v>18900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>18700</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1865,8 +1905,11 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1876,80 +1919,83 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="3">
-        <v>257100</v>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>245500</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
+        <v>261700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>249800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>1095000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>184800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>186500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>169400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>327000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>240100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>342600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>235600</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>335500</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>226500</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,80 +2005,83 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
-        <v>60300</v>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
-        <v>56100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+        <v>61400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>57100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>248600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40800</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>39300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33900</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>71800</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>184500</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>74700</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>61700</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>71800</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>38700</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>202100</v>
+        <v>211100</v>
       </c>
       <c r="E26" s="3">
-        <v>223200</v>
+        <v>205700</v>
       </c>
       <c r="F26" s="3">
-        <v>196800</v>
+        <v>227200</v>
       </c>
       <c r="G26" s="3">
-        <v>189400</v>
+        <v>200300</v>
       </c>
       <c r="H26" s="3">
-        <v>166100</v>
+        <v>192800</v>
       </c>
       <c r="I26" s="3">
-        <v>195700</v>
+        <v>169100</v>
       </c>
       <c r="J26" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K26" s="3">
         <v>846400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>143900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>174500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>137000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>147300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>135500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>98100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>384600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>255300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>106500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>55600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>104100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>267900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>107600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>173900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>111100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>263700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>108000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>187800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>202100</v>
+        <v>211100</v>
       </c>
       <c r="E27" s="3">
-        <v>223200</v>
+        <v>205700</v>
       </c>
       <c r="F27" s="3">
-        <v>196800</v>
+        <v>227200</v>
       </c>
       <c r="G27" s="3">
-        <v>189400</v>
+        <v>200300</v>
       </c>
       <c r="H27" s="3">
-        <v>166100</v>
+        <v>192800</v>
       </c>
       <c r="I27" s="3">
-        <v>195700</v>
+        <v>169100</v>
       </c>
       <c r="J27" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K27" s="3">
         <v>846400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>174500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>137000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>147300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>135500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>384600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>255300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>106500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>104100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>267900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>107600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>116700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>111100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>263700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>108000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>127900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2374,23 +2435,23 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2398,56 +2459,59 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>1100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>15300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>8300</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-18700</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>5600</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3">
         <v>79800</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2623,163 +2693,169 @@
       <c r="E32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="3">
-        <v>62400</v>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G32" s="3">
-        <v>58200</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
+        <v>63500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>59200</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>50000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>62200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67700</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>137600</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>198700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>114200</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>190700</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>85300</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>405000</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>202100</v>
+        <v>211100</v>
       </c>
       <c r="E33" s="3">
-        <v>223200</v>
+        <v>205700</v>
       </c>
       <c r="F33" s="3">
-        <v>196800</v>
+        <v>227200</v>
       </c>
       <c r="G33" s="3">
-        <v>188300</v>
+        <v>200300</v>
       </c>
       <c r="H33" s="3">
-        <v>166100</v>
+        <v>191700</v>
       </c>
       <c r="I33" s="3">
-        <v>195700</v>
+        <v>169100</v>
       </c>
       <c r="J33" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K33" s="3">
         <v>846400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>143900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>174500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>137000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>148400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>135500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>98100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>384600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>270600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>106500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>104100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>249200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>107600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>111100</v>
       </c>
       <c r="Y33" s="3">
         <v>111100</v>
       </c>
       <c r="Z33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>269300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>108000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>207800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>202100</v>
+        <v>211100</v>
       </c>
       <c r="E35" s="3">
-        <v>223200</v>
+        <v>205700</v>
       </c>
       <c r="F35" s="3">
-        <v>196800</v>
+        <v>227200</v>
       </c>
       <c r="G35" s="3">
-        <v>188300</v>
+        <v>200300</v>
       </c>
       <c r="H35" s="3">
-        <v>166100</v>
+        <v>191700</v>
       </c>
       <c r="I35" s="3">
-        <v>195700</v>
+        <v>169100</v>
       </c>
       <c r="J35" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K35" s="3">
         <v>846400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>143900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>174500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>137000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>148400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>135500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>98100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>384600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>270600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>106500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>104100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>249200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>107600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>111100</v>
       </c>
       <c r="Y35" s="3">
         <v>111100</v>
       </c>
       <c r="Z35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>269300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>108000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>207800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,391 +3180,404 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>422100</v>
+        <v>581500</v>
       </c>
       <c r="E41" s="3">
-        <v>451800</v>
+        <v>429700</v>
       </c>
       <c r="F41" s="3">
-        <v>463400</v>
+        <v>459800</v>
       </c>
       <c r="G41" s="3">
-        <v>713100</v>
+        <v>471700</v>
       </c>
       <c r="H41" s="3">
-        <v>839000</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+        <v>725800</v>
+      </c>
+      <c r="I41" s="3">
+        <v>854000</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>577700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>595400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>989500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>894200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>448200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>702600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>1127600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>960400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1027700</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>1383900</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>135400</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>244400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>332200</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>137800</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>248800</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>338100</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>269800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>269300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>321000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>2400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>590300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>1143000</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1570800</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>268200</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>164300</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>837900</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>840100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>766000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>852900</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>855100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>779700</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>786100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>684200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>878200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>925800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>997600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>1048000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>1022200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1148900</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>877400</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>899100</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>51800</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>56100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
-        <v>39100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>52800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>57100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>43400</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>46900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>53500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>63000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>72900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>68600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>63700</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>60600</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>66200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>55200</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>25400</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>114300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>116300</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
         <v>21200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24500</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3491,358 +3590,373 @@
       <c r="W45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1200500</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1472700</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1718200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1976300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1748900</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2011600</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>1698100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1606800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>1925500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2228600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>1522300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>2408400</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>3356600</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>3739600</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>2239500</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>2502600</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>936300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>914100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>927900</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>953100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>930400</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>944400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>720500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>194500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>184400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>207800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>301200</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>322900</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>243800</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>262500</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>1475400</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>2340600</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>6788100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6626300</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6630500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6909400</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6744600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6748900</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6625200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6262700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6868400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>7330200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6439600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>7700700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>6250900</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>6519900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>6592800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>7006500</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3051300</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3084100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3180300</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3105800</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3139200</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3237200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3265000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3229600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3177800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3496400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>4511500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>4657100</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>3514700</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3748600</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>3605000</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>3814900</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>408400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>497300</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>760700</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>415700</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>506100</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>774300</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>779700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>755000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>981800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1100900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1278700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1246800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1330800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1208400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1337400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1632800</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>12656900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>12839900</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>13475700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12883000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>13069300</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>13716500</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>13088500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>12048600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>13137800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>14363800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>14053300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>15383600</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>14696700</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>15456500</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>15250100</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>17297300</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1206100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1211400</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1244200</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1227700</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1233100</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1266400</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1225200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1125100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1245800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1466300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>1384600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>1605200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>1686500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1702100</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1883800</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>2158600</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>369200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>989200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>861200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>375800</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1006900</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>876600</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1280200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>826800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>1153100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1263100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>143500</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>862300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>643400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>20200</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>19100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>862800</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>204200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>206300</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>244400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>207800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>210000</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>248800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>274000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>251300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>245500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>345600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>383500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>411600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>88900</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>396100</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>66200</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>63400</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1779600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2407000</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2349800</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1811300</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2449900</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2391800</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2779400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2203300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2644400</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>3075000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>1911700</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>2879200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>2418900</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2118300</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1969100</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>3084800</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6285600</v>
+        <v>6262200</v>
       </c>
       <c r="E61" s="3">
-        <v>6340600</v>
+        <v>6397900</v>
       </c>
       <c r="F61" s="3">
-        <v>6443200</v>
+        <v>6453900</v>
       </c>
       <c r="G61" s="3">
-        <v>6155400</v>
+        <v>6558300</v>
       </c>
       <c r="H61" s="3">
-        <v>7197600</v>
+        <v>6265400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>7326200</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>6355400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>6590800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>7029800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7596300</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>9050000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9186400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>7731000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>8503600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>8634800</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>9269600</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>727900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>625300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>511000</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>740900</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>636400</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>520100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>538500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>639300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>758200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>765800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>1122300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1096500</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>1021100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>926800</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>700100</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>716000</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>8795200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9477600</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>10060500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8952300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9646900</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>10240200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>9674400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>9434400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>10433500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>11438300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>12085200</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>13162100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>11171100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>11549800</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>11304000</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>13070400</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-5778800</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6064500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6222100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5882000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6172800</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6333200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6223200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6471100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3861700</v>
+        <v>4085800</v>
       </c>
       <c r="E76" s="3">
-        <v>3606700</v>
+        <v>3930700</v>
       </c>
       <c r="F76" s="3">
-        <v>3362300</v>
+        <v>3671200</v>
       </c>
       <c r="G76" s="3">
-        <v>3573900</v>
+        <v>3422400</v>
       </c>
       <c r="H76" s="3">
-        <v>3415200</v>
+        <v>3637800</v>
       </c>
       <c r="I76" s="3">
-        <v>3311500</v>
+        <v>3476200</v>
       </c>
       <c r="J76" s="3">
+        <v>3370700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3414200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2787800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2614200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2509600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2704400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3071200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2925500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2255200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1968100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2312300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2221500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2241800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3525700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3799100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3906800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3">
         <v>3946000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>4226900</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>202100</v>
+        <v>211100</v>
       </c>
       <c r="E81" s="3">
-        <v>223200</v>
+        <v>205700</v>
       </c>
       <c r="F81" s="3">
-        <v>196800</v>
+        <v>227200</v>
       </c>
       <c r="G81" s="3">
-        <v>188300</v>
+        <v>200300</v>
       </c>
       <c r="H81" s="3">
-        <v>166100</v>
+        <v>191700</v>
       </c>
       <c r="I81" s="3">
-        <v>195700</v>
+        <v>169100</v>
       </c>
       <c r="J81" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K81" s="3">
         <v>846400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>143900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>174500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>137000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>148400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>135500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>98100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>384600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>270600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>106500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>104100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>249200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>107600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>111100</v>
       </c>
       <c r="Y81" s="3">
         <v>111100</v>
       </c>
       <c r="Z81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>269300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>108000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>207800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6255,47 +6454,50 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>896400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>913200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>835600</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>801100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>796600</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>883900</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6753,47 +6970,50 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>1014100</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1348500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1062900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1249900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>938000</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>1263000</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-154500</v>
+        <v>-298000</v>
       </c>
       <c r="E91" s="3">
-        <v>-857000</v>
+        <v>-391000</v>
       </c>
       <c r="F91" s="3">
-        <v>266600</v>
+        <v>-257000</v>
       </c>
       <c r="G91" s="3">
-        <v>-271900</v>
+        <v>-301000</v>
       </c>
       <c r="H91" s="3">
-        <v>-111100</v>
+        <v>-257000</v>
       </c>
       <c r="I91" s="3">
-        <v>-388300</v>
+        <v>-336000</v>
       </c>
       <c r="J91" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-207400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-327700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-418300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-194200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-313900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-466700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-484700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-514600</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-419400</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-482500</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-442100</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>111500</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7116,47 +7346,50 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-123500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-89900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-340400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-812300</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>127900</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-699600</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7234,43 +7468,46 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-395300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-198700</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-396400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-173900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-401700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-165500</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7562,47 +7808,50 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-411800</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-507100</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-363900</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7669,23 +7918,26 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7728,43 +7980,46 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-271700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-516900</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>216300</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-69600</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-296200</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>261800</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AD102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1446300</v>
+        <v>1439700</v>
       </c>
       <c r="E8" s="3">
-        <v>1484000</v>
+        <v>1445100</v>
       </c>
       <c r="F8" s="3">
-        <v>1447400</v>
+        <v>1493900</v>
       </c>
       <c r="G8" s="3">
-        <v>1414000</v>
+        <v>1457000</v>
       </c>
       <c r="H8" s="3">
-        <v>1411800</v>
+        <v>1423400</v>
       </c>
       <c r="I8" s="3">
-        <v>1476400</v>
+        <v>1421300</v>
       </c>
       <c r="J8" s="3">
+        <v>1486300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1426900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1363800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1325000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1367400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1348200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1410500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1656600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1914700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3201000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1629200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3353500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1548400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3078800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1539400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3213400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1584200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3229100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1934400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>4039100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>370500</v>
+        <v>351200</v>
       </c>
       <c r="E9" s="3">
-        <v>390900</v>
+        <v>372900</v>
       </c>
       <c r="F9" s="3">
-        <v>381200</v>
+        <v>393500</v>
       </c>
       <c r="G9" s="3">
-        <v>362900</v>
+        <v>383800</v>
       </c>
       <c r="H9" s="3">
-        <v>350000</v>
+        <v>365300</v>
       </c>
       <c r="I9" s="3">
-        <v>385500</v>
+        <v>352300</v>
       </c>
       <c r="J9" s="3">
+        <v>388100</v>
+      </c>
+      <c r="K9" s="3">
         <v>344600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>323700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>320500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>354100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>329000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>324000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>355700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>422600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>401800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>718800</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
         <v>809100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>365500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>711500</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3">
         <v>766300</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3">
         <v>765200</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3">
         <v>1247800</v>
       </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1075800</v>
+        <v>1088400</v>
       </c>
       <c r="E10" s="3">
-        <v>1093100</v>
+        <v>1072200</v>
       </c>
       <c r="F10" s="3">
-        <v>1066100</v>
+        <v>1100400</v>
       </c>
       <c r="G10" s="3">
-        <v>1051100</v>
+        <v>1073300</v>
       </c>
       <c r="H10" s="3">
-        <v>1061800</v>
+        <v>1058100</v>
       </c>
       <c r="I10" s="3">
-        <v>1090900</v>
+        <v>1068900</v>
       </c>
       <c r="J10" s="3">
+        <v>1098200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1082300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1040000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1004500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1013400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1019200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1086500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1144900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1234000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1512900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2482200</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3">
         <v>2544400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1182900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2367300</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2447100</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2463900</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3">
         <v>2791300</v>
       </c>
-      <c r="AD10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,180 +1262,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5400</v>
+        <v>11900</v>
       </c>
       <c r="E14" s="3">
-        <v>-8600</v>
+        <v>-5400</v>
       </c>
       <c r="F14" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H14" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="I14" s="3">
         <v>-4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-896100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-8000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>-232700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>92900</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3">
         <v>15400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
         <v>45000</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
         <v>10100</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35500</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
+        <v>311100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>336100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>347800</v>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>368300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+        <v>350200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>370800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>386200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>371600</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>429800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>438100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>885800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>897800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>829000</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="3">
         <v>795500</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
         <v>779800</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="3">
         <v>883900</v>
       </c>
-      <c r="AD15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>1074300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1102500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="3">
-        <v>1083400</v>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="3">
-        <v>1098400</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
+        <v>1090600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1105800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>207400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1085100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>1156400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1256700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>2718700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V17" s="3">
         <v>2895700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X17" s="3">
         <v>2603400</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="3">
         <v>2787000</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="3">
         <v>2808300</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="3">
         <v>3407600</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>365300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>342600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="3">
-        <v>330600</v>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="3">
-        <v>313400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
+        <v>332800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>315500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>1156400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>239900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>254200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>243900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>482300</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="3">
         <v>457800</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="3">
         <v>475400</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="3">
         <v>426400</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="3">
         <v>420700</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD18" s="3">
         <v>631500</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-62900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="3">
-        <v>-63500</v>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="3">
-        <v>-59200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
+        <v>-64000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-59600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>-55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-50000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-62200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>-137600</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="3">
         <v>-198700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
         <v>-114200</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-190700</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-85300</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-405000</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>629900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>615800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>625700</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="3">
-        <v>622400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
+        <v>629900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>626600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1487500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>561400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>621800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>614200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>1241100</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>1172300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>1196800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1032200</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1125400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" s="3">
         <v>1110400</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1840,58 +1880,58 @@
         <v>5400</v>
       </c>
       <c r="H22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I22" s="3">
         <v>4300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5400</v>
       </c>
       <c r="J22" s="3">
         <v>5400</v>
       </c>
       <c r="K22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L22" s="3">
         <v>6300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6800</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>8600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3">
         <v>18900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>18700</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
+      <c r="D23" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>274300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="3">
-        <v>261700</v>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="3">
-        <v>249800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
+        <v>263400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>251500</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>1095000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>184800</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>186500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>169400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>327000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V23" s="3">
         <v>240100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="3">
         <v>342600</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="3">
         <v>235600</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="3">
         <v>335500</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="3">
         <v>226500</v>
       </c>
-      <c r="AD23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>61800</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="3">
-        <v>61400</v>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
-        <v>57100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
+        <v>61800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>57500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>248600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40800</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>39300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33900</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>71800</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3">
         <v>184500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X24" s="3">
         <v>74700</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="3">
         <v>61700</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="3">
         <v>71800</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="3">
         <v>38700</v>
       </c>
-      <c r="AD24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>211100</v>
+        <v>234200</v>
       </c>
       <c r="E26" s="3">
-        <v>205700</v>
+        <v>212500</v>
       </c>
       <c r="F26" s="3">
-        <v>227200</v>
+        <v>207100</v>
       </c>
       <c r="G26" s="3">
-        <v>200300</v>
+        <v>228700</v>
       </c>
       <c r="H26" s="3">
-        <v>192800</v>
+        <v>201600</v>
       </c>
       <c r="I26" s="3">
-        <v>169100</v>
+        <v>194100</v>
       </c>
       <c r="J26" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K26" s="3">
         <v>199200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>846400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>143900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>174500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>137000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>147300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>135500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>98100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>384600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>255300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>106500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>55600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>104100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>267900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>107600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>173900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>111100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>263700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>108000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>187800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211100</v>
+        <v>234200</v>
       </c>
       <c r="E27" s="3">
-        <v>205700</v>
+        <v>211400</v>
       </c>
       <c r="F27" s="3">
-        <v>227200</v>
+        <v>207100</v>
       </c>
       <c r="G27" s="3">
-        <v>200300</v>
+        <v>228700</v>
       </c>
       <c r="H27" s="3">
-        <v>192800</v>
+        <v>201600</v>
       </c>
       <c r="I27" s="3">
-        <v>169100</v>
+        <v>194100</v>
       </c>
       <c r="J27" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K27" s="3">
         <v>199200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>846400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>143900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>174500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>137000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>147300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>135500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>98100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>384600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>255300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>106500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>104100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>267900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>107600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>116700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>111100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>263700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>108000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>127900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,37 +2482,40 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2462,56 +2523,59 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>1100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>15300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>8300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-18700</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3">
         <v>5600</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="3">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3">
         <v>79800</v>
       </c>
-      <c r="AD29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>62900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3">
-        <v>63500</v>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="3">
-        <v>59200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
+        <v>64000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>59600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>50000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>62200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>67700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>137600</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V32" s="3">
         <v>198700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
         <v>114200</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="3">
         <v>190700</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="3">
         <v>85300</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD32" s="3">
         <v>405000</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211100</v>
+        <v>234200</v>
       </c>
       <c r="E33" s="3">
-        <v>205700</v>
+        <v>211400</v>
       </c>
       <c r="F33" s="3">
-        <v>227200</v>
+        <v>207100</v>
       </c>
       <c r="G33" s="3">
-        <v>200300</v>
+        <v>228700</v>
       </c>
       <c r="H33" s="3">
-        <v>191700</v>
+        <v>201600</v>
       </c>
       <c r="I33" s="3">
-        <v>169100</v>
+        <v>193000</v>
       </c>
       <c r="J33" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K33" s="3">
         <v>199200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>846400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>143900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>174500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>137000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>148400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>135500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>98100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>384600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>270600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>106500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>104100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>249200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>107600</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>111100</v>
       </c>
       <c r="Z33" s="3">
         <v>111100</v>
       </c>
       <c r="AA33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AB33" s="3">
         <v>269300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>108000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>207800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211100</v>
+        <v>234200</v>
       </c>
       <c r="E35" s="3">
-        <v>205700</v>
+        <v>211400</v>
       </c>
       <c r="F35" s="3">
-        <v>227200</v>
+        <v>207100</v>
       </c>
       <c r="G35" s="3">
-        <v>200300</v>
+        <v>228700</v>
       </c>
       <c r="H35" s="3">
-        <v>191700</v>
+        <v>201600</v>
       </c>
       <c r="I35" s="3">
-        <v>169100</v>
+        <v>193000</v>
       </c>
       <c r="J35" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K35" s="3">
         <v>199200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>846400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>143900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>174500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>137000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>148400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>135500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>98100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>384600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>270600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>106500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>104100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>249200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>107600</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>111100</v>
       </c>
       <c r="Z35" s="3">
         <v>111100</v>
       </c>
       <c r="AA35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AB35" s="3">
         <v>269300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>108000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>207800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,406 +3267,419 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>581500</v>
+        <v>256900</v>
       </c>
       <c r="E41" s="3">
-        <v>429700</v>
+        <v>585400</v>
       </c>
       <c r="F41" s="3">
-        <v>459800</v>
+        <v>432600</v>
       </c>
       <c r="G41" s="3">
-        <v>471700</v>
+        <v>462900</v>
       </c>
       <c r="H41" s="3">
-        <v>725800</v>
+        <v>474800</v>
       </c>
       <c r="I41" s="3">
-        <v>854000</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+        <v>730700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>859700</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>577700</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>595400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>989500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>894200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>448200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>702600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>1127600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>960400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>1027700</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>1383900</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
-        <v>137800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>248800</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>338100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
+        <v>138800</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>250400</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>340400</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>269800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>269300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>321000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>2400</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>590300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>1143000</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>1570800</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>268200</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>164300</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>852900</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>855100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>779700</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="D43" s="3">
+        <v>768600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>858600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>860800</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
+        <v>784900</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>786100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>684200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>878200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>925800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>997600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>1048000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>1022200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>1148900</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>877400</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>899100</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <v>52800</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
-        <v>57100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="D44" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
+        <v>53100</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>57500</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>43400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>46900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>53500</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>63000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>72900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="U44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V44" s="3">
         <v>68600</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W44" s="3">
+      <c r="W44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
         <v>63700</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y44" s="3">
+      <c r="Y44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="3">
         <v>60600</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA44" s="3">
+      <c r="AA44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB44" s="3">
         <v>66200</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC44" s="3">
+      <c r="AC44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD44" s="3">
         <v>55200</v>
       </c>
-      <c r="AD44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
-        <v>25800</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>116300</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>117100</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
         <v>21200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24500</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3593,370 +3692,385 @@
       <c r="X45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Y45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1200500</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1499000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1748900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2011600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="D46" s="3">
+        <v>1266200</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1509100</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1760600</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2025100</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>1698100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>1606800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>1925500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>2228600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>1522300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V46" s="3">
         <v>2408400</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="3">
         <v>3356600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z46" s="3">
         <v>3739600</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="3">
         <v>2239500</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="3">
         <v>2502600</v>
       </c>
-      <c r="AD46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
-        <v>953100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
-        <v>930400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
-        <v>944400</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>964800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>959400</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>936700</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
+        <v>950800</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>720500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>194500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>184400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>207800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>301200</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V47" s="3">
         <v>322900</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
         <v>243800</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z47" s="3">
         <v>262500</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
         <v>1475400</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD47" s="3">
         <v>2340600</v>
       </c>
-      <c r="AD47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6909400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6744600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6748900</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>7043400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6955600</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6789700</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6794100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6625200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>6262700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6868400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>7330200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>6439600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>7700700</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>6250900</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>6519900</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>6592800</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>7006500</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3105800</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3139200</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3237200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="D49" s="3">
+        <v>3087500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3126500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3160200</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3258800</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>3265000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>3229600</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>3177800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>3496400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>4511500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>4657100</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>3514700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>3748600</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>3605000</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>3814900</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
-        <v>415700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>506100</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>774300</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
+        <v>418500</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
+        <v>509500</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
+        <v>779500</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>779700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>755000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>981800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1100900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1278700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1246800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1330800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1208400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1337400</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1632800</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
-        <v>12883000</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
-        <v>13069300</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>13716500</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="D54" s="3">
+        <v>12736000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12969100</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>13156600</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13808200</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>13088500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>12048600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>13137800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>14363800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>14053300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>15383600</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>14696700</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>15456500</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>15250100</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>17297300</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1227700</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1233100</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1266400</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>1213100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1235900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1241300</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1274900</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>1225200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1125100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>1245800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>1466300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>1384600</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>1605200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>1686500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1702100</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB57" s="3">
         <v>1883800</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD57" s="3">
         <v>2158600</v>
       </c>
-      <c r="AD57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
-        <v>375800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1006900</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>876600</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="D58" s="3">
+        <v>535500</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>378400</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1013600</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>882500</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1280200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>826800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>1153100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1263100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>143500</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>862300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>643400</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>20200</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>19100</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>862800</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
-        <v>207800</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
-        <v>210000</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
-        <v>248800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>201600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <v>209200</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
+        <v>211400</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>250400</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>274000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>251300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>245500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>345600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>383500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>411600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>88900</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>396100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>66200</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>63400</v>
       </c>
-      <c r="AD59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1811300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2449900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2391800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="D60" s="3">
+        <v>1950300</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1823500</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2466300</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2407800</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>2779400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>2203300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>2644400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>3075000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>1911700</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V60" s="3">
         <v>2879200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X60" s="3">
         <v>2418900</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2118300</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1969100</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="3">
         <v>3084800</v>
       </c>
-      <c r="AD60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6262200</v>
+        <v>6466700</v>
       </c>
       <c r="E61" s="3">
-        <v>6397900</v>
+        <v>6304000</v>
       </c>
       <c r="F61" s="3">
-        <v>6453900</v>
+        <v>6440600</v>
       </c>
       <c r="G61" s="3">
-        <v>6558300</v>
+        <v>6497000</v>
       </c>
       <c r="H61" s="3">
-        <v>6265400</v>
+        <v>6602200</v>
       </c>
       <c r="I61" s="3">
-        <v>7326200</v>
+        <v>6307300</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>7375100</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>6355400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>6590800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>7029800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>7596300</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>9050000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>9186400</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>7731000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>8503600</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>8634800</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>9269600</v>
       </c>
-      <c r="AD61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
-        <v>740900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>636400</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>520100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>703600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>745900</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>640700</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>523600</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>538500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>639300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>758200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>765800</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>1122300</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>1096500</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
         <v>1021100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z62" s="3">
         <v>926800</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA62" s="3">
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3">
         <v>700100</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC62" s="3">
+      <c r="AC62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD62" s="3">
         <v>716000</v>
       </c>
-      <c r="AD62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
-        <v>8952300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9646900</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
-        <v>10240200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="D66" s="3">
+        <v>9122700</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9012100</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9711400</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10308700</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>9674400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>9434400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>10433500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>11438300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>12085200</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>13162100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>11171100</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>11549800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>11304000</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>13070400</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-5882000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-6172800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6333200</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="D72" s="3">
+        <v>-6266100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-5921400</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-6214100</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-6375600</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6223200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>-6471100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="AD72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4085800</v>
+        <v>3613300</v>
       </c>
       <c r="E76" s="3">
-        <v>3930700</v>
+        <v>4113100</v>
       </c>
       <c r="F76" s="3">
-        <v>3671200</v>
+        <v>3957000</v>
       </c>
       <c r="G76" s="3">
-        <v>3422400</v>
+        <v>3695700</v>
       </c>
       <c r="H76" s="3">
-        <v>3637800</v>
+        <v>3445300</v>
       </c>
       <c r="I76" s="3">
-        <v>3476200</v>
+        <v>3662100</v>
       </c>
       <c r="J76" s="3">
+        <v>3499500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3370700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3414200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2787800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2614200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2509600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2704400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3071200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2925500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2255200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1968100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2312300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2221500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2241800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3525700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3799100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3906800</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>3946000</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>4226900</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211100</v>
+        <v>234200</v>
       </c>
       <c r="E81" s="3">
-        <v>205700</v>
+        <v>211400</v>
       </c>
       <c r="F81" s="3">
-        <v>227200</v>
+        <v>207100</v>
       </c>
       <c r="G81" s="3">
-        <v>200300</v>
+        <v>228700</v>
       </c>
       <c r="H81" s="3">
-        <v>191700</v>
+        <v>201600</v>
       </c>
       <c r="I81" s="3">
-        <v>169100</v>
+        <v>193000</v>
       </c>
       <c r="J81" s="3">
+        <v>170200</v>
+      </c>
+      <c r="K81" s="3">
         <v>199200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>846400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>143900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>174500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>137000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>148400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>135500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>98100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>384600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>270600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>106500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>104100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>249200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>107600</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>111100</v>
       </c>
       <c r="Z81" s="3">
         <v>111100</v>
       </c>
       <c r="AA81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AB81" s="3">
         <v>269300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>108000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>207800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6457,47 +6656,50 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>896400</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>913200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>835600</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z83" s="3">
         <v>801100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
         <v>796600</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD83" s="3">
         <v>883900</v>
       </c>
-      <c r="AD83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6973,47 +7190,50 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>1014100</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>1348500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>1062900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>1249900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3">
         <v>938000</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="3">
         <v>1263000</v>
       </c>
-      <c r="AD89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-304000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-298000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-391000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-257000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-301000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-257000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-336000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-254000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-207400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-327700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-418300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-194200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-313900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-77000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-466700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-484700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-514600</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-419400</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-482500</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA91" s="3">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-442100</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD91" s="3">
         <v>111500</v>
       </c>
-      <c r="AD91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7349,47 +7579,50 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-123500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-89900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-340400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-812300</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA94" s="3">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3">
         <v>127900</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-699600</v>
       </c>
-      <c r="AD94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7471,43 +7705,46 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-395300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-198700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-396400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-173900</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-401700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-165500</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7811,47 +8057,50 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-411800</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-507100</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-363900</v>
       </c>
-      <c r="AD100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7921,23 +8170,26 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7983,43 +8235,46 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-271700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-516900</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>216300</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-69600</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-296200</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3">
         <v>261800</v>
       </c>
-      <c r="AD102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KKPNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="92">
   <si>
     <t>KKPNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1439700</v>
+        <v>1484300</v>
       </c>
       <c r="E8" s="3">
-        <v>1445100</v>
+        <v>1440900</v>
       </c>
       <c r="F8" s="3">
-        <v>1493900</v>
+        <v>1446300</v>
       </c>
       <c r="G8" s="3">
-        <v>1457000</v>
+        <v>1495100</v>
       </c>
       <c r="H8" s="3">
-        <v>1423400</v>
+        <v>1458200</v>
       </c>
       <c r="I8" s="3">
-        <v>1421300</v>
+        <v>1424600</v>
       </c>
       <c r="J8" s="3">
+        <v>1422400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1486300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1426900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1363800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1325000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1367400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1348200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1410500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1656600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1914700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3201000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1629200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3353500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1548400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3078800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1539400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3213400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1584200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3229100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1934400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>4039100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2016600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>351200</v>
+        <v>372200</v>
       </c>
       <c r="E9" s="3">
-        <v>372900</v>
+        <v>351500</v>
       </c>
       <c r="F9" s="3">
-        <v>393500</v>
+        <v>373200</v>
       </c>
       <c r="G9" s="3">
-        <v>383800</v>
+        <v>393900</v>
       </c>
       <c r="H9" s="3">
-        <v>365300</v>
+        <v>384100</v>
       </c>
       <c r="I9" s="3">
-        <v>352300</v>
+        <v>365600</v>
       </c>
       <c r="J9" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K9" s="3">
         <v>388100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>344600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>323700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>320500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>354100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>329000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>324000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>355700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>422600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>401800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>718800</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3">
         <v>809100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>365500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>711500</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
         <v>766300</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3">
         <v>765200</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3">
         <v>1247800</v>
       </c>
-      <c r="AE9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1088400</v>
+        <v>1112100</v>
       </c>
       <c r="E10" s="3">
-        <v>1072200</v>
+        <v>1089300</v>
       </c>
       <c r="F10" s="3">
-        <v>1100400</v>
+        <v>1073100</v>
       </c>
       <c r="G10" s="3">
-        <v>1073300</v>
+        <v>1101300</v>
       </c>
       <c r="H10" s="3">
-        <v>1058100</v>
+        <v>1074200</v>
       </c>
       <c r="I10" s="3">
-        <v>1068900</v>
+        <v>1059000</v>
       </c>
       <c r="J10" s="3">
+        <v>1069800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1098200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1082300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1040000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1004500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1013400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1019200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1086500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1144900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1234000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1512900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2482200</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3">
         <v>2544400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1182900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2367300</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2447100</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2463900</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3">
         <v>2791300</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,186 +1282,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E14" s="3">
         <v>11900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-8700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-3300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-4300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-896100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-8000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>-232700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>92900</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W14" s="3">
         <v>15400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3">
         <v>45000</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1100</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="3">
         <v>10100</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>311100</v>
+        <v>34700</v>
       </c>
       <c r="E15" s="3">
-        <v>336100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+        <v>311400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>336400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>350200</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>370800</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+        <v>350500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>371100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>386200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>371600</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>429800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>438100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>39700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>885800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>897800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>829000</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
         <v>795500</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3">
         <v>779800</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3">
         <v>883900</v>
       </c>
-      <c r="AE15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1074300</v>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>1102500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
+        <v>1075200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1103400</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
-        <v>1090600</v>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I17" s="3">
-        <v>1105800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
+        <v>1091500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1106700</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>207400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1085100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1156400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1256700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="3">
         <v>2718700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="3">
         <v>2895700</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2603400</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="3">
         <v>2787000</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="3">
         <v>2808300</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="3">
         <v>3407600</v>
       </c>
-      <c r="AE17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>365300</v>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>342600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
+        <v>365600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>342900</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>332800</v>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
-        <v>315500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
+        <v>333100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>315700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>1156400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>239900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>254200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>243900</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="3">
         <v>482300</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W18" s="3">
         <v>457800</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="3">
         <v>475400</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="3">
         <v>426400</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
         <v>420700</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="3">
         <v>631500</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-56400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-62900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
         <v>-64000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-59600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
+      <c r="J20" s="3">
+        <v>-59700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-55000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-50000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="3">
         <v>-137600</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="3">
         <v>-198700</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-114200</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-190700</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-85300</v>
       </c>
-      <c r="AC20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-405000</v>
       </c>
-      <c r="AE20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>629900</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>615800</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
+        <v>630400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>616300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>629900</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
-        <v>626600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>630400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>627100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1487500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>561400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>621800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>614200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>1241100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>1172300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1196800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1032200</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>1125400</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>1110400</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1883,58 +1923,58 @@
         <v>5400</v>
       </c>
       <c r="I22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J22" s="3">
         <v>4300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>5400</v>
       </c>
       <c r="K22" s="3">
         <v>5400</v>
       </c>
       <c r="L22" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M22" s="3">
         <v>6300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6800</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>8600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17600</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W22" s="3">
         <v>18900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>8900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>18700</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>303500</v>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>274300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
+        <v>303800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>274500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="3">
-        <v>263400</v>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>251500</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
+        <v>263700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>251700</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>1095000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>184800</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>186500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>169400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="3">
         <v>327000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="3">
         <v>240100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="3">
         <v>342600</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="3">
         <v>235600</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="3">
         <v>335500</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="3">
         <v>226500</v>
       </c>
-      <c r="AE23" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>69400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61800</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>61800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>57500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>248600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40800</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>39300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33900</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="3">
         <v>71800</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="3">
         <v>184500</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X24" s="3">
+      <c r="X24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="3">
         <v>74700</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="3">
         <v>61700</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="3">
         <v>71800</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="3">
         <v>38700</v>
       </c>
-      <c r="AE24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>234200</v>
+        <v>243000</v>
       </c>
       <c r="E26" s="3">
-        <v>212500</v>
+        <v>234400</v>
       </c>
       <c r="F26" s="3">
-        <v>207100</v>
+        <v>212700</v>
       </c>
       <c r="G26" s="3">
-        <v>228700</v>
+        <v>207200</v>
       </c>
       <c r="H26" s="3">
-        <v>201600</v>
+        <v>228900</v>
       </c>
       <c r="I26" s="3">
-        <v>194100</v>
+        <v>201800</v>
       </c>
       <c r="J26" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K26" s="3">
         <v>170200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>846400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>143900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>174500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>137000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>147300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>135500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>98100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>384600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>255300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>106500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>55600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>104100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>267900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>107600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>173900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>111100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>263700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>108000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>187800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>234200</v>
+        <v>243000</v>
       </c>
       <c r="E27" s="3">
-        <v>211400</v>
+        <v>234400</v>
       </c>
       <c r="F27" s="3">
-        <v>207100</v>
+        <v>211600</v>
       </c>
       <c r="G27" s="3">
-        <v>228700</v>
+        <v>207200</v>
       </c>
       <c r="H27" s="3">
-        <v>201600</v>
+        <v>228900</v>
       </c>
       <c r="I27" s="3">
-        <v>194100</v>
+        <v>201800</v>
       </c>
       <c r="J27" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K27" s="3">
         <v>170200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>199200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>846400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>143900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>174500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>137000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>147300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>135500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>98100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>384600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>255300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>106500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>104100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>267900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>107600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>116700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>111100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>263700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>108000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>127900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,40 +2543,43 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2526,56 +2587,59 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>15300</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>8300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-18700</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB29" s="3">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3">
         <v>5600</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD29" s="3">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3">
         <v>79800</v>
       </c>
-      <c r="AE29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>56400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>62900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
         <v>64000</v>
       </c>
-      <c r="I32" s="3">
-        <v>59600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
+      <c r="J32" s="3">
+        <v>59700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>55000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>50000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>62200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U32" s="3">
         <v>137600</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="3">
         <v>198700</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
         <v>114200</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="Z32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="3">
         <v>190700</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB32" s="3">
+      <c r="AB32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="3">
         <v>85300</v>
       </c>
-      <c r="AC32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="3">
         <v>405000</v>
       </c>
-      <c r="AE32" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>234200</v>
+        <v>243000</v>
       </c>
       <c r="E33" s="3">
-        <v>211400</v>
+        <v>234400</v>
       </c>
       <c r="F33" s="3">
-        <v>207100</v>
+        <v>211600</v>
       </c>
       <c r="G33" s="3">
-        <v>228700</v>
+        <v>207200</v>
       </c>
       <c r="H33" s="3">
-        <v>201600</v>
+        <v>228900</v>
       </c>
       <c r="I33" s="3">
-        <v>193000</v>
+        <v>201800</v>
       </c>
       <c r="J33" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K33" s="3">
         <v>170200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>846400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>143900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>174500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>137000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>148400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>135500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>98100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>384600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>270600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>106500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>104100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>249200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>107600</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>111100</v>
       </c>
       <c r="AA33" s="3">
         <v>111100</v>
       </c>
       <c r="AB33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>269300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>108000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>207800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>234200</v>
+        <v>243000</v>
       </c>
       <c r="E35" s="3">
-        <v>211400</v>
+        <v>234400</v>
       </c>
       <c r="F35" s="3">
-        <v>207100</v>
+        <v>211600</v>
       </c>
       <c r="G35" s="3">
-        <v>228700</v>
+        <v>207200</v>
       </c>
       <c r="H35" s="3">
-        <v>201600</v>
+        <v>228900</v>
       </c>
       <c r="I35" s="3">
-        <v>193000</v>
+        <v>201800</v>
       </c>
       <c r="J35" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K35" s="3">
         <v>170200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>846400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>143900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>174500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>137000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>148400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>135500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>98100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>384600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>270600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>106500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>104100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>249200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>107600</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>111100</v>
       </c>
       <c r="AA35" s="3">
         <v>111100</v>
       </c>
       <c r="AB35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>269300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>108000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>207800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,421 +3354,434 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>256900</v>
+        <v>628200</v>
       </c>
       <c r="E41" s="3">
-        <v>585400</v>
+        <v>257100</v>
       </c>
       <c r="F41" s="3">
-        <v>432600</v>
+        <v>585900</v>
       </c>
       <c r="G41" s="3">
-        <v>462900</v>
+        <v>432900</v>
       </c>
       <c r="H41" s="3">
-        <v>474800</v>
+        <v>463300</v>
       </c>
       <c r="I41" s="3">
-        <v>730700</v>
+        <v>475200</v>
       </c>
       <c r="J41" s="3">
+        <v>731300</v>
+      </c>
+      <c r="K41" s="3">
         <v>859700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>577700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>595400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>989500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>894200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>448200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3">
         <v>702600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1127600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3">
         <v>960400</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>1027700</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE41" s="3">
         <v>1383900</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>176700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
-        <v>138800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>250400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>138900</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>250600</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>340400</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>269800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>269300</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>321000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>2400</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>590300</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1143000</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>1570800</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>268200</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE42" s="3">
         <v>164300</v>
       </c>
-      <c r="AE42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>768600</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3">
-        <v>858600</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>860800</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>769300</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>859300</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>861500</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>784900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>786100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>684200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>878200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>925800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>997600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>1048000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1022200</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>1148900</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>877400</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
         <v>899100</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>61800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="3">
-        <v>53100</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
+        <v>53200</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>57500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>40100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>43400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>46900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>53500</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>63000</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="3">
         <v>72900</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V44" s="3">
+      <c r="V44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="3">
         <v>68600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X44" s="3">
+      <c r="X44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
         <v>63700</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z44" s="3">
+      <c r="Z44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA44" s="3">
         <v>60600</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB44" s="3">
+      <c r="AB44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="3">
         <v>66200</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD44" s="3">
+      <c r="AD44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE44" s="3">
         <v>55200</v>
       </c>
-      <c r="AE44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>26000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>117100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>117200</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
         <v>21200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" s="3">
         <v>11000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>24500</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>5</v>
       </c>
@@ -3695,382 +3794,397 @@
       <c r="Y45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="Z45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1200500</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1266200</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1509100</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1760600</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1267300</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1510300</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1762000</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>2025100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>1698100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>1606800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1925500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>2228600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" s="3">
         <v>1522300</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W46" s="3">
         <v>2408400</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y46" s="3">
         <v>3356600</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA46" s="3">
         <v>3739600</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC46" s="3">
         <v>2239500</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE46" s="3">
         <v>2502600</v>
       </c>
-      <c r="AE46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>964800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3">
-        <v>959400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>936700</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>965700</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>960200</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <v>937400</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>950800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>720500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>194500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>184400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>207800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
         <v>301200</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W47" s="3">
         <v>322900</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y47" s="3">
         <v>243800</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
         <v>262500</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB47" s="3">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="3">
         <v>1475400</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3">
         <v>2340600</v>
       </c>
-      <c r="AE47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>7043400</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6955600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6789700</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7049200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6961400</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6795400</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6794100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6625200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6262700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6868400</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>7330200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>6439600</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>7700700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>6250900</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>6519900</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>6592800</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <v>7006500</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>3087500</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3126500</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3160200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3090100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3129100</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3162800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>3258800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>3265000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>3229600</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3177800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>3496400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>4511500</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3">
         <v>4657100</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>3514700</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3">
         <v>3748600</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>3605000</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3">
         <v>3814900</v>
       </c>
-      <c r="AE49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>374000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3">
-        <v>418500</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>509500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>374300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3">
+        <v>418800</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>510000</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>779500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>779700</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>755000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>981800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100900</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1278700</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>1246800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1330800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1208400</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1337400</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <v>1632800</v>
       </c>
-      <c r="AE52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>12736000</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3">
-        <v>12969100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="3">
-        <v>13156600</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12746600</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
+        <v>12979900</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>13167600</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>13808200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>13088500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>12048600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>13137800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>14363800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>14053300</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3">
         <v>15383600</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>14696700</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3">
         <v>15456500</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>15250100</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE54" s="3">
         <v>17297300</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>1213100</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1235900</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1241300</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1214100</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1236900</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1242300</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1274900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1225200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1125100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1245800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>1466300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>1384600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>1605200</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1686500</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1702100</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="3">
         <v>1883800</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE57" s="3">
         <v>2158600</v>
       </c>
-      <c r="AE57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>535500</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3">
-        <v>378400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1013600</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>536000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>378700</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1014500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>882500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>1280200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>826800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1153100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>1263100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>143500</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>862300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>643400</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>20200</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>19100</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>862800</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>201600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3">
-        <v>209200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3">
-        <v>211400</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>201800</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
+        <v>209400</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>211600</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>250400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>274000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>251300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>245500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>345600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>383500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>411600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>88900</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3">
         <v>396100</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>66200</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="3">
         <v>63400</v>
       </c>
-      <c r="AE59" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1950300</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1823500</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2466300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1951900</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2468400</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>2407800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>2779400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>2203300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2644400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>3075000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" s="3">
         <v>1911700</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W60" s="3">
         <v>2879200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2418900</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2118300</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1969100</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE60" s="3">
         <v>3084800</v>
       </c>
-      <c r="AE60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6466700</v>
+        <v>6944000</v>
       </c>
       <c r="E61" s="3">
-        <v>6304000</v>
+        <v>6472000</v>
       </c>
       <c r="F61" s="3">
-        <v>6440600</v>
+        <v>6309300</v>
       </c>
       <c r="G61" s="3">
-        <v>6497000</v>
+        <v>6446000</v>
       </c>
       <c r="H61" s="3">
-        <v>6602200</v>
+        <v>6502400</v>
       </c>
       <c r="I61" s="3">
-        <v>6307300</v>
+        <v>6607700</v>
       </c>
       <c r="J61" s="3">
+        <v>6312500</v>
+      </c>
+      <c r="K61" s="3">
         <v>7375100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>6355400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>6590800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>7029800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>7596300</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>9050000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>9186400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>7731000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>8503600</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>8634800</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>9269600</v>
       </c>
-      <c r="AE61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>703600</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>745900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3">
-        <v>640700</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>704200</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
+        <v>746500</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
+        <v>641200</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>523600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>538500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>639300</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>758200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>765800</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>1122300</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>1096500</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1021100</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z62" s="3">
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA62" s="3">
         <v>926800</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB62" s="3">
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="3">
         <v>700100</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD62" s="3">
+      <c r="AD62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE62" s="3">
         <v>716000</v>
       </c>
-      <c r="AE62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>9122700</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9012100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9711400</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9130300</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9019600</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9719400</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>10308700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>9674400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>9434400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>10433500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>11438300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>12085200</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3">
         <v>13162100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>11171100</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3">
         <v>11549800</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>11304000</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE66" s="3">
         <v>13070400</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-6266100</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-5921400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6214100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6271300</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-5926300</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-6219200</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>-6375600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>-6223200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6471100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7232700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7707200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>-8165400</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
         <v>-7968000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-7127100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-6978800</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-7174000</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-7406700</v>
       </c>
-      <c r="AE72" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3613300</v>
+        <v>3693300</v>
       </c>
       <c r="E76" s="3">
-        <v>4113100</v>
+        <v>3616300</v>
       </c>
       <c r="F76" s="3">
-        <v>3957000</v>
+        <v>4116500</v>
       </c>
       <c r="G76" s="3">
-        <v>3695700</v>
+        <v>3960300</v>
       </c>
       <c r="H76" s="3">
-        <v>3445300</v>
+        <v>3698800</v>
       </c>
       <c r="I76" s="3">
-        <v>3662100</v>
+        <v>3448100</v>
       </c>
       <c r="J76" s="3">
+        <v>3665100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3499500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3370700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3414200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2787800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2614200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2509600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2704400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3071200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2925500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2255200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1968100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2312300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2221500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2241800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3525700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3799100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3906800</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>3946000</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE76" s="3">
         <v>4226900</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>234200</v>
+        <v>243000</v>
       </c>
       <c r="E81" s="3">
-        <v>211400</v>
+        <v>234400</v>
       </c>
       <c r="F81" s="3">
-        <v>207100</v>
+        <v>211600</v>
       </c>
       <c r="G81" s="3">
-        <v>228700</v>
+        <v>207200</v>
       </c>
       <c r="H81" s="3">
-        <v>201600</v>
+        <v>228900</v>
       </c>
       <c r="I81" s="3">
-        <v>193000</v>
+        <v>201800</v>
       </c>
       <c r="J81" s="3">
+        <v>193100</v>
+      </c>
+      <c r="K81" s="3">
         <v>170200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>846400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>143900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>174500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>137000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>148400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>135500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>98100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>384600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>270600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>106500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>104100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>249200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>107600</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>111100</v>
       </c>
       <c r="AA81" s="3">
         <v>111100</v>
       </c>
       <c r="AB81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>269300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>108000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>207800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>52800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6659,47 +6858,50 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>896400</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>913200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
         <v>835600</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
         <v>801100</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
         <v>796600</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3">
         <v>883900</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7193,47 +7410,50 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>1014100</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>1348500</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>1062900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA89" s="3">
         <v>1249900</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC89" s="3">
         <v>938000</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD89" s="3">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE89" s="3">
         <v>1263000</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304000</v>
+        <v>-602000</v>
       </c>
       <c r="E91" s="3">
-        <v>-298000</v>
+        <v>-391000</v>
       </c>
       <c r="F91" s="3">
-        <v>-391000</v>
+        <v>-257000</v>
       </c>
       <c r="G91" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-257000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-301000</v>
-      </c>
       <c r="I91" s="3">
-        <v>-257000</v>
+        <v>-336000</v>
       </c>
       <c r="J91" s="3">
+        <v>-254000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-336000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-254000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-207400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-327700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-62800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-418300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-313900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-466700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-484700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-514600</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-419400</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-482500</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB91" s="3">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-442100</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD91" s="3">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3">
         <v>111500</v>
       </c>
-      <c r="AE91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7582,47 +7812,50 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-123500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-89900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-340400</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-812300</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB94" s="3">
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC94" s="3">
         <v>127900</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD94" s="3">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-699600</v>
       </c>
-      <c r="AE94" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7708,43 +7942,46 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-395300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-198700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-396400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-173900</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-401700</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-165500</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8060,47 +8306,50 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1162300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1711700</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-411800</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-507100</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC100" s="3">
         <v>-1361000</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD100" s="3">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-363900</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8173,23 +8422,26 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB101" s="3">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE101" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8238,43 +8490,46 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-271700</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-516900</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>216300</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-69600</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-296200</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD102" s="3">
+      <c r="AD102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE102" s="3">
         <v>261800</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
